--- a/teacher/ali/data/ans/result.xlsx
+++ b/teacher/ali/data/ans/result.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <si>
     <t>ID716</t>
   </si>
@@ -381,6 +381,14 @@
   </si>
   <si>
     <t>工序lda</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>w</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1370,10 +1378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N105"/>
+  <dimension ref="A1:N106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="J109" sqref="J109"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="G106" sqref="G106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5980,6 +5988,14 @@
         <v>117</v>
       </c>
     </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="G106" t="s">
+        <v>119</v>
+      </c>
+      <c r="H106" t="s">
+        <v>118</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/teacher/ali/data/ans/result.xlsx
+++ b/teacher/ali/data/ans/result.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
   <si>
     <t>ID716</t>
   </si>
@@ -389,6 +389,30 @@
   </si>
   <si>
     <t>b</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>去极值，2阶</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>去极值，3阶回归</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>去极值，lda</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>去极值，knn</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>w</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1378,18 +1402,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N106"/>
+  <dimension ref="A1:R106"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="G106" sqref="G106"/>
+      <selection activeCell="K100" sqref="K1:K100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="11" max="14" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="18" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1432,8 +1457,20 @@
       <c r="N1">
         <v>2.7182949503448199</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O1">
+        <v>2.7388044219393399</v>
+      </c>
+      <c r="P1">
+        <v>2.7719953245690401</v>
+      </c>
+      <c r="Q1">
+        <v>2.76448791771855</v>
+      </c>
+      <c r="R1">
+        <v>2.71357994236662</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1476,8 +1513,20 @@
       <c r="N2">
         <v>2.7897198859386299</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O2">
+        <v>2.7713460635068499</v>
+      </c>
+      <c r="P2">
+        <v>2.71820647368807</v>
+      </c>
+      <c r="Q2">
+        <v>2.7693698524779502</v>
+      </c>
+      <c r="R2">
+        <v>2.76681844443601</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1520,8 +1569,20 @@
       <c r="N3">
         <v>2.8395266452236401</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O3">
+        <v>2.8608156046240398</v>
+      </c>
+      <c r="P3">
+        <v>2.8388643922392101</v>
+      </c>
+      <c r="Q3">
+        <v>2.84072377807072</v>
+      </c>
+      <c r="R3">
+        <v>2.8634195081637599</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1564,8 +1625,20 @@
       <c r="N4">
         <v>2.77276042882262</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O4">
+        <v>2.87254587380647</v>
+      </c>
+      <c r="P4">
+        <v>2.84539085666959</v>
+      </c>
+      <c r="Q4">
+        <v>2.8518604795604499</v>
+      </c>
+      <c r="R4">
+        <v>2.9057067273641501</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1608,8 +1681,20 @@
       <c r="N5">
         <v>2.83197983755788</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O5">
+        <v>2.8844070685167198</v>
+      </c>
+      <c r="P5">
+        <v>2.8408157835662902</v>
+      </c>
+      <c r="Q5">
+        <v>2.8360471007135701</v>
+      </c>
+      <c r="R5">
+        <v>2.8923134868461</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1652,8 +1737,20 @@
       <c r="N6">
         <v>2.8445696979655399</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O6">
+        <v>2.8009775786105702</v>
+      </c>
+      <c r="P6">
+        <v>2.8548479545249901</v>
+      </c>
+      <c r="Q6">
+        <v>2.83708263850321</v>
+      </c>
+      <c r="R6">
+        <v>2.90384614001889</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1696,8 +1793,20 @@
       <c r="N7">
         <v>2.8595496022198299</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O7">
+        <v>2.8420698377165401</v>
+      </c>
+      <c r="P7">
+        <v>2.84771873347505</v>
+      </c>
+      <c r="Q7">
+        <v>2.8613249466226298</v>
+      </c>
+      <c r="R7">
+        <v>2.8753102374187001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1740,8 +1849,20 @@
       <c r="N8">
         <v>2.8293904639897902</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O8">
+        <v>2.81862878474496</v>
+      </c>
+      <c r="P8">
+        <v>2.8410971425985898</v>
+      </c>
+      <c r="Q8">
+        <v>2.7093361503202402</v>
+      </c>
+      <c r="R8">
+        <v>2.7565464674566802</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1784,8 +1905,20 @@
       <c r="N9">
         <v>2.81802521738723</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O9">
+        <v>2.8105181620405801</v>
+      </c>
+      <c r="P9">
+        <v>2.8424442330522801</v>
+      </c>
+      <c r="Q9">
+        <v>2.7310409689233701</v>
+      </c>
+      <c r="R9">
+        <v>2.7243036822738</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1828,8 +1961,20 @@
       <c r="N10">
         <v>2.7816425727847101</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O10">
+        <v>2.8431314003653698</v>
+      </c>
+      <c r="P10">
+        <v>2.83522747246916</v>
+      </c>
+      <c r="Q10">
+        <v>2.75462100084891</v>
+      </c>
+      <c r="R10">
+        <v>2.7493226252115401</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1872,8 +2017,20 @@
       <c r="N11">
         <v>2.7815593716132301</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O11">
+        <v>2.8356443429705398</v>
+      </c>
+      <c r="P11">
+        <v>2.8364553189625101</v>
+      </c>
+      <c r="Q11">
+        <v>2.7367146744627799</v>
+      </c>
+      <c r="R11">
+        <v>2.6894991607619101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1916,8 +2073,20 @@
       <c r="N12">
         <v>2.85791909781917</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O12">
+        <v>2.8762526590555799</v>
+      </c>
+      <c r="P12">
+        <v>2.8486867461624201</v>
+      </c>
+      <c r="Q12">
+        <v>2.8607109070203198</v>
+      </c>
+      <c r="R12">
+        <v>2.9189964659760701</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1960,8 +2129,20 @@
       <c r="N13">
         <v>2.8368231587472499</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O13">
+        <v>2.8229341820912199</v>
+      </c>
+      <c r="P13">
+        <v>2.8677580003051699</v>
+      </c>
+      <c r="Q13">
+        <v>2.8589612531544799</v>
+      </c>
+      <c r="R13">
+        <v>3.0013169343395001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2004,8 +2185,20 @@
       <c r="N14">
         <v>2.8308088483284801</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O14">
+        <v>2.7842541688048899</v>
+      </c>
+      <c r="P14">
+        <v>2.8469808739736</v>
+      </c>
+      <c r="Q14">
+        <v>2.8226373665750399</v>
+      </c>
+      <c r="R14">
+        <v>2.8367465480208098</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2048,8 +2241,20 @@
       <c r="N15">
         <v>2.8290767473439602</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O15">
+        <v>2.8819611058982999</v>
+      </c>
+      <c r="P15">
+        <v>2.8635443618136498</v>
+      </c>
+      <c r="Q15">
+        <v>2.8268139332584998</v>
+      </c>
+      <c r="R15">
+        <v>3.0562470507804602</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2092,8 +2297,20 @@
       <c r="N16">
         <v>2.9120155638443102</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O16">
+        <v>2.8123627288455602</v>
+      </c>
+      <c r="P16">
+        <v>2.8350070506357099</v>
+      </c>
+      <c r="Q16">
+        <v>2.8337350973566098</v>
+      </c>
+      <c r="R16">
+        <v>2.8441732419824399</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2136,8 +2353,20 @@
       <c r="N17">
         <v>2.89071504320217</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O17">
+        <v>2.8922578186945498</v>
+      </c>
+      <c r="P17">
+        <v>2.8545013970308899</v>
+      </c>
+      <c r="Q17">
+        <v>3.0284386849384601</v>
+      </c>
+      <c r="R17">
+        <v>2.89071504320217</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -2180,8 +2409,20 @@
       <c r="N18">
         <v>2.73317400776217</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O18">
+        <v>2.8726005434468398</v>
+      </c>
+      <c r="P18">
+        <v>2.82947792205435</v>
+      </c>
+      <c r="Q18">
+        <v>2.83889763315669</v>
+      </c>
+      <c r="R18">
+        <v>2.8695971954670401</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2224,8 +2465,20 @@
       <c r="N19">
         <v>2.7335347164139501</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O19">
+        <v>2.8477173132208899</v>
+      </c>
+      <c r="P19">
+        <v>2.84043708926961</v>
+      </c>
+      <c r="Q19">
+        <v>2.7861025826136898</v>
+      </c>
+      <c r="R19">
+        <v>2.8447350394854598</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2268,8 +2521,20 @@
       <c r="N20">
         <v>2.8947807389497102</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O20">
+        <v>2.8870489662618501</v>
+      </c>
+      <c r="P20">
+        <v>2.8479878610916498</v>
+      </c>
+      <c r="Q20">
+        <v>2.92676717617677</v>
+      </c>
+      <c r="R20">
+        <v>2.8172663376538298</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2312,8 +2577,20 @@
       <c r="N21">
         <v>2.8268047112111798</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O21">
+        <v>2.8237851213102498</v>
+      </c>
+      <c r="P21">
+        <v>2.83294030576005</v>
+      </c>
+      <c r="Q21">
+        <v>2.8022552720093099</v>
+      </c>
+      <c r="R21">
+        <v>2.94012084562649</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2356,8 +2633,20 @@
       <c r="N22">
         <v>2.8447350394854598</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O22">
+        <v>2.85301982920525</v>
+      </c>
+      <c r="P22">
+        <v>2.8565066226646998</v>
+      </c>
+      <c r="Q22">
+        <v>2.76926398543393</v>
+      </c>
+      <c r="R22">
+        <v>2.8447350394854598</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -2400,8 +2689,20 @@
       <c r="N23">
         <v>2.8683970258624698</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O23">
+        <v>2.85767358876469</v>
+      </c>
+      <c r="P23">
+        <v>2.83927238247347</v>
+      </c>
+      <c r="Q23">
+        <v>2.8468025270669299</v>
+      </c>
+      <c r="R23">
+        <v>2.83055030892434</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -2444,8 +2745,20 @@
       <c r="N24">
         <v>2.7577330698776299</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O24">
+        <v>2.84821874806949</v>
+      </c>
+      <c r="P24">
+        <v>2.8296674948192102</v>
+      </c>
+      <c r="Q24">
+        <v>2.8196551935811298</v>
+      </c>
+      <c r="R24">
+        <v>2.8270367977178301</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -2488,8 +2801,20 @@
       <c r="N25">
         <v>2.79195578903194</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O25">
+        <v>2.8835263246752301</v>
+      </c>
+      <c r="P25">
+        <v>2.84206218453255</v>
+      </c>
+      <c r="Q25">
+        <v>2.9207330684311401</v>
+      </c>
+      <c r="R25">
+        <v>2.79195578903194</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -2532,8 +2857,20 @@
       <c r="N26">
         <v>2.8344646922418399</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O26">
+        <v>2.8554628030550102</v>
+      </c>
+      <c r="P26">
+        <v>2.8403833093264401</v>
+      </c>
+      <c r="Q26">
+        <v>2.8643328709391098</v>
+      </c>
+      <c r="R26">
+        <v>2.9073366472916602</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2576,8 +2913,20 @@
       <c r="N27">
         <v>2.9645633078969298</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O27">
+        <v>2.7777513887609802</v>
+      </c>
+      <c r="P27">
+        <v>2.8393196732405901</v>
+      </c>
+      <c r="Q27">
+        <v>2.9060772104563801</v>
+      </c>
+      <c r="R27">
+        <v>2.8176939576188298</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -2620,8 +2969,20 @@
       <c r="N28">
         <v>2.6776424877635701</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O28">
+        <v>2.8110881955154099</v>
+      </c>
+      <c r="P28">
+        <v>2.8389330578046801</v>
+      </c>
+      <c r="Q28">
+        <v>3.0293265062886801</v>
+      </c>
+      <c r="R28">
+        <v>2.7902252557871901</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -2664,8 +3025,20 @@
       <c r="N29">
         <v>2.8844066216589099</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O29">
+        <v>2.83672733766495</v>
+      </c>
+      <c r="P29">
+        <v>2.8429042653341599</v>
+      </c>
+      <c r="Q29">
+        <v>2.7772062047683499</v>
+      </c>
+      <c r="R29">
+        <v>2.8094255522531002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -2708,8 +3081,20 @@
       <c r="N30">
         <v>2.8702542647986999</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O30">
+        <v>2.8033540617592698</v>
+      </c>
+      <c r="P30">
+        <v>2.8369378239230998</v>
+      </c>
+      <c r="Q30">
+        <v>2.8989454089970699</v>
+      </c>
+      <c r="R30">
+        <v>2.89939447329456</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -2752,8 +3137,20 @@
       <c r="N31">
         <v>2.83925904371866</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O31">
+        <v>2.8092672394441398</v>
+      </c>
+      <c r="P31">
+        <v>2.8371036886391598</v>
+      </c>
+      <c r="Q31">
+        <v>2.8602868667493002</v>
+      </c>
+      <c r="R31">
+        <v>2.82548857879098</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -2796,8 +3193,20 @@
       <c r="N32">
         <v>2.8270328852295998</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O32">
+        <v>2.88926123132876</v>
+      </c>
+      <c r="P32">
+        <v>2.8491440450437602</v>
+      </c>
+      <c r="Q32">
+        <v>2.8968017745074102</v>
+      </c>
+      <c r="R32">
+        <v>2.8447350394854598</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -2840,8 +3249,20 @@
       <c r="N33">
         <v>2.87474091224203</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O33">
+        <v>2.83805457150171</v>
+      </c>
+      <c r="P33">
+        <v>2.85741479956573</v>
+      </c>
+      <c r="Q33">
+        <v>2.8383031272667401</v>
+      </c>
+      <c r="R33">
+        <v>2.92425560538156</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -2884,8 +3305,20 @@
       <c r="N34">
         <v>2.8479334264151999</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O34">
+        <v>2.9243763337650699</v>
+      </c>
+      <c r="P34">
+        <v>2.8675071672222701</v>
+      </c>
+      <c r="Q34">
+        <v>2.8286165034742901</v>
+      </c>
+      <c r="R34">
+        <v>3.1310467453776898</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -2928,8 +3361,20 @@
       <c r="N35">
         <v>2.8132324954633599</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O35">
+        <v>2.8703836438806301</v>
+      </c>
+      <c r="P35">
+        <v>2.8462101415538799</v>
+      </c>
+      <c r="Q35">
+        <v>2.81123697638919</v>
+      </c>
+      <c r="R35">
+        <v>2.9479518987943698</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -2972,8 +3417,20 @@
       <c r="N36">
         <v>2.8301384422112701</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O36">
+        <v>2.8464375451070199</v>
+      </c>
+      <c r="P36">
+        <v>2.8491100518442698</v>
+      </c>
+      <c r="Q36">
+        <v>2.8058088544003299</v>
+      </c>
+      <c r="R36">
+        <v>3.0591180489021101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -3016,8 +3473,20 @@
       <c r="N37">
         <v>2.7861021610117098</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O37">
+        <v>2.8535400736927001</v>
+      </c>
+      <c r="P37">
+        <v>2.8405546225334102</v>
+      </c>
+      <c r="Q37">
+        <v>2.8599985072225298</v>
+      </c>
+      <c r="R37">
+        <v>2.86614129744751</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -3060,8 +3529,20 @@
       <c r="N38">
         <v>2.82216035537932</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O38">
+        <v>2.8622842491624398</v>
+      </c>
+      <c r="P38">
+        <v>2.8571778737004601</v>
+      </c>
+      <c r="Q38">
+        <v>2.8512463754650099</v>
+      </c>
+      <c r="R38">
+        <v>2.8865699125000202</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -3104,8 +3585,20 @@
       <c r="N39">
         <v>2.6950594310828899</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O39">
+        <v>2.8396078996247498</v>
+      </c>
+      <c r="P39">
+        <v>2.8325605060557999</v>
+      </c>
+      <c r="Q39">
+        <v>2.8376084638839698</v>
+      </c>
+      <c r="R39">
+        <v>2.90331219046212</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -3148,8 +3641,20 @@
       <c r="N40">
         <v>2.70099225066997</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O40">
+        <v>2.8347500632501301</v>
+      </c>
+      <c r="P40">
+        <v>2.8359057524868501</v>
+      </c>
+      <c r="Q40">
+        <v>2.8626333299598801</v>
+      </c>
+      <c r="R40">
+        <v>2.9266795733066902</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -3192,8 +3697,20 @@
       <c r="N41">
         <v>2.7902037581714501</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O41">
+        <v>2.8880396285324599</v>
+      </c>
+      <c r="P41">
+        <v>2.8449078839538902</v>
+      </c>
+      <c r="Q41">
+        <v>2.81072033624437</v>
+      </c>
+      <c r="R41">
+        <v>2.8611540019225399</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -3236,8 +3753,20 @@
       <c r="N42">
         <v>2.7699942136739102</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O42">
+        <v>2.8437270834519799</v>
+      </c>
+      <c r="P42">
+        <v>2.8451838145365902</v>
+      </c>
+      <c r="Q42">
+        <v>2.8691317795920899</v>
+      </c>
+      <c r="R42">
+        <v>2.90331219046212</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -3280,8 +3809,20 @@
       <c r="N43">
         <v>2.8123471965277198</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O43">
+        <v>2.8693314849628599</v>
+      </c>
+      <c r="P43">
+        <v>2.8371910891372001</v>
+      </c>
+      <c r="Q43">
+        <v>2.81756387549822</v>
+      </c>
+      <c r="R43">
+        <v>2.9560128269184598</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -3324,8 +3865,20 @@
       <c r="N44">
         <v>2.8443655661373102</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O44">
+        <v>2.8915390402958701</v>
+      </c>
+      <c r="P44">
+        <v>2.84733868829503</v>
+      </c>
+      <c r="Q44">
+        <v>2.8691835750517001</v>
+      </c>
+      <c r="R44">
+        <v>2.89939447329456</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -3368,8 +3921,20 @@
       <c r="N45">
         <v>2.86073226204919</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O45">
+        <v>2.8152501079253698</v>
+      </c>
+      <c r="P45">
+        <v>2.84430819042168</v>
+      </c>
+      <c r="Q45">
+        <v>2.9392618159436701</v>
+      </c>
+      <c r="R45">
+        <v>2.86073226204919</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -3412,8 +3977,20 @@
       <c r="N46">
         <v>2.8972637556113701</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O46">
+        <v>2.8918902052712601</v>
+      </c>
+      <c r="P46">
+        <v>2.83742009195986</v>
+      </c>
+      <c r="Q46">
+        <v>2.8497663078738298</v>
+      </c>
+      <c r="R46">
+        <v>2.82548857879098</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -3456,8 +4033,20 @@
       <c r="N47">
         <v>3.0427085280763499</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O47">
+        <v>2.78262641976902</v>
+      </c>
+      <c r="P47">
+        <v>2.8533525888434301</v>
+      </c>
+      <c r="Q47">
+        <v>3.00154528872471</v>
+      </c>
+      <c r="R47">
+        <v>2.9139261319537</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -3500,8 +4089,20 @@
       <c r="N48">
         <v>2.87564830340032</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O48">
+        <v>2.7934919319834299</v>
+      </c>
+      <c r="P48">
+        <v>2.8455054723796298</v>
+      </c>
+      <c r="Q48">
+        <v>2.8365279055144699</v>
+      </c>
+      <c r="R48">
+        <v>2.8447350394854598</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -3544,8 +4145,20 @@
       <c r="N49">
         <v>2.7300927319885901</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O49">
+        <v>2.82227611583503</v>
+      </c>
+      <c r="P49">
+        <v>2.8366300936873001</v>
+      </c>
+      <c r="Q49">
+        <v>2.91781840741633</v>
+      </c>
+      <c r="R49">
+        <v>2.85521692937537</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -3588,8 +4201,20 @@
       <c r="N50">
         <v>2.9010328741818801</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O50">
+        <v>2.8445470039646099</v>
+      </c>
+      <c r="P50">
+        <v>2.84576885389348</v>
+      </c>
+      <c r="Q50">
+        <v>2.8411721268225998</v>
+      </c>
+      <c r="R50">
+        <v>2.8447350394854598</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -3632,8 +4257,20 @@
       <c r="N51">
         <v>2.9064877181398998</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O51">
+        <v>2.8006610492553601</v>
+      </c>
+      <c r="P51">
+        <v>2.8356028378197902</v>
+      </c>
+      <c r="Q51">
+        <v>3.0036201851523598</v>
+      </c>
+      <c r="R51">
+        <v>2.8896284331466902</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -3676,8 +4313,20 @@
       <c r="N52">
         <v>2.83541474729698</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O52">
+        <v>2.8718199750947102</v>
+      </c>
+      <c r="P52">
+        <v>2.8606539172876402</v>
+      </c>
+      <c r="Q52">
+        <v>2.83824941381893</v>
+      </c>
+      <c r="R52">
+        <v>2.89071504320217</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -3720,8 +4369,20 @@
       <c r="N53">
         <v>2.8580685822449401</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O53">
+        <v>2.79424044983273</v>
+      </c>
+      <c r="P53">
+        <v>2.8398436630013699</v>
+      </c>
+      <c r="Q53">
+        <v>2.8372653688445402</v>
+      </c>
+      <c r="R53">
+        <v>3.0460436680871998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -3764,8 +4425,20 @@
       <c r="N54">
         <v>2.8402910077139398</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O54">
+        <v>2.8454549722937599</v>
+      </c>
+      <c r="P54">
+        <v>2.8418921218557802</v>
+      </c>
+      <c r="Q54">
+        <v>2.8175341206225299</v>
+      </c>
+      <c r="R54">
+        <v>2.9285941049667401</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -3808,8 +4481,20 @@
       <c r="N55">
         <v>2.9646981112844699</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O55">
+        <v>2.8904766973531602</v>
+      </c>
+      <c r="P55">
+        <v>2.8500913768767999</v>
+      </c>
+      <c r="Q55">
+        <v>2.92529236020673</v>
+      </c>
+      <c r="R55">
+        <v>2.8296740945671299</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -3852,8 +4537,20 @@
       <c r="N56">
         <v>2.8772647439732402</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O56">
+        <v>2.8400676658289901</v>
+      </c>
+      <c r="P56">
+        <v>2.8431869345473002</v>
+      </c>
+      <c r="Q56">
+        <v>2.9316562716602701</v>
+      </c>
+      <c r="R56">
+        <v>2.8749131121989602</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -3896,8 +4593,20 @@
       <c r="N57">
         <v>2.9310431950441198</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O57">
+        <v>2.9546721753823699</v>
+      </c>
+      <c r="P57">
+        <v>2.8504653682706098</v>
+      </c>
+      <c r="Q57">
+        <v>2.8689441270066398</v>
+      </c>
+      <c r="R57">
+        <v>2.8997301099405299</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -3940,8 +4649,20 @@
       <c r="N58">
         <v>2.8272471557020502</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O58">
+        <v>2.8995849732560202</v>
+      </c>
+      <c r="P58">
+        <v>2.85049218078175</v>
+      </c>
+      <c r="Q58">
+        <v>2.81200954111242</v>
+      </c>
+      <c r="R58">
+        <v>3.0445120285406602</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -3984,8 +4705,20 @@
       <c r="N59">
         <v>2.83461096103792</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O59">
+        <v>2.8495481492964099</v>
+      </c>
+      <c r="P59">
+        <v>2.8419034759941599</v>
+      </c>
+      <c r="Q59">
+        <v>2.8664801670053301</v>
+      </c>
+      <c r="R59">
+        <v>2.8575734286701802</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -4028,8 +4761,20 @@
       <c r="N60">
         <v>2.78220091435991</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O60">
+        <v>2.92514623766793</v>
+      </c>
+      <c r="P60">
+        <v>2.8448351173897701</v>
+      </c>
+      <c r="Q60">
+        <v>2.76804695115064</v>
+      </c>
+      <c r="R60">
+        <v>3.0490748042304499</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -4072,8 +4817,20 @@
       <c r="N61">
         <v>2.8108234030735999</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O61">
+        <v>2.7525392584021402</v>
+      </c>
+      <c r="P61">
+        <v>2.7988468302995799</v>
+      </c>
+      <c r="Q61">
+        <v>2.8110108369615601</v>
+      </c>
+      <c r="R61">
+        <v>2.7291448438071901</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -4116,8 +4873,20 @@
       <c r="N62">
         <v>2.8511434531169999</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O62">
+        <v>2.9448604785566701</v>
+      </c>
+      <c r="P62">
+        <v>2.8433968013800199</v>
+      </c>
+      <c r="Q62">
+        <v>2.8206070517604398</v>
+      </c>
+      <c r="R62">
+        <v>2.8664229635860101</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -4160,8 +4929,20 @@
       <c r="N63">
         <v>2.8337382690744501</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O63">
+        <v>2.8699288257819799</v>
+      </c>
+      <c r="P63">
+        <v>2.8458317263807502</v>
+      </c>
+      <c r="Q63">
+        <v>2.8180200999441598</v>
+      </c>
+      <c r="R63">
+        <v>2.8862245967101798</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -4204,8 +4985,20 @@
       <c r="N64">
         <v>2.7855068028611001</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O64">
+        <v>2.8541486962053799</v>
+      </c>
+      <c r="P64">
+        <v>2.8396827391530199</v>
+      </c>
+      <c r="Q64">
+        <v>2.7928041965398198</v>
+      </c>
+      <c r="R64">
+        <v>2.9357349560269501</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -4248,8 +5041,20 @@
       <c r="N65">
         <v>2.8372113521937998</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O65">
+        <v>2.8984870916674401</v>
+      </c>
+      <c r="P65">
+        <v>2.8601196465513601</v>
+      </c>
+      <c r="Q65">
+        <v>2.8613176257795798</v>
+      </c>
+      <c r="R65">
+        <v>2.8931017956334402</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -4292,8 +5097,20 @@
       <c r="N66">
         <v>2.80485931249952</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O66">
+        <v>2.8140708856445502</v>
+      </c>
+      <c r="P66">
+        <v>2.8388310180401199</v>
+      </c>
+      <c r="Q66">
+        <v>2.80667307070539</v>
+      </c>
+      <c r="R66">
+        <v>2.80487815176487</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -4336,8 +5153,20 @@
       <c r="N67">
         <v>2.8399364926258701</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O67">
+        <v>2.8135894321978099</v>
+      </c>
+      <c r="P67">
+        <v>2.8254543083530002</v>
+      </c>
+      <c r="Q67">
+        <v>2.8236486465862201</v>
+      </c>
+      <c r="R67">
+        <v>2.9358686884126501</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -4380,8 +5209,20 @@
       <c r="N68">
         <v>2.8385292157437498</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O68">
+        <v>2.8204487068753101</v>
+      </c>
+      <c r="P68">
+        <v>2.8652993554622599</v>
+      </c>
+      <c r="Q68">
+        <v>2.8500812575848302</v>
+      </c>
+      <c r="R68">
+        <v>2.9335113235963801</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -4424,8 +5265,20 @@
       <c r="N69">
         <v>2.8311738699492</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O69">
+        <v>2.9340170783383202</v>
+      </c>
+      <c r="P69">
+        <v>2.8788415490441501</v>
+      </c>
+      <c r="Q69">
+        <v>2.8783017377226701</v>
+      </c>
+      <c r="R69">
+        <v>3.0733787380464102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -4468,8 +5321,20 @@
       <c r="N70">
         <v>2.7925281564327702</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O70">
+        <v>2.6936480753453602</v>
+      </c>
+      <c r="P70">
+        <v>2.7273894274783199</v>
+      </c>
+      <c r="Q70">
+        <v>2.8200944955520599</v>
+      </c>
+      <c r="R70">
+        <v>2.6944401005719598</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -4512,8 +5377,20 @@
       <c r="N71">
         <v>2.8592515125608</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O71">
+        <v>2.8756986505938098</v>
+      </c>
+      <c r="P71">
+        <v>2.8380389914215698</v>
+      </c>
+      <c r="Q71">
+        <v>2.8355517036804598</v>
+      </c>
+      <c r="R71">
+        <v>2.8933806212462598</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -4556,8 +5433,20 @@
       <c r="N72">
         <v>2.6465776140321902</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O72">
+        <v>2.8337224407476702</v>
+      </c>
+      <c r="P72">
+        <v>2.8304312118439601</v>
+      </c>
+      <c r="Q72">
+        <v>2.7590490220120398</v>
+      </c>
+      <c r="R72">
+        <v>2.9010974863212899</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -4600,8 +5489,20 @@
       <c r="N73">
         <v>2.8491338212206099</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O73">
+        <v>2.8308362570191399</v>
+      </c>
+      <c r="P73">
+        <v>2.84084827736182</v>
+      </c>
+      <c r="Q73">
+        <v>2.8414312647159798</v>
+      </c>
+      <c r="R73">
+        <v>2.8930974545684598</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -4644,8 +5545,20 @@
       <c r="N74">
         <v>2.90620919665156</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O74">
+        <v>2.8626514153275999</v>
+      </c>
+      <c r="P74">
+        <v>2.8372009088336001</v>
+      </c>
+      <c r="Q74">
+        <v>2.8666302475641499</v>
+      </c>
+      <c r="R74">
+        <v>2.9411293941314698</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -4688,8 +5601,20 @@
       <c r="N75">
         <v>2.8339054178691301</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O75">
+        <v>2.71228161776143</v>
+      </c>
+      <c r="P75">
+        <v>2.8307989556964102</v>
+      </c>
+      <c r="Q75">
+        <v>2.8435252385898702</v>
+      </c>
+      <c r="R75">
+        <v>2.8044258561002802</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -4732,8 +5657,20 @@
       <c r="N76">
         <v>2.8380976439590899</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O76">
+        <v>2.90672666992428</v>
+      </c>
+      <c r="P76">
+        <v>2.84760889129047</v>
+      </c>
+      <c r="Q76">
+        <v>2.8443975966447801</v>
+      </c>
+      <c r="R76">
+        <v>2.9433355740707601</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -4776,8 +5713,20 @@
       <c r="N77">
         <v>2.8600547657985298</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O77">
+        <v>2.8125211032662101</v>
+      </c>
+      <c r="P77">
+        <v>2.8351527919786399</v>
+      </c>
+      <c r="Q77">
+        <v>2.8731171250525902</v>
+      </c>
+      <c r="R77">
+        <v>2.7563118531272699</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -4820,8 +5769,20 @@
       <c r="N78">
         <v>2.7430295859666698</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O78">
+        <v>2.8735657897386599</v>
+      </c>
+      <c r="P78">
+        <v>2.83322864048968</v>
+      </c>
+      <c r="Q78">
+        <v>2.7791446085103302</v>
+      </c>
+      <c r="R78">
+        <v>2.6502295328028902</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -4864,8 +5825,20 @@
       <c r="N79">
         <v>2.82717737515227</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O79">
+        <v>2.78555812013265</v>
+      </c>
+      <c r="P79">
+        <v>2.8198267262271099</v>
+      </c>
+      <c r="Q79">
+        <v>2.8350603468840498</v>
+      </c>
+      <c r="R79">
+        <v>2.7650304349110901</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -4908,8 +5881,20 @@
       <c r="N80">
         <v>2.84074968557643</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O80">
+        <v>2.8745834986907099</v>
+      </c>
+      <c r="P80">
+        <v>2.8582405625206202</v>
+      </c>
+      <c r="Q80">
+        <v>2.8726277741597199</v>
+      </c>
+      <c r="R80">
+        <v>3.00161826541322</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -4952,8 +5937,20 @@
       <c r="N81">
         <v>2.98361890673449</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O81">
+        <v>2.8733219525787899</v>
+      </c>
+      <c r="P81">
+        <v>2.8509834544969399</v>
+      </c>
+      <c r="Q81">
+        <v>2.8890028792121099</v>
+      </c>
+      <c r="R81">
+        <v>2.97441000807197</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -4996,8 +5993,20 @@
       <c r="N82">
         <v>2.8125094751619999</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O82">
+        <v>2.8358505163879602</v>
+      </c>
+      <c r="P82">
+        <v>2.8366165420564702</v>
+      </c>
+      <c r="Q82">
+        <v>2.8361557959901398</v>
+      </c>
+      <c r="R82">
+        <v>2.9247766231073</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -5040,8 +6049,20 @@
       <c r="N83">
         <v>2.8456778077270402</v>
       </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O83">
+        <v>2.8165610369115801</v>
+      </c>
+      <c r="P83">
+        <v>2.8562221047388801</v>
+      </c>
+      <c r="Q83">
+        <v>2.8650210056197101</v>
+      </c>
+      <c r="R83">
+        <v>2.99273721093709</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -5084,8 +6105,20 @@
       <c r="N84">
         <v>2.81585323544323</v>
       </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O84">
+        <v>2.7181053325975002</v>
+      </c>
+      <c r="P84">
+        <v>2.77852391473593</v>
+      </c>
+      <c r="Q84">
+        <v>2.8258164228067399</v>
+      </c>
+      <c r="R84">
+        <v>2.8601329503878699</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -5128,8 +6161,20 @@
       <c r="N85">
         <v>2.7958463216060099</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O85">
+        <v>2.6634572225799902</v>
+      </c>
+      <c r="P85">
+        <v>2.7793430138680302</v>
+      </c>
+      <c r="Q85">
+        <v>2.8202676296651799</v>
+      </c>
+      <c r="R85">
+        <v>2.8200584540209399</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -5172,8 +6217,20 @@
       <c r="N86">
         <v>2.83246576356319</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O86">
+        <v>2.8617887036150398</v>
+      </c>
+      <c r="P86">
+        <v>2.8639791648334199</v>
+      </c>
+      <c r="Q86">
+        <v>2.8330039664142501</v>
+      </c>
+      <c r="R86">
+        <v>2.80672229176536</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -5216,8 +6273,20 @@
       <c r="N87">
         <v>2.80868976155987</v>
       </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O87">
+        <v>2.7724160306560002</v>
+      </c>
+      <c r="P87">
+        <v>2.8093399872339901</v>
+      </c>
+      <c r="Q87">
+        <v>2.7881143257043699</v>
+      </c>
+      <c r="R87">
+        <v>2.78568339598452</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -5260,8 +6329,20 @@
       <c r="N88">
         <v>2.8286375674993098</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O88">
+        <v>2.9699014207369898</v>
+      </c>
+      <c r="P88">
+        <v>2.90279285634224</v>
+      </c>
+      <c r="Q88">
+        <v>2.8187428495909002</v>
+      </c>
+      <c r="R88">
+        <v>2.7741503346602099</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -5304,8 +6385,20 @@
       <c r="N89">
         <v>2.9066271208241399</v>
       </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O89">
+        <v>2.9015647269560199</v>
+      </c>
+      <c r="P89">
+        <v>2.8495760232628098</v>
+      </c>
+      <c r="Q89">
+        <v>2.8566634933228601</v>
+      </c>
+      <c r="R89">
+        <v>2.9584131955510098</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -5348,8 +6441,20 @@
       <c r="N90">
         <v>2.8351558626677602</v>
       </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O90">
+        <v>2.8969859044200899</v>
+      </c>
+      <c r="P90">
+        <v>2.8554007401069201</v>
+      </c>
+      <c r="Q90">
+        <v>2.83599082931224</v>
+      </c>
+      <c r="R90">
+        <v>2.9533970803994398</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -5392,8 +6497,20 @@
       <c r="N91">
         <v>2.8173701460775802</v>
       </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O91">
+        <v>2.8280985506012501</v>
+      </c>
+      <c r="P91">
+        <v>2.8402517068603998</v>
+      </c>
+      <c r="Q91">
+        <v>2.8196347625842502</v>
+      </c>
+      <c r="R91">
+        <v>2.8352293116685998</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -5436,8 +6553,20 @@
       <c r="N92">
         <v>2.8232007144210098</v>
       </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O92">
+        <v>2.8817267854191502</v>
+      </c>
+      <c r="P92">
+        <v>2.8433816800085698</v>
+      </c>
+      <c r="Q92">
+        <v>2.8223958361605801</v>
+      </c>
+      <c r="R92">
+        <v>2.8849568795062099</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -5480,8 +6609,20 @@
       <c r="N93">
         <v>2.86496259616478</v>
       </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O93">
+        <v>2.8245853003395398</v>
+      </c>
+      <c r="P93">
+        <v>2.8333252176194499</v>
+      </c>
+      <c r="Q93">
+        <v>2.9457685808611598</v>
+      </c>
+      <c r="R93">
+        <v>2.8582236116876101</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -5524,8 +6665,20 @@
       <c r="N94">
         <v>2.8483085486314801</v>
       </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O94">
+        <v>2.8947522155690102</v>
+      </c>
+      <c r="P94">
+        <v>2.8458317868509302</v>
+      </c>
+      <c r="Q94">
+        <v>2.8361113344484199</v>
+      </c>
+      <c r="R94">
+        <v>2.8555804108926401</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -5568,8 +6721,20 @@
       <c r="N95">
         <v>2.8259511292143</v>
       </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O95">
+        <v>2.8043830110363799</v>
+      </c>
+      <c r="P95">
+        <v>2.84449964568975</v>
+      </c>
+      <c r="Q95">
+        <v>2.8096707411236101</v>
+      </c>
+      <c r="R95">
+        <v>2.86628541630277</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -5612,8 +6777,20 @@
       <c r="N96">
         <v>2.8180931663056801</v>
       </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O96">
+        <v>2.8550126693474902</v>
+      </c>
+      <c r="P96">
+        <v>2.8274887173230998</v>
+      </c>
+      <c r="Q96">
+        <v>2.80101970094888</v>
+      </c>
+      <c r="R96">
+        <v>2.6660692845585099</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -5656,8 +6833,20 @@
       <c r="N97">
         <v>2.8081648309460299</v>
       </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O97">
+        <v>2.81410358890491</v>
+      </c>
+      <c r="P97">
+        <v>2.8325284068662899</v>
+      </c>
+      <c r="Q97">
+        <v>2.8080987252297498</v>
+      </c>
+      <c r="R97">
+        <v>2.7332221359554998</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -5700,8 +6889,20 @@
       <c r="N98">
         <v>2.82314103978789</v>
       </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O98">
+        <v>2.8653947494487699</v>
+      </c>
+      <c r="P98">
+        <v>2.84181227405367</v>
+      </c>
+      <c r="Q98">
+        <v>2.8269275363667798</v>
+      </c>
+      <c r="R98">
+        <v>2.86569967123584</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -5744,8 +6945,20 @@
       <c r="N99">
         <v>2.8507938510857</v>
       </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O99">
+        <v>2.9146358360907501</v>
+      </c>
+      <c r="P99">
+        <v>2.9149875935534899</v>
+      </c>
+      <c r="Q99">
+        <v>2.9025477506302502</v>
+      </c>
+      <c r="R99">
+        <v>2.9684237945863101</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -5788,13 +7001,25 @@
       <c r="N100">
         <v>2.8509135426234198</v>
       </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O100">
+        <v>2.86485464363472</v>
+      </c>
+      <c r="P100">
+        <v>2.84487737422003</v>
+      </c>
+      <c r="Q100">
+        <v>2.8202373307672799</v>
+      </c>
+      <c r="R100">
+        <v>2.9082811917009002</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
         <v>112</v>
       </c>
       <c r="B101">
-        <f t="shared" ref="B101:L101" si="0">SUM(B1:B100)/100</f>
+        <f t="shared" ref="B101:O101" si="0">SUM(B1:B100)/100</f>
         <v>2.8866340274999995</v>
       </c>
       <c r="C101">
@@ -5838,11 +7063,19 @@
         <v>2.8460038134044878</v>
       </c>
       <c r="M101">
-        <f>SUM(M1:M100)/100</f>
+        <f t="shared" si="0"/>
         <v>2.8848095011724735</v>
       </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="N101">
+        <f t="shared" si="0"/>
+        <v>2.8315080967053063</v>
+      </c>
+      <c r="O101">
+        <f t="shared" si="0"/>
+        <v>2.844106245320019</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
         <v>113</v>
       </c>
@@ -5861,8 +7094,17 @@
       <c r="F102">
         <v>5.04E-2</v>
       </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="G102">
+        <v>5.62E-2</v>
+      </c>
+      <c r="H102">
+        <v>5.0299999999999997E-2</v>
+      </c>
+      <c r="I102">
+        <v>4.9799999999999997E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
         <v>114</v>
       </c>
@@ -5891,7 +7133,7 @@
         <v>0.44976776500000026</v>
       </c>
       <c r="H103">
-        <f t="shared" ref="H103:M103" si="2">MAX(H1:H100)-MIN(H1:H100)</f>
+        <f t="shared" ref="H103:O103" si="2">MAX(H1:H100)-MIN(H1:H100)</f>
         <v>4.9903780000000175E-3</v>
       </c>
       <c r="I103">
@@ -5914,8 +7156,16 @@
         <f t="shared" si="2"/>
         <v>0.44713806286917013</v>
       </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="N103">
+        <f t="shared" si="2"/>
+        <v>0.39613091404415979</v>
+      </c>
+      <c r="O103">
+        <f t="shared" si="2"/>
+        <v>0.30644419815699964</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
         <v>115</v>
       </c>
@@ -5926,25 +7176,37 @@
         <v>43091</v>
       </c>
       <c r="I104" s="1">
-        <v>43092</v>
+        <v>43091</v>
       </c>
       <c r="J104" s="1">
         <v>43092</v>
       </c>
       <c r="K104" s="1">
-        <v>43093</v>
+        <v>43092</v>
       </c>
       <c r="L104" s="1">
         <v>43093</v>
       </c>
       <c r="M104" s="1">
-        <v>43094</v>
+        <v>43093</v>
       </c>
       <c r="N104" s="1">
         <v>43094</v>
       </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O104" s="1">
+        <v>43095</v>
+      </c>
+      <c r="P104" s="1">
+        <v>43095</v>
+      </c>
+      <c r="Q104" s="1">
+        <v>43096</v>
+      </c>
+      <c r="R104" s="1">
+        <v>43096</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
         <v>116</v>
       </c>
@@ -5987,13 +7249,31 @@
       <c r="N105" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O105" t="s">
+        <v>121</v>
+      </c>
+      <c r="P105" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>123</v>
+      </c>
+      <c r="R105" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.15">
       <c r="G106" t="s">
         <v>119</v>
       </c>
       <c r="H106" t="s">
         <v>118</v>
+      </c>
+      <c r="I106" t="s">
+        <v>120</v>
+      </c>
+      <c r="J106" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/teacher/ali/data/ans/result.xlsx
+++ b/teacher/ali/data/ans/result.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
   <si>
     <t>ID716</t>
   </si>
@@ -409,6 +409,18 @@
   </si>
   <si>
     <t>去极值，knn</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>w</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -1402,19 +1414,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R106"/>
+  <dimension ref="A1:S106"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="K100" sqref="K1:K100"/>
+      <selection activeCell="L108" sqref="L108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="9" max="9" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="18" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="19" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1446,31 +1458,34 @@
         <v>2.713579942</v>
       </c>
       <c r="K1">
+        <v>2.6840852900000001</v>
+      </c>
+      <c r="L1">
         <v>2.7643845860750398</v>
       </c>
-      <c r="L1">
+      <c r="M1">
         <v>2.8450196000546999</v>
       </c>
-      <c r="M1">
+      <c r="N1">
         <v>2.71357994236662</v>
       </c>
-      <c r="N1">
+      <c r="O1">
         <v>2.7182949503448199</v>
       </c>
-      <c r="O1">
+      <c r="P1">
         <v>2.7388044219393399</v>
       </c>
-      <c r="P1">
+      <c r="Q1">
         <v>2.7719953245690401</v>
       </c>
-      <c r="Q1">
+      <c r="R1">
         <v>2.76448791771855</v>
       </c>
-      <c r="R1">
+      <c r="S1">
         <v>2.71357994236662</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1502,31 +1517,34 @@
         <v>2.6980219879999998</v>
       </c>
       <c r="K2">
+        <v>2.6763494799999998</v>
+      </c>
+      <c r="L2">
         <v>2.73808210573916</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>2.8467565969577202</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>2.69802198776397</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>2.7897198859386299</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>2.7713460635068499</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>2.71820647368807</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>2.7693698524779502</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>2.76681844443601</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1558,31 +1576,34 @@
         <v>2.86183919</v>
       </c>
       <c r="K3">
+        <v>2.8625064299999998</v>
+      </c>
+      <c r="L3">
         <v>2.8446448406070801</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>2.8465010430032098</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>2.8618391897383502</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>2.8395266452236401</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>2.8608156046240398</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>2.8388643922392101</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>2.84072377807072</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>2.8634195081637599</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1614,31 +1635,34 @@
         <v>2.9878993299999999</v>
       </c>
       <c r="K4">
+        <v>2.80529049</v>
+      </c>
+      <c r="L4">
         <v>2.8439814464019699</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>2.84701149279404</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>2.9878993304518899</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>2.77276042882262</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>2.87254587380647</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>2.84539085666959</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>2.8518604795604499</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>2.9057067273641501</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1670,31 +1694,34 @@
         <v>2.892313487</v>
       </c>
       <c r="K5">
+        <v>2.8979571200000001</v>
+      </c>
+      <c r="L5">
         <v>2.8440272912078099</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>2.8470034958583499</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>2.8923134868461</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>2.83197983755788</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>2.8844070685167198</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>2.8408157835662902</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>2.8360471007135701</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>2.8923134868461</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1726,31 +1753,34 @@
         <v>2.9038461400000002</v>
       </c>
       <c r="K6">
+        <v>2.8953652600000002</v>
+      </c>
+      <c r="L6">
         <v>2.8457674548127598</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>2.8450369603344399</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>2.90384614001889</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>2.8445696979655399</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>2.8009775786105702</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>2.8548479545249901</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>2.83708263850321</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>2.90384614001889</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1782,31 +1812,34 @@
         <v>2.8753102369999999</v>
       </c>
       <c r="K7">
+        <v>2.8615116</v>
+      </c>
+      <c r="L7">
         <v>2.8477756147495099</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>2.8439846556430801</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>2.8753102374187001</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>2.8595496022198299</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>2.8420698377165401</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>2.84771873347505</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>2.8613249466226298</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>2.8753102374187001</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1838,31 +1871,34 @@
         <v>2.8359044770000001</v>
       </c>
       <c r="K8">
+        <v>2.91106606</v>
+      </c>
+      <c r="L8">
         <v>2.8370849152531701</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>2.8465134755522601</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>2.8359044765262298</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>2.8293904639897902</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>2.81862878474496</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>2.8410971425985898</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>2.7093361503202402</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>2.7565464674566802</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1894,31 +1930,34 @@
         <v>2.7462190629999998</v>
       </c>
       <c r="K9">
+        <v>2.7368770100000002</v>
+      </c>
+      <c r="L9">
         <v>2.8355445316208399</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>2.8469091870927801</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>2.6596732751412699</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>2.81802521738723</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>2.8105181620405801</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>2.8424442330522801</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>2.7310409689233701</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>2.7243036822738</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1950,31 +1989,34 @@
         <v>2.7500051550000002</v>
       </c>
       <c r="K10">
+        <v>2.7807801799999998</v>
+      </c>
+      <c r="L10">
         <v>2.8352362167068801</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>2.8451896140657298</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>2.7500051550864999</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>2.7816425727847101</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>2.8431314003653698</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>2.83522747246916</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>2.75462100084891</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>2.7493226252115401</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2006,31 +2048,34 @@
         <v>2.6901816909999998</v>
       </c>
       <c r="K11">
+        <v>2.8010400500000001</v>
+      </c>
+      <c r="L11">
         <v>2.83915712608239</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>2.8458112428144902</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>2.6901816906368698</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>2.7815593716132301</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>2.8356443429705398</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>2.8364553189625101</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>2.7367146744627799</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>2.6894991607619101</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2062,31 +2107,34 @@
         <v>2.87127759</v>
       </c>
       <c r="K12">
+        <v>2.9957097899999998</v>
+      </c>
+      <c r="L12">
         <v>2.8475671105721898</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>2.8439295773116902</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>2.9039443855750999</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>2.85791909781917</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>2.8762526590555799</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>2.8486867461624201</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>2.8607109070203198</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>2.9189964659760701</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2118,31 +2166,34 @@
         <v>2.9667429259999998</v>
       </c>
       <c r="K13">
+        <v>2.8674951100000001</v>
+      </c>
+      <c r="L13">
         <v>2.8562089213226001</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>2.8469211324893502</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>2.9667429260530001</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>2.8368231587472499</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>2.8229341820912199</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>2.8677580003051699</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>2.8589612531544799</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>3.0013169343395001</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2174,31 +2225,34 @@
         <v>2.8968435910000001</v>
       </c>
       <c r="K14">
+        <v>2.80605869</v>
+      </c>
+      <c r="L14">
         <v>2.8520869564201501</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>2.84712705838376</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>2.8968435909456698</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>2.8308088483284801</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>2.7842541688048899</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>2.8469808739736</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>2.8226373665750399</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>2.8367465480208098</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2230,31 +2284,34 @@
         <v>3.0562470510000002</v>
       </c>
       <c r="K15">
+        <v>3.0863702399999999</v>
+      </c>
+      <c r="L15">
         <v>2.8447532911744902</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>2.8449010805747701</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>3.0562470507804602</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>2.8290767473439602</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>2.8819611058982999</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>2.8635443618136498</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>2.8268139332584998</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>3.0562470507804602</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2286,31 +2343,34 @@
         <v>2.8789664679999998</v>
       </c>
       <c r="K16">
+        <v>2.8460746100000001</v>
+      </c>
+      <c r="L16">
         <v>2.8397864885056001</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>2.8472394577189202</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>2.8789664681686</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>2.9120155638443102</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>2.8123627288455602</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>2.8350070506357099</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>2.8337350973566098</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>2.8441732419824399</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2342,31 +2402,34 @@
         <v>2.8907150430000002</v>
       </c>
       <c r="K17">
+        <v>2.8687314900000001</v>
+      </c>
+      <c r="L17">
         <v>2.85551233780504</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>2.8454209995859201</v>
-      </c>
-      <c r="M17">
-        <v>2.89071504320217</v>
       </c>
       <c r="N17">
         <v>2.89071504320217</v>
       </c>
       <c r="O17">
+        <v>2.89071504320217</v>
+      </c>
+      <c r="P17">
         <v>2.8922578186945498</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>2.8545013970308899</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>3.0284386849384601</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>2.89071504320217</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -2398,31 +2461,34 @@
         <v>2.932088217</v>
       </c>
       <c r="K18">
+        <v>2.9174901100000001</v>
+      </c>
+      <c r="L18">
         <v>2.83644004834143</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>2.8466576136966402</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>2.9320882172883498</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>2.73317400776217</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>2.8726005434468398</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>2.82947792205435</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>2.83889763315669</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>2.8695971954670401</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2454,31 +2520,34 @@
         <v>2.8094640200000001</v>
       </c>
       <c r="K19">
+        <v>2.7706872599999999</v>
+      </c>
+      <c r="L19">
         <v>2.8362481022504</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>2.84525206304279</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>2.80946402002201</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>2.7335347164139501</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>2.8477173132208899</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>2.84043708926961</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>2.7861025826136898</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>2.8447350394854598</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2510,31 +2579,34 @@
         <v>2.817266338</v>
       </c>
       <c r="K20">
+        <v>2.9096865599999999</v>
+      </c>
+      <c r="L20">
         <v>2.84676330429477</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>2.8438879938753998</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>2.8172663376538298</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>2.8947807389497102</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>2.8870489662618501</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>2.8479878610916498</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>2.92676717617677</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>2.8172663376538298</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2566,31 +2638,34 @@
         <v>2.9401208460000001</v>
       </c>
       <c r="K21">
+        <v>2.7989159400000001</v>
+      </c>
+      <c r="L21">
         <v>2.82264396463097</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>2.8459157274129399</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>2.94012084562649</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>2.8268047112111798</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>2.8237851213102498</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>2.83294030576005</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>2.8022552720093099</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>2.94012084562649</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2622,31 +2697,34 @@
         <v>2.8447350390000001</v>
       </c>
       <c r="K22">
+        <v>2.68088002</v>
+      </c>
+      <c r="L22">
         <v>2.8488498633613002</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>2.84631282578325</v>
-      </c>
-      <c r="M22">
-        <v>2.8447350394854598</v>
       </c>
       <c r="N22">
         <v>2.8447350394854598</v>
       </c>
       <c r="O22">
+        <v>2.8447350394854598</v>
+      </c>
+      <c r="P22">
         <v>2.85301982920525</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>2.8565066226646998</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>2.76926398543393</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>2.8447350394854598</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -2678,31 +2756,34 @@
         <v>2.8305503089999999</v>
       </c>
       <c r="K23">
+        <v>2.8436820799999998</v>
+      </c>
+      <c r="L23">
         <v>2.8499503434203799</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>2.8457502155247698</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>2.83055030892434</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>2.8683970258624698</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>2.85767358876469</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>2.83927238247347</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>2.8468025270669299</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>2.83055030892434</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -2734,31 +2815,34 @@
         <v>2.7755966320000001</v>
       </c>
       <c r="K24">
+        <v>2.8227381199999999</v>
+      </c>
+      <c r="L24">
         <v>2.8245344738671001</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>2.8464447037755498</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>2.7755966315301399</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>2.7577330698776299</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>2.84821874806949</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>2.8296674948192102</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>2.8196551935811298</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>2.8270367977178301</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -2790,31 +2874,34 @@
         <v>2.7919557890000002</v>
       </c>
       <c r="K25">
+        <v>2.7698050799999998</v>
+      </c>
+      <c r="L25">
         <v>2.8533117760205999</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>2.8449148714350101</v>
-      </c>
-      <c r="M25">
-        <v>2.79195578903194</v>
       </c>
       <c r="N25">
         <v>2.79195578903194</v>
       </c>
       <c r="O25">
+        <v>2.79195578903194</v>
+      </c>
+      <c r="P25">
         <v>2.8835263246752301</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>2.84206218453255</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>2.9207330684311401</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>2.79195578903194</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -2846,31 +2933,34 @@
         <v>2.8392470620000001</v>
       </c>
       <c r="K26">
+        <v>2.9784412100000002</v>
+      </c>
+      <c r="L26">
         <v>2.84405665939757</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>2.8447854370136998</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>2.8392470621886901</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>2.8344646922418399</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>2.8554628030550102</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>2.8403833093264401</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>2.8643328709391098</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>2.9073366472916602</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2902,31 +2992,34 @@
         <v>2.817693958</v>
       </c>
       <c r="K27">
+        <v>2.7042565999999999</v>
+      </c>
+      <c r="L27">
         <v>2.8479928664290899</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>2.8447861643220498</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>2.8176939576188298</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>2.9645633078969298</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>2.7777513887609802</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>2.8393196732405901</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>2.9060772104563801</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>2.8176939576188298</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -2958,31 +3051,34 @@
         <v>2.7491414810000001</v>
       </c>
       <c r="K28">
+        <v>2.9124446100000001</v>
+      </c>
+      <c r="L28">
         <v>2.8438078121372401</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>2.8439748916868099</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>2.7491414813812298</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>2.6776424877635701</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>2.8110881955154099</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>2.8389330578046801</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>3.0293265062886801</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>2.7902252557871901</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -3014,31 +3110,34 @@
         <v>2.8726386979999998</v>
       </c>
       <c r="K29">
+        <v>2.8960306400000002</v>
+      </c>
+      <c r="L29">
         <v>2.8365396176832598</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>2.8468199900817601</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>2.8726386979844198</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>2.8844066216589099</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>2.83672733766495</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>2.8429042653341599</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>2.7772062047683499</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>2.8094255522531002</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -3070,31 +3169,34 @@
         <v>2.8993944730000001</v>
       </c>
       <c r="K30">
+        <v>2.9037768800000001</v>
+      </c>
+      <c r="L30">
         <v>2.8387450141930399</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>2.8453819663654998</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>2.89939447329456</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>2.8702542647986999</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>2.8033540617592698</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>2.8369378239230998</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>2.8989454089970699</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>2.89939447329456</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -3126,31 +3228,34 @@
         <v>2.8254885789999999</v>
       </c>
       <c r="K31">
+        <v>2.76035071</v>
+      </c>
+      <c r="L31">
         <v>2.8442661893550198</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>2.84442717527424</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>2.82548857879098</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>2.83925904371866</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>2.8092672394441398</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>2.8371036886391598</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>2.8602868667493002</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>2.82548857879098</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -3182,31 +3287,34 @@
         <v>2.8447350390000001</v>
       </c>
       <c r="K32">
+        <v>2.8379941</v>
+      </c>
+      <c r="L32">
         <v>2.8556637372618199</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>2.8462698415588998</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>2.8447350394854598</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>2.8270328852295998</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>2.88926123132876</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>2.8491440450437602</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>2.8968017745074102</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>2.8447350394854598</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -3238,31 +3346,34 @@
         <v>2.990637757</v>
       </c>
       <c r="K33">
+        <v>2.9365367299999998</v>
+      </c>
+      <c r="L33">
         <v>2.8496941552923598</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>2.8465532051291702</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>2.9906377571825602</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>2.87474091224203</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>2.83805457150171</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>2.85741479956573</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>2.8383031272667401</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>2.92425560538156</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -3294,31 +3405,34 @@
         <v>3.106811338</v>
       </c>
       <c r="K34">
+        <v>2.84509809</v>
+      </c>
+      <c r="L34">
         <v>2.8601612000615901</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>2.8448789838865598</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>3.1068113380104401</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>2.8479334264151999</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>2.9243763337650699</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>2.8675071672222701</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>2.8286165034742901</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>3.1310467453776898</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -3350,31 +3464,34 @@
         <v>2.9721224620000002</v>
       </c>
       <c r="K35">
+        <v>2.9557671700000001</v>
+      </c>
+      <c r="L35">
         <v>2.8614844951823999</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>2.8473215703885799</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>2.9721224618793798</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>2.8132324954633599</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>2.8703836438806301</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>2.8462101415538799</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>2.81123697638919</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>2.9479518987943698</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -3406,31 +3523,34 @@
         <v>3.0591180489999998</v>
       </c>
       <c r="K36">
+        <v>2.7524649399999999</v>
+      </c>
+      <c r="L36">
         <v>2.8500749863769399</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>2.8471569035175199</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>3.0591180489021101</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>2.8301384422112701</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>2.8464375451070199</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>2.8491100518442698</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>2.8058088544003299</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>3.0591180489021101</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -3462,31 +3582,34 @@
         <v>2.866141297</v>
       </c>
       <c r="K37">
+        <v>2.84</v>
+      </c>
+      <c r="L37">
         <v>2.84376432056697</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>2.8457656187070901</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>2.86614129744751</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>2.7861021610117098</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>2.8535400736927001</v>
       </c>
-      <c r="P37">
+      <c r="Q37">
         <v>2.8405546225334102</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>2.8599985072225298</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <v>2.86614129744751</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -3518,31 +3641,34 @@
         <v>2.880608923</v>
       </c>
       <c r="K38">
+        <v>2.8768658999999999</v>
+      </c>
+      <c r="L38">
         <v>2.8512891041130302</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>2.8442619710041002</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>2.8806089227582001</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>2.82216035537932</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>2.8622842491624398</v>
       </c>
-      <c r="P38">
+      <c r="Q38">
         <v>2.8571778737004601</v>
       </c>
-      <c r="Q38">
+      <c r="R38">
         <v>2.8512463754650099</v>
       </c>
-      <c r="R38">
+      <c r="S38">
         <v>2.8865699125000202</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -3574,31 +3700,34 @@
         <v>2.9033121899999998</v>
       </c>
       <c r="K39">
+        <v>2.84</v>
+      </c>
+      <c r="L39">
         <v>2.8415489945076602</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>2.8457877125706799</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>2.90331219046212</v>
       </c>
-      <c r="N39">
+      <c r="O39">
         <v>2.6950594310828899</v>
       </c>
-      <c r="O39">
+      <c r="P39">
         <v>2.8396078996247498</v>
       </c>
-      <c r="P39">
+      <c r="Q39">
         <v>2.8325605060557999</v>
       </c>
-      <c r="Q39">
+      <c r="R39">
         <v>2.8376084638839698</v>
       </c>
-      <c r="R39">
+      <c r="S39">
         <v>2.90331219046212</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -3630,31 +3759,34 @@
         <v>2.9266795729999999</v>
       </c>
       <c r="K40">
+        <v>2.84</v>
+      </c>
+      <c r="L40">
         <v>2.8430799676973799</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <v>2.8462405507321802</v>
       </c>
-      <c r="M40">
+      <c r="N40">
         <v>2.9266795733066902</v>
       </c>
-      <c r="N40">
+      <c r="O40">
         <v>2.70099225066997</v>
       </c>
-      <c r="O40">
+      <c r="P40">
         <v>2.8347500632501301</v>
       </c>
-      <c r="P40">
+      <c r="Q40">
         <v>2.8359057524868501</v>
       </c>
-      <c r="Q40">
+      <c r="R40">
         <v>2.8626333299598801</v>
       </c>
-      <c r="R40">
+      <c r="S40">
         <v>2.9266795733066902</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -3686,31 +3818,34 @@
         <v>2.8571590250000001</v>
       </c>
       <c r="K41">
+        <v>2.7364854699999999</v>
+      </c>
+      <c r="L41">
         <v>2.83464554942223</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <v>2.84630236461064</v>
       </c>
-      <c r="M41">
+      <c r="N41">
         <v>2.8571590249714598</v>
       </c>
-      <c r="N41">
+      <c r="O41">
         <v>2.7902037581714501</v>
       </c>
-      <c r="O41">
+      <c r="P41">
         <v>2.8880396285324599</v>
       </c>
-      <c r="P41">
+      <c r="Q41">
         <v>2.8449078839538902</v>
       </c>
-      <c r="Q41">
+      <c r="R41">
         <v>2.81072033624437</v>
       </c>
-      <c r="R41">
+      <c r="S41">
         <v>2.8611540019225399</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -3742,31 +3877,34 @@
         <v>2.9033121899999998</v>
       </c>
       <c r="K42">
+        <v>2.84</v>
+      </c>
+      <c r="L42">
         <v>2.8460304842693498</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <v>2.84745782114353</v>
       </c>
-      <c r="M42">
+      <c r="N42">
         <v>2.90331219046212</v>
       </c>
-      <c r="N42">
+      <c r="O42">
         <v>2.7699942136739102</v>
       </c>
-      <c r="O42">
+      <c r="P42">
         <v>2.8437270834519799</v>
       </c>
-      <c r="P42">
+      <c r="Q42">
         <v>2.8451838145365902</v>
       </c>
-      <c r="Q42">
+      <c r="R42">
         <v>2.8691317795920899</v>
       </c>
-      <c r="R42">
+      <c r="S42">
         <v>2.90331219046212</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -3798,31 +3936,34 @@
         <v>2.9560128269999999</v>
       </c>
       <c r="K43">
+        <v>2.79664191</v>
+      </c>
+      <c r="L43">
         <v>2.8430814391679502</v>
       </c>
-      <c r="L43">
+      <c r="M43">
         <v>2.8474522528892399</v>
       </c>
-      <c r="M43">
+      <c r="N43">
         <v>2.9560128269184598</v>
       </c>
-      <c r="N43">
+      <c r="O43">
         <v>2.8123471965277198</v>
       </c>
-      <c r="O43">
+      <c r="P43">
         <v>2.8693314849628599</v>
       </c>
-      <c r="P43">
+      <c r="Q43">
         <v>2.8371910891372001</v>
       </c>
-      <c r="Q43">
+      <c r="R43">
         <v>2.81756387549822</v>
       </c>
-      <c r="R43">
+      <c r="S43">
         <v>2.9560128269184598</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -3854,31 +3995,34 @@
         <v>2.8993944730000001</v>
       </c>
       <c r="K44">
+        <v>2.9306905099999998</v>
+      </c>
+      <c r="L44">
         <v>2.8459083540762702</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <v>2.8464699759613499</v>
       </c>
-      <c r="M44">
+      <c r="N44">
         <v>2.89939447329456</v>
       </c>
-      <c r="N44">
+      <c r="O44">
         <v>2.8443655661373102</v>
       </c>
-      <c r="O44">
+      <c r="P44">
         <v>2.8915390402958701</v>
       </c>
-      <c r="P44">
+      <c r="Q44">
         <v>2.84733868829503</v>
       </c>
-      <c r="Q44">
+      <c r="R44">
         <v>2.8691835750517001</v>
       </c>
-      <c r="R44">
+      <c r="S44">
         <v>2.89939447329456</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -3910,31 +4054,34 @@
         <v>2.860732262</v>
       </c>
       <c r="K45">
+        <v>3.0225718700000002</v>
+      </c>
+      <c r="L45">
         <v>2.8497462944563199</v>
       </c>
-      <c r="L45">
+      <c r="M45">
         <v>2.8446111104037799</v>
-      </c>
-      <c r="M45">
-        <v>2.86073226204919</v>
       </c>
       <c r="N45">
         <v>2.86073226204919</v>
       </c>
       <c r="O45">
+        <v>2.86073226204919</v>
+      </c>
+      <c r="P45">
         <v>2.8152501079253698</v>
       </c>
-      <c r="P45">
+      <c r="Q45">
         <v>2.84430819042168</v>
       </c>
-      <c r="Q45">
+      <c r="R45">
         <v>2.9392618159436701</v>
       </c>
-      <c r="R45">
+      <c r="S45">
         <v>2.86073226204919</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -3966,31 +4113,34 @@
         <v>2.8254885789999999</v>
       </c>
       <c r="K46">
+        <v>2.8565023799999998</v>
+      </c>
+      <c r="L46">
         <v>2.8412721123932498</v>
       </c>
-      <c r="L46">
+      <c r="M46">
         <v>2.8472524079055099</v>
       </c>
-      <c r="M46">
+      <c r="N46">
         <v>2.82548857879098</v>
       </c>
-      <c r="N46">
+      <c r="O46">
         <v>2.8972637556113701</v>
       </c>
-      <c r="O46">
+      <c r="P46">
         <v>2.8918902052712601</v>
       </c>
-      <c r="P46">
+      <c r="Q46">
         <v>2.83742009195986</v>
       </c>
-      <c r="Q46">
+      <c r="R46">
         <v>2.8497663078738298</v>
       </c>
-      <c r="R46">
+      <c r="S46">
         <v>2.82548857879098</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -4022,31 +4172,34 @@
         <v>2.9259587260000002</v>
       </c>
       <c r="K47">
+        <v>3.00740819</v>
+      </c>
+      <c r="L47">
         <v>2.8502690282338601</v>
       </c>
-      <c r="L47">
+      <c r="M47">
         <v>2.8444266101159399</v>
       </c>
-      <c r="M47">
+      <c r="N47">
         <v>2.9259587264603701</v>
       </c>
-      <c r="N47">
+      <c r="O47">
         <v>3.0427085280763499</v>
       </c>
-      <c r="O47">
+      <c r="P47">
         <v>2.78262641976902</v>
       </c>
-      <c r="P47">
+      <c r="Q47">
         <v>2.8533525888434301</v>
       </c>
-      <c r="Q47">
+      <c r="R47">
         <v>3.00154528872471</v>
       </c>
-      <c r="R47">
+      <c r="S47">
         <v>2.9139261319537</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -4078,31 +4231,34 @@
         <v>2.844515822</v>
       </c>
       <c r="K48">
+        <v>2.8717325800000002</v>
+      </c>
+      <c r="L48">
         <v>2.84683713019249</v>
       </c>
-      <c r="L48">
+      <c r="M48">
         <v>2.84557623761803</v>
       </c>
-      <c r="M48">
+      <c r="N48">
         <v>2.8447350394854598</v>
       </c>
-      <c r="N48">
+      <c r="O48">
         <v>2.87564830340032</v>
       </c>
-      <c r="O48">
+      <c r="P48">
         <v>2.7934919319834299</v>
       </c>
-      <c r="P48">
+      <c r="Q48">
         <v>2.8455054723796298</v>
       </c>
-      <c r="Q48">
+      <c r="R48">
         <v>2.8365279055144699</v>
       </c>
-      <c r="R48">
+      <c r="S48">
         <v>2.8447350394854598</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -4134,31 +4290,34 @@
         <v>2.855216929</v>
       </c>
       <c r="K49">
+        <v>2.8512995299999999</v>
+      </c>
+      <c r="L49">
         <v>2.84072661211396</v>
       </c>
-      <c r="L49">
+      <c r="M49">
         <v>2.8442647738819602</v>
       </c>
-      <c r="M49">
+      <c r="N49">
         <v>2.85521692937537</v>
       </c>
-      <c r="N49">
+      <c r="O49">
         <v>2.7300927319885901</v>
       </c>
-      <c r="O49">
+      <c r="P49">
         <v>2.82227611583503</v>
       </c>
-      <c r="P49">
+      <c r="Q49">
         <v>2.8366300936873001</v>
       </c>
-      <c r="Q49">
+      <c r="R49">
         <v>2.91781840741633</v>
       </c>
-      <c r="R49">
+      <c r="S49">
         <v>2.85521692937537</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -4190,31 +4349,34 @@
         <v>2.8703546040000001</v>
       </c>
       <c r="K50">
+        <v>2.88826128</v>
+      </c>
+      <c r="L50">
         <v>2.84623318501614</v>
       </c>
-      <c r="L50">
+      <c r="M50">
         <v>2.8467468282717499</v>
       </c>
-      <c r="M50">
+      <c r="N50">
         <v>2.8703546042566601</v>
       </c>
-      <c r="N50">
+      <c r="O50">
         <v>2.9010328741818801</v>
       </c>
-      <c r="O50">
+      <c r="P50">
         <v>2.8445470039646099</v>
       </c>
-      <c r="P50">
+      <c r="Q50">
         <v>2.84576885389348</v>
       </c>
-      <c r="Q50">
+      <c r="R50">
         <v>2.8411721268225998</v>
       </c>
-      <c r="R50">
+      <c r="S50">
         <v>2.8447350394854598</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -4246,31 +4408,34 @@
         <v>2.9064877180000002</v>
       </c>
       <c r="K51">
+        <v>2.8017066499999999</v>
+      </c>
+      <c r="L51">
         <v>2.8358557150260899</v>
       </c>
-      <c r="L51">
+      <c r="M51">
         <v>2.8454558682412898</v>
-      </c>
-      <c r="M51">
-        <v>2.9064877181398998</v>
       </c>
       <c r="N51">
         <v>2.9064877181398998</v>
       </c>
       <c r="O51">
+        <v>2.9064877181398998</v>
+      </c>
+      <c r="P51">
         <v>2.8006610492553601</v>
       </c>
-      <c r="P51">
+      <c r="Q51">
         <v>2.8356028378197902</v>
       </c>
-      <c r="Q51">
+      <c r="R51">
         <v>3.0036201851523598</v>
       </c>
-      <c r="R51">
+      <c r="S51">
         <v>2.8896284331466902</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -4302,31 +4467,34 @@
         <v>2.8907150430000002</v>
       </c>
       <c r="K52">
+        <v>2.94072954</v>
+      </c>
+      <c r="L52">
         <v>2.8643651435225501</v>
       </c>
-      <c r="L52">
+      <c r="M52">
         <v>2.8471795670649098</v>
       </c>
-      <c r="M52">
+      <c r="N52">
         <v>2.89071504320217</v>
       </c>
-      <c r="N52">
+      <c r="O52">
         <v>2.83541474729698</v>
       </c>
-      <c r="O52">
+      <c r="P52">
         <v>2.8718199750947102</v>
       </c>
-      <c r="P52">
+      <c r="Q52">
         <v>2.8606539172876402</v>
       </c>
-      <c r="Q52">
+      <c r="R52">
         <v>2.83824941381893</v>
       </c>
-      <c r="R52">
+      <c r="S52">
         <v>2.89071504320217</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -4358,31 +4526,34 @@
         <v>3.0460436679999998</v>
       </c>
       <c r="K53">
+        <v>2.7933341600000001</v>
+      </c>
+      <c r="L53">
         <v>2.8523385852848002</v>
       </c>
-      <c r="L53">
+      <c r="M53">
         <v>2.8456250365360201</v>
       </c>
-      <c r="M53">
+      <c r="N53">
         <v>3.0460436680871998</v>
       </c>
-      <c r="N53">
+      <c r="O53">
         <v>2.8580685822449401</v>
       </c>
-      <c r="O53">
+      <c r="P53">
         <v>2.79424044983273</v>
       </c>
-      <c r="P53">
+      <c r="Q53">
         <v>2.8398436630013699</v>
       </c>
-      <c r="Q53">
+      <c r="R53">
         <v>2.8372653688445402</v>
       </c>
-      <c r="R53">
+      <c r="S53">
         <v>3.0460436680871998</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -4414,31 +4585,34 @@
         <v>2.854557454</v>
       </c>
       <c r="K54">
+        <v>2.8788482599999998</v>
+      </c>
+      <c r="L54">
         <v>2.8420925411792402</v>
       </c>
-      <c r="L54">
+      <c r="M54">
         <v>2.8463559167784598</v>
       </c>
-      <c r="M54">
+      <c r="N54">
         <v>2.8545574539554099</v>
       </c>
-      <c r="N54">
+      <c r="O54">
         <v>2.8402910077139398</v>
       </c>
-      <c r="O54">
+      <c r="P54">
         <v>2.8454549722937599</v>
       </c>
-      <c r="P54">
+      <c r="Q54">
         <v>2.8418921218557802</v>
       </c>
-      <c r="Q54">
+      <c r="R54">
         <v>2.8175341206225299</v>
       </c>
-      <c r="R54">
+      <c r="S54">
         <v>2.9285941049667401</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -4470,31 +4644,34 @@
         <v>2.9646981110000001</v>
       </c>
       <c r="K55">
+        <v>3.0198983799999999</v>
+      </c>
+      <c r="L55">
         <v>2.8365950150735402</v>
       </c>
-      <c r="L55">
+      <c r="M55">
         <v>2.84678400199356</v>
-      </c>
-      <c r="M55">
-        <v>2.9646981112844699</v>
       </c>
       <c r="N55">
         <v>2.9646981112844699</v>
       </c>
       <c r="O55">
+        <v>2.9646981112844699</v>
+      </c>
+      <c r="P55">
         <v>2.8904766973531602</v>
       </c>
-      <c r="P55">
+      <c r="Q55">
         <v>2.8500913768767999</v>
       </c>
-      <c r="Q55">
+      <c r="R55">
         <v>2.92529236020673</v>
       </c>
-      <c r="R55">
+      <c r="S55">
         <v>2.8296740945671299</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -4526,31 +4703,34 @@
         <v>2.8749131120000002</v>
       </c>
       <c r="K56">
+        <v>2.8021337700000002</v>
+      </c>
+      <c r="L56">
         <v>2.8371231786646902</v>
       </c>
-      <c r="L56">
+      <c r="M56">
         <v>2.8469151622947</v>
       </c>
-      <c r="M56">
+      <c r="N56">
         <v>2.8749131121989602</v>
       </c>
-      <c r="N56">
+      <c r="O56">
         <v>2.8772647439732402</v>
       </c>
-      <c r="O56">
+      <c r="P56">
         <v>2.8400676658289901</v>
       </c>
-      <c r="P56">
+      <c r="Q56">
         <v>2.8431869345473002</v>
       </c>
-      <c r="Q56">
+      <c r="R56">
         <v>2.9316562716602701</v>
       </c>
-      <c r="R56">
+      <c r="S56">
         <v>2.8749131121989602</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -4582,31 +4762,34 @@
         <v>2.931043195</v>
       </c>
       <c r="K57">
+        <v>2.9366989000000001</v>
+      </c>
+      <c r="L57">
         <v>2.8343962594064598</v>
       </c>
-      <c r="L57">
+      <c r="M57">
         <v>2.8469996906964701</v>
-      </c>
-      <c r="M57">
-        <v>2.9310431950441198</v>
       </c>
       <c r="N57">
         <v>2.9310431950441198</v>
       </c>
       <c r="O57">
+        <v>2.9310431950441198</v>
+      </c>
+      <c r="P57">
         <v>2.9546721753823699</v>
       </c>
-      <c r="P57">
+      <c r="Q57">
         <v>2.8504653682706098</v>
       </c>
-      <c r="Q57">
+      <c r="R57">
         <v>2.8689441270066398</v>
       </c>
-      <c r="R57">
+      <c r="S57">
         <v>2.8997301099405299</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -4638,31 +4821,34 @@
         <v>3.0129987030000001</v>
       </c>
       <c r="K58">
+        <v>2.7815335499999998</v>
+      </c>
+      <c r="L58">
         <v>2.8539565195862502</v>
       </c>
-      <c r="L58">
+      <c r="M58">
         <v>2.8453411293261199</v>
       </c>
-      <c r="M58">
+      <c r="N58">
         <v>3.0129987026066498</v>
       </c>
-      <c r="N58">
+      <c r="O58">
         <v>2.8272471557020502</v>
       </c>
-      <c r="O58">
+      <c r="P58">
         <v>2.8995849732560202</v>
       </c>
-      <c r="P58">
+      <c r="Q58">
         <v>2.85049218078175</v>
       </c>
-      <c r="Q58">
+      <c r="R58">
         <v>2.81200954111242</v>
       </c>
-      <c r="R58">
+      <c r="S58">
         <v>3.0445120285406602</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -4694,31 +4880,34 @@
         <v>2.9443538839999999</v>
       </c>
       <c r="K59">
+        <v>2.7883397400000001</v>
+      </c>
+      <c r="L59">
         <v>2.8501294424960499</v>
       </c>
-      <c r="L59">
+      <c r="M59">
         <v>2.8448201793493202</v>
       </c>
-      <c r="M59">
+      <c r="N59">
         <v>2.9443538837179202</v>
       </c>
-      <c r="N59">
+      <c r="O59">
         <v>2.83461096103792</v>
       </c>
-      <c r="O59">
+      <c r="P59">
         <v>2.8495481492964099</v>
       </c>
-      <c r="P59">
+      <c r="Q59">
         <v>2.8419034759941599</v>
       </c>
-      <c r="Q59">
+      <c r="R59">
         <v>2.8664801670053301</v>
       </c>
-      <c r="R59">
+      <c r="S59">
         <v>2.8575734286701802</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -4750,31 +4939,34 @@
         <v>3.049074804</v>
       </c>
       <c r="K60">
+        <v>2.7062542199999999</v>
+      </c>
+      <c r="L60">
         <v>2.8421976847722399</v>
       </c>
-      <c r="L60">
+      <c r="M60">
         <v>2.84696058408844</v>
       </c>
-      <c r="M60">
+      <c r="N60">
         <v>3.0490748042304499</v>
       </c>
-      <c r="N60">
+      <c r="O60">
         <v>2.78220091435991</v>
       </c>
-      <c r="O60">
+      <c r="P60">
         <v>2.92514623766793</v>
       </c>
-      <c r="P60">
+      <c r="Q60">
         <v>2.8448351173897701</v>
       </c>
-      <c r="Q60">
+      <c r="R60">
         <v>2.76804695115064</v>
       </c>
-      <c r="R60">
+      <c r="S60">
         <v>3.0490748042304499</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -4806,31 +4998,34 @@
         <v>2.7291448439999999</v>
       </c>
       <c r="K61">
+        <v>2.7465764199999998</v>
+      </c>
+      <c r="L61">
         <v>2.7997907571421101</v>
       </c>
-      <c r="L61">
+      <c r="M61">
         <v>2.8452197461345401</v>
       </c>
-      <c r="M61">
+      <c r="N61">
         <v>2.7308365955222098</v>
       </c>
-      <c r="N61">
+      <c r="O61">
         <v>2.8108234030735999</v>
       </c>
-      <c r="O61">
+      <c r="P61">
         <v>2.7525392584021402</v>
       </c>
-      <c r="P61">
+      <c r="Q61">
         <v>2.7988468302995799</v>
       </c>
-      <c r="Q61">
+      <c r="R61">
         <v>2.8110108369615601</v>
       </c>
-      <c r="R61">
+      <c r="S61">
         <v>2.7291448438071901</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -4862,31 +5057,34 @@
         <v>2.8664229639999999</v>
       </c>
       <c r="K62">
+        <v>2.7202230200000002</v>
+      </c>
+      <c r="L62">
         <v>2.8671719627858301</v>
       </c>
-      <c r="L62">
+      <c r="M62">
         <v>2.8447696751406801</v>
       </c>
-      <c r="M62">
+      <c r="N62">
         <v>2.8664229635860101</v>
       </c>
-      <c r="N62">
+      <c r="O62">
         <v>2.8511434531169999</v>
       </c>
-      <c r="O62">
+      <c r="P62">
         <v>2.9448604785566701</v>
       </c>
-      <c r="P62">
+      <c r="Q62">
         <v>2.8433968013800199</v>
       </c>
-      <c r="Q62">
+      <c r="R62">
         <v>2.8206070517604398</v>
       </c>
-      <c r="R62">
+      <c r="S62">
         <v>2.8664229635860101</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -4918,31 +5116,34 @@
         <v>2.9041067260000002</v>
       </c>
       <c r="K63">
+        <v>2.82987492</v>
+      </c>
+      <c r="L63">
         <v>2.8528931227293901</v>
       </c>
-      <c r="L63">
+      <c r="M63">
         <v>2.8467898702375298</v>
       </c>
-      <c r="M63">
+      <c r="N63">
         <v>2.90410672592167</v>
       </c>
-      <c r="N63">
+      <c r="O63">
         <v>2.8337382690744501</v>
       </c>
-      <c r="O63">
+      <c r="P63">
         <v>2.8699288257819799</v>
       </c>
-      <c r="P63">
+      <c r="Q63">
         <v>2.8458317263807502</v>
       </c>
-      <c r="Q63">
+      <c r="R63">
         <v>2.8180200999441598</v>
       </c>
-      <c r="R63">
+      <c r="S63">
         <v>2.8862245967101798</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -4974,31 +5175,34 @@
         <v>2.9357349560000001</v>
       </c>
       <c r="K64">
+        <v>2.8243791200000001</v>
+      </c>
+      <c r="L64">
         <v>2.8407032716219902</v>
       </c>
-      <c r="L64">
+      <c r="M64">
         <v>2.8460136533921201</v>
       </c>
-      <c r="M64">
+      <c r="N64">
         <v>2.9357349560269501</v>
       </c>
-      <c r="N64">
+      <c r="O64">
         <v>2.7855068028611001</v>
       </c>
-      <c r="O64">
+      <c r="P64">
         <v>2.8541486962053799</v>
       </c>
-      <c r="P64">
+      <c r="Q64">
         <v>2.8396827391530199</v>
       </c>
-      <c r="Q64">
+      <c r="R64">
         <v>2.7928041965398198</v>
       </c>
-      <c r="R64">
+      <c r="S64">
         <v>2.9357349560269501</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -5030,31 +5234,34 @@
         <v>2.899325079</v>
       </c>
       <c r="K65">
+        <v>3.0284235499999999</v>
+      </c>
+      <c r="L65">
         <v>2.8596869742567801</v>
       </c>
-      <c r="L65">
+      <c r="M65">
         <v>2.8467692233398298</v>
       </c>
-      <c r="M65">
+      <c r="N65">
         <v>2.8993250790239302</v>
       </c>
-      <c r="N65">
+      <c r="O65">
         <v>2.8372113521937998</v>
       </c>
-      <c r="O65">
+      <c r="P65">
         <v>2.8984870916674401</v>
       </c>
-      <c r="P65">
+      <c r="Q65">
         <v>2.8601196465513601</v>
       </c>
-      <c r="Q65">
+      <c r="R65">
         <v>2.8613176257795798</v>
       </c>
-      <c r="R65">
+      <c r="S65">
         <v>2.8931017956334402</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -5086,31 +5293,34 @@
         <v>2.8048781520000001</v>
       </c>
       <c r="K66">
+        <v>2.8062491299999999</v>
+      </c>
+      <c r="L66">
         <v>2.8352792056978098</v>
       </c>
-      <c r="L66">
+      <c r="M66">
         <v>2.84585049272347</v>
       </c>
-      <c r="M66">
+      <c r="N66">
         <v>2.80487815176487</v>
       </c>
-      <c r="N66">
+      <c r="O66">
         <v>2.80485931249952</v>
       </c>
-      <c r="O66">
+      <c r="P66">
         <v>2.8140708856445502</v>
       </c>
-      <c r="P66">
+      <c r="Q66">
         <v>2.8388310180401199</v>
       </c>
-      <c r="Q66">
+      <c r="R66">
         <v>2.80667307070539</v>
       </c>
-      <c r="R66">
+      <c r="S66">
         <v>2.80487815176487</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -5142,31 +5352,34 @@
         <v>2.8071384560000001</v>
       </c>
       <c r="K67">
+        <v>2.84804499</v>
+      </c>
+      <c r="L67">
         <v>2.8128109679471698</v>
       </c>
-      <c r="L67">
+      <c r="M67">
         <v>2.8481977363386801</v>
       </c>
-      <c r="M67">
+      <c r="N67">
         <v>2.8658311016549498</v>
       </c>
-      <c r="N67">
+      <c r="O67">
         <v>2.8399364926258701</v>
       </c>
-      <c r="O67">
+      <c r="P67">
         <v>2.8135894321978099</v>
       </c>
-      <c r="P67">
+      <c r="Q67">
         <v>2.8254543083530002</v>
       </c>
-      <c r="Q67">
+      <c r="R67">
         <v>2.8236486465862201</v>
       </c>
-      <c r="R67">
+      <c r="S67">
         <v>2.9358686884126501</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -5198,31 +5411,34 @@
         <v>2.9427541920000002</v>
       </c>
       <c r="K68">
+        <v>2.88343916</v>
+      </c>
+      <c r="L68">
         <v>2.8468025688758698</v>
       </c>
-      <c r="L68">
+      <c r="M68">
         <v>2.8465582895049302</v>
       </c>
-      <c r="M68">
+      <c r="N68">
         <v>2.9019456383863802</v>
       </c>
-      <c r="N68">
+      <c r="O68">
         <v>2.8385292157437498</v>
       </c>
-      <c r="O68">
+      <c r="P68">
         <v>2.8204487068753101</v>
       </c>
-      <c r="P68">
+      <c r="Q68">
         <v>2.8652993554622599</v>
       </c>
-      <c r="Q68">
+      <c r="R68">
         <v>2.8500812575848302</v>
       </c>
-      <c r="R68">
+      <c r="S68">
         <v>2.9335113235963801</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -5254,31 +5470,34 @@
         <v>3.0733787380000002</v>
       </c>
       <c r="K69">
+        <v>2.8942843800000002</v>
+      </c>
+      <c r="L69">
         <v>2.8708255888799501</v>
       </c>
-      <c r="L69">
+      <c r="M69">
         <v>2.8453192998764001</v>
       </c>
-      <c r="M69">
+      <c r="N69">
         <v>3.0733787380464102</v>
       </c>
-      <c r="N69">
+      <c r="O69">
         <v>2.8311738699492</v>
       </c>
-      <c r="O69">
+      <c r="P69">
         <v>2.9340170783383202</v>
       </c>
-      <c r="P69">
+      <c r="Q69">
         <v>2.8788415490441501</v>
       </c>
-      <c r="Q69">
+      <c r="R69">
         <v>2.8783017377226701</v>
       </c>
-      <c r="R69">
+      <c r="S69">
         <v>3.0733787380464102</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -5310,31 +5529,34 @@
         <v>2.6944401010000001</v>
       </c>
       <c r="K70">
+        <v>2.6951622999999998</v>
+      </c>
+      <c r="L70">
         <v>2.7336568468201299</v>
       </c>
-      <c r="L70">
+      <c r="M70">
         <v>2.84751359771382</v>
       </c>
-      <c r="M70">
+      <c r="N70">
         <v>2.6944401005719598</v>
       </c>
-      <c r="N70">
+      <c r="O70">
         <v>2.7925281564327702</v>
       </c>
-      <c r="O70">
+      <c r="P70">
         <v>2.6936480753453602</v>
       </c>
-      <c r="P70">
+      <c r="Q70">
         <v>2.7273894274783199</v>
       </c>
-      <c r="Q70">
+      <c r="R70">
         <v>2.8200944955520599</v>
       </c>
-      <c r="R70">
+      <c r="S70">
         <v>2.6944401005719598</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -5366,31 +5588,34 @@
         <v>2.8933806209999999</v>
       </c>
       <c r="K71">
+        <v>2.868735</v>
+      </c>
+      <c r="L71">
         <v>2.8394517563461501</v>
       </c>
-      <c r="L71">
+      <c r="M71">
         <v>2.8462274995833301</v>
       </c>
-      <c r="M71">
+      <c r="N71">
         <v>2.8933806212462598</v>
       </c>
-      <c r="N71">
+      <c r="O71">
         <v>2.8592515125608</v>
       </c>
-      <c r="O71">
+      <c r="P71">
         <v>2.8756986505938098</v>
       </c>
-      <c r="P71">
+      <c r="Q71">
         <v>2.8380389914215698</v>
       </c>
-      <c r="Q71">
+      <c r="R71">
         <v>2.8355517036804598</v>
       </c>
-      <c r="R71">
+      <c r="S71">
         <v>2.8933806212462598</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -5422,31 +5647,34 @@
         <v>2.8385779539999998</v>
       </c>
       <c r="K72">
+        <v>2.81058238</v>
+      </c>
+      <c r="L72">
         <v>2.8306193529750301</v>
       </c>
-      <c r="L72">
+      <c r="M72">
         <v>2.8442438276941999</v>
       </c>
-      <c r="M72">
+      <c r="N72">
         <v>2.8385779538658702</v>
       </c>
-      <c r="N72">
+      <c r="O72">
         <v>2.6465776140321902</v>
       </c>
-      <c r="O72">
+      <c r="P72">
         <v>2.8337224407476702</v>
       </c>
-      <c r="P72">
+      <c r="Q72">
         <v>2.8304312118439601</v>
       </c>
-      <c r="Q72">
+      <c r="R72">
         <v>2.7590490220120398</v>
       </c>
-      <c r="R72">
+      <c r="S72">
         <v>2.9010974863212899</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -5478,31 +5706,34 @@
         <v>2.8836716660000001</v>
       </c>
       <c r="K73">
+        <v>2.7613325899999999</v>
+      </c>
+      <c r="L73">
         <v>2.8502366286532501</v>
       </c>
-      <c r="L73">
+      <c r="M73">
         <v>2.8461047159030799</v>
       </c>
-      <c r="M73">
+      <c r="N73">
         <v>2.8836716660355202</v>
       </c>
-      <c r="N73">
+      <c r="O73">
         <v>2.8491338212206099</v>
       </c>
-      <c r="O73">
+      <c r="P73">
         <v>2.8308362570191399</v>
       </c>
-      <c r="P73">
+      <c r="Q73">
         <v>2.84084827736182</v>
       </c>
-      <c r="Q73">
+      <c r="R73">
         <v>2.8414312647159798</v>
       </c>
-      <c r="R73">
+      <c r="S73">
         <v>2.8930974545684598</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -5534,31 +5765,34 @@
         <v>2.946690314</v>
       </c>
       <c r="K74">
+        <v>2.8321333499999999</v>
+      </c>
+      <c r="L74">
         <v>2.8435787241367798</v>
       </c>
-      <c r="L74">
+      <c r="M74">
         <v>2.8459302268589299</v>
       </c>
-      <c r="M74">
+      <c r="N74">
         <v>2.9242842685382402</v>
       </c>
-      <c r="N74">
+      <c r="O74">
         <v>2.90620919665156</v>
       </c>
-      <c r="O74">
+      <c r="P74">
         <v>2.8626514153275999</v>
       </c>
-      <c r="P74">
+      <c r="Q74">
         <v>2.8372009088336001</v>
       </c>
-      <c r="Q74">
+      <c r="R74">
         <v>2.8666302475641499</v>
       </c>
-      <c r="R74">
+      <c r="S74">
         <v>2.9411293941314698</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -5590,31 +5824,34 @@
         <v>2.7921214029999999</v>
       </c>
       <c r="K75">
+        <v>2.7913034200000002</v>
+      </c>
+      <c r="L75">
         <v>2.8255053041124101</v>
       </c>
-      <c r="L75">
+      <c r="M75">
         <v>2.8475662998534998</v>
       </c>
-      <c r="M75">
+      <c r="N75">
         <v>2.7921214030945198</v>
       </c>
-      <c r="N75">
+      <c r="O75">
         <v>2.8339054178691301</v>
       </c>
-      <c r="O75">
+      <c r="P75">
         <v>2.71228161776143</v>
       </c>
-      <c r="P75">
+      <c r="Q75">
         <v>2.8307989556964102</v>
       </c>
-      <c r="Q75">
+      <c r="R75">
         <v>2.8435252385898702</v>
       </c>
-      <c r="R75">
+      <c r="S75">
         <v>2.8044258561002802</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -5646,31 +5883,34 @@
         <v>2.7991877230000002</v>
       </c>
       <c r="K76">
+        <v>2.8922724400000002</v>
+      </c>
+      <c r="L76">
         <v>2.8475152915553701</v>
       </c>
-      <c r="L76">
+      <c r="M76">
         <v>2.8464676229840302</v>
       </c>
-      <c r="M76">
+      <c r="N76">
         <v>2.9026809972641399</v>
       </c>
-      <c r="N76">
+      <c r="O76">
         <v>2.8380976439590899</v>
       </c>
-      <c r="O76">
+      <c r="P76">
         <v>2.90672666992428</v>
       </c>
-      <c r="P76">
+      <c r="Q76">
         <v>2.84760889129047</v>
       </c>
-      <c r="Q76">
+      <c r="R76">
         <v>2.8443975966447801</v>
       </c>
-      <c r="R76">
+      <c r="S76">
         <v>2.9433355740707601</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -5702,31 +5942,34 @@
         <v>2.9611774139999998</v>
       </c>
       <c r="K77">
+        <v>2.8792844799999999</v>
+      </c>
+      <c r="L77">
         <v>2.84298977392347</v>
       </c>
-      <c r="L77">
+      <c r="M77">
         <v>2.8439797098369701</v>
       </c>
-      <c r="M77">
+      <c r="N77">
         <v>2.8454072270658699</v>
       </c>
-      <c r="N77">
+      <c r="O77">
         <v>2.8600547657985298</v>
       </c>
-      <c r="O77">
+      <c r="P77">
         <v>2.8125211032662101</v>
       </c>
-      <c r="P77">
+      <c r="Q77">
         <v>2.8351527919786399</v>
       </c>
-      <c r="Q77">
+      <c r="R77">
         <v>2.8731171250525902</v>
       </c>
-      <c r="R77">
+      <c r="S77">
         <v>2.7563118531272699</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -5758,31 +6001,34 @@
         <v>2.743029586</v>
       </c>
       <c r="K78">
+        <v>2.8115432899999999</v>
+      </c>
+      <c r="L78">
         <v>2.8356511610830299</v>
       </c>
-      <c r="L78">
+      <c r="M78">
         <v>2.8457861102540098</v>
-      </c>
-      <c r="M78">
-        <v>2.7430295859666698</v>
       </c>
       <c r="N78">
         <v>2.7430295859666698</v>
       </c>
       <c r="O78">
+        <v>2.7430295859666698</v>
+      </c>
+      <c r="P78">
         <v>2.8735657897386599</v>
       </c>
-      <c r="P78">
+      <c r="Q78">
         <v>2.83322864048968</v>
       </c>
-      <c r="Q78">
+      <c r="R78">
         <v>2.7791446085103302</v>
       </c>
-      <c r="R78">
+      <c r="S78">
         <v>2.6502295328028902</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -5814,31 +6060,34 @@
         <v>2.7899579769999998</v>
       </c>
       <c r="K79">
+        <v>2.8421209900000002</v>
+      </c>
+      <c r="L79">
         <v>2.8365005183021399</v>
       </c>
-      <c r="L79">
+      <c r="M79">
         <v>2.8451465344830802</v>
       </c>
-      <c r="M79">
+      <c r="N79">
         <v>2.7899579773850798</v>
       </c>
-      <c r="N79">
+      <c r="O79">
         <v>2.82717737515227</v>
       </c>
-      <c r="O79">
+      <c r="P79">
         <v>2.78555812013265</v>
       </c>
-      <c r="P79">
+      <c r="Q79">
         <v>2.8198267262271099</v>
       </c>
-      <c r="Q79">
+      <c r="R79">
         <v>2.8350603468840498</v>
       </c>
-      <c r="R79">
+      <c r="S79">
         <v>2.7650304349110901</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -5870,31 +6119,34 @@
         <v>2.9669988690000002</v>
       </c>
       <c r="K80">
+        <v>2.9596798</v>
+      </c>
+      <c r="L80">
         <v>2.8658746235677</v>
       </c>
-      <c r="L80">
+      <c r="M80">
         <v>2.8462854990044999</v>
       </c>
-      <c r="M80">
+      <c r="N80">
         <v>2.9669988694309501</v>
       </c>
-      <c r="N80">
+      <c r="O80">
         <v>2.84074968557643</v>
       </c>
-      <c r="O80">
+      <c r="P80">
         <v>2.8745834986907099</v>
       </c>
-      <c r="P80">
+      <c r="Q80">
         <v>2.8582405625206202</v>
       </c>
-      <c r="Q80">
+      <c r="R80">
         <v>2.8726277741597199</v>
       </c>
-      <c r="R80">
+      <c r="S80">
         <v>3.00161826541322</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -5926,31 +6178,34 @@
         <v>3.0029146920000001</v>
       </c>
       <c r="K81">
+        <v>2.8980904000000001</v>
+      </c>
+      <c r="L81">
         <v>2.85311741634189</v>
       </c>
-      <c r="L81">
+      <c r="M81">
         <v>2.8471845996876999</v>
       </c>
-      <c r="M81">
+      <c r="N81">
         <v>3.0029146915937801</v>
       </c>
-      <c r="N81">
+      <c r="O81">
         <v>2.98361890673449</v>
       </c>
-      <c r="O81">
+      <c r="P81">
         <v>2.8733219525787899</v>
       </c>
-      <c r="P81">
+      <c r="Q81">
         <v>2.8509834544969399</v>
       </c>
-      <c r="Q81">
+      <c r="R81">
         <v>2.8890028792121099</v>
       </c>
-      <c r="R81">
+      <c r="S81">
         <v>2.97441000807197</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -5982,31 +6237,34 @@
         <v>3.0413398900000002</v>
       </c>
       <c r="K82">
+        <v>2.9226257599999999</v>
+      </c>
+      <c r="L82">
         <v>2.8608175676004</v>
       </c>
-      <c r="L82">
+      <c r="M82">
         <v>2.8466308761069099</v>
       </c>
-      <c r="M82">
+      <c r="N82">
         <v>3.04133988973738</v>
       </c>
-      <c r="N82">
+      <c r="O82">
         <v>2.8125094751619999</v>
       </c>
-      <c r="O82">
+      <c r="P82">
         <v>2.8358505163879602</v>
       </c>
-      <c r="P82">
+      <c r="Q82">
         <v>2.8366165420564702</v>
       </c>
-      <c r="Q82">
+      <c r="R82">
         <v>2.8361557959901398</v>
       </c>
-      <c r="R82">
+      <c r="S82">
         <v>2.9247766231073</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -6038,31 +6296,34 @@
         <v>2.9927372110000001</v>
       </c>
       <c r="K83">
+        <v>2.9069565800000001</v>
+      </c>
+      <c r="L83">
         <v>2.85386371468767</v>
       </c>
-      <c r="L83">
+      <c r="M83">
         <v>2.8455600292449899</v>
       </c>
-      <c r="M83">
+      <c r="N83">
         <v>2.99273721093709</v>
       </c>
-      <c r="N83">
+      <c r="O83">
         <v>2.8456778077270402</v>
       </c>
-      <c r="O83">
+      <c r="P83">
         <v>2.8165610369115801</v>
       </c>
-      <c r="P83">
+      <c r="Q83">
         <v>2.8562221047388801</v>
       </c>
-      <c r="Q83">
+      <c r="R83">
         <v>2.8650210056197101</v>
       </c>
-      <c r="R83">
+      <c r="S83">
         <v>2.99273721093709</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -6094,31 +6355,34 @@
         <v>2.8845258579999999</v>
       </c>
       <c r="K84">
+        <v>2.7107742500000001</v>
+      </c>
+      <c r="L84">
         <v>2.78368184549042</v>
       </c>
-      <c r="L84">
+      <c r="M84">
         <v>2.8471965602965601</v>
       </c>
-      <c r="M84">
+      <c r="N84">
         <v>2.8845258579137099</v>
       </c>
-      <c r="N84">
+      <c r="O84">
         <v>2.81585323544323</v>
       </c>
-      <c r="O84">
+      <c r="P84">
         <v>2.7181053325975002</v>
       </c>
-      <c r="P84">
+      <c r="Q84">
         <v>2.77852391473593</v>
       </c>
-      <c r="Q84">
+      <c r="R84">
         <v>2.8258164228067399</v>
       </c>
-      <c r="R84">
+      <c r="S84">
         <v>2.8601329503878699</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -6150,31 +6414,34 @@
         <v>2.8402794990000002</v>
       </c>
       <c r="K85">
+        <v>2.69508876</v>
+      </c>
+      <c r="L85">
         <v>2.7701519927868099</v>
       </c>
-      <c r="L85">
+      <c r="M85">
         <v>2.8467036446010998</v>
       </c>
-      <c r="M85">
+      <c r="N85">
         <v>2.8402794988412601</v>
       </c>
-      <c r="N85">
+      <c r="O85">
         <v>2.7958463216060099</v>
       </c>
-      <c r="O85">
+      <c r="P85">
         <v>2.6634572225799902</v>
       </c>
-      <c r="P85">
+      <c r="Q85">
         <v>2.7793430138680302</v>
       </c>
-      <c r="Q85">
+      <c r="R85">
         <v>2.8202676296651799</v>
       </c>
-      <c r="R85">
+      <c r="S85">
         <v>2.8200584540209399</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -6206,31 +6473,34 @@
         <v>2.88063102</v>
       </c>
       <c r="K86">
+        <v>2.8127077800000002</v>
+      </c>
+      <c r="L86">
         <v>2.8674154438196999</v>
       </c>
-      <c r="L86">
+      <c r="M86">
         <v>2.84709956727716</v>
       </c>
-      <c r="M86">
+      <c r="N86">
         <v>2.8806310195483</v>
       </c>
-      <c r="N86">
+      <c r="O86">
         <v>2.83246576356319</v>
       </c>
-      <c r="O86">
+      <c r="P86">
         <v>2.8617887036150398</v>
       </c>
-      <c r="P86">
+      <c r="Q86">
         <v>2.8639791648334199</v>
       </c>
-      <c r="Q86">
+      <c r="R86">
         <v>2.8330039664142501</v>
       </c>
-      <c r="R86">
+      <c r="S86">
         <v>2.80672229176536</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -6262,31 +6532,34 @@
         <v>2.785683396</v>
       </c>
       <c r="K87">
+        <v>2.7688162300000001</v>
+      </c>
+      <c r="L87">
         <v>2.8082852465397798</v>
       </c>
-      <c r="L87">
+      <c r="M87">
         <v>2.84673463834479</v>
       </c>
-      <c r="M87">
+      <c r="N87">
         <v>2.78568339598452</v>
       </c>
-      <c r="N87">
+      <c r="O87">
         <v>2.80868976155987</v>
       </c>
-      <c r="O87">
+      <c r="P87">
         <v>2.7724160306560002</v>
       </c>
-      <c r="P87">
+      <c r="Q87">
         <v>2.8093399872339901</v>
       </c>
-      <c r="Q87">
+      <c r="R87">
         <v>2.7881143257043699</v>
       </c>
-      <c r="R87">
+      <c r="S87">
         <v>2.78568339598452</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -6318,31 +6591,34 @@
         <v>2.9140730819999998</v>
       </c>
       <c r="K88">
+        <v>3.03749117</v>
+      </c>
+      <c r="L88">
         <v>2.9023300788253801</v>
       </c>
-      <c r="L88">
+      <c r="M88">
         <v>2.8454069979225598</v>
       </c>
-      <c r="M88">
+      <c r="N88">
         <v>2.9140730818962601</v>
       </c>
-      <c r="N88">
+      <c r="O88">
         <v>2.8286375674993098</v>
       </c>
-      <c r="O88">
+      <c r="P88">
         <v>2.9699014207369898</v>
       </c>
-      <c r="P88">
+      <c r="Q88">
         <v>2.90279285634224</v>
       </c>
-      <c r="Q88">
+      <c r="R88">
         <v>2.8187428495909002</v>
       </c>
-      <c r="R88">
+      <c r="S88">
         <v>2.7741503346602099</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -6374,31 +6650,34 @@
         <v>2.9584149549999998</v>
       </c>
       <c r="K89">
+        <v>2.89547774</v>
+      </c>
+      <c r="L89">
         <v>2.8540252715423402</v>
       </c>
-      <c r="L89">
+      <c r="M89">
         <v>2.8485755009190701</v>
       </c>
-      <c r="M89">
+      <c r="N89">
         <v>2.9584149547920902</v>
       </c>
-      <c r="N89">
+      <c r="O89">
         <v>2.9066271208241399</v>
       </c>
-      <c r="O89">
+      <c r="P89">
         <v>2.9015647269560199</v>
       </c>
-      <c r="P89">
+      <c r="Q89">
         <v>2.8495760232628098</v>
       </c>
-      <c r="Q89">
+      <c r="R89">
         <v>2.8566634933228601</v>
       </c>
-      <c r="R89">
+      <c r="S89">
         <v>2.9584131955510098</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -6430,31 +6709,34 @@
         <v>2.9198076149999999</v>
       </c>
       <c r="K90">
+        <v>2.9765970400000001</v>
+      </c>
+      <c r="L90">
         <v>2.8477344255662702</v>
       </c>
-      <c r="L90">
+      <c r="M90">
         <v>2.8467881163895101</v>
       </c>
-      <c r="M90">
+      <c r="N90">
         <v>2.9198076150964001</v>
       </c>
-      <c r="N90">
+      <c r="O90">
         <v>2.8351558626677602</v>
       </c>
-      <c r="O90">
+      <c r="P90">
         <v>2.8969859044200899</v>
       </c>
-      <c r="P90">
+      <c r="Q90">
         <v>2.8554007401069201</v>
       </c>
-      <c r="Q90">
+      <c r="R90">
         <v>2.83599082931224</v>
       </c>
-      <c r="R90">
+      <c r="S90">
         <v>2.9533970803994398</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -6486,31 +6768,34 @@
         <v>2.838616418</v>
       </c>
       <c r="K91">
+        <v>2.7782709799999998</v>
+      </c>
+      <c r="L91">
         <v>2.8421793969190099</v>
       </c>
-      <c r="L91">
+      <c r="M91">
         <v>2.8447910853804701</v>
       </c>
-      <c r="M91">
+      <c r="N91">
         <v>2.8386164179634799</v>
       </c>
-      <c r="N91">
+      <c r="O91">
         <v>2.8173701460775802</v>
       </c>
-      <c r="O91">
+      <c r="P91">
         <v>2.8280985506012501</v>
       </c>
-      <c r="P91">
+      <c r="Q91">
         <v>2.8402517068603998</v>
       </c>
-      <c r="Q91">
+      <c r="R91">
         <v>2.8196347625842502</v>
       </c>
-      <c r="R91">
+      <c r="S91">
         <v>2.8352293116685998</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -6542,31 +6827,34 @@
         <v>2.9627677179999998</v>
       </c>
       <c r="K92">
+        <v>2.9050036700000001</v>
+      </c>
+      <c r="L92">
         <v>2.8527708153579399</v>
       </c>
-      <c r="L92">
+      <c r="M92">
         <v>2.8444171443742499</v>
       </c>
-      <c r="M92">
+      <c r="N92">
         <v>2.9627677180971501</v>
       </c>
-      <c r="N92">
+      <c r="O92">
         <v>2.8232007144210098</v>
       </c>
-      <c r="O92">
+      <c r="P92">
         <v>2.8817267854191502</v>
       </c>
-      <c r="P92">
+      <c r="Q92">
         <v>2.8433816800085698</v>
       </c>
-      <c r="Q92">
+      <c r="R92">
         <v>2.8223958361605801</v>
       </c>
-      <c r="R92">
+      <c r="S92">
         <v>2.8849568795062099</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -6598,31 +6886,34 @@
         <v>2.8649625959999998</v>
       </c>
       <c r="K93">
+        <v>2.84</v>
+      </c>
+      <c r="L93">
         <v>2.8362994655473801</v>
       </c>
-      <c r="L93">
+      <c r="M93">
         <v>2.8464139620015101</v>
-      </c>
-      <c r="M93">
-        <v>2.86496259616478</v>
       </c>
       <c r="N93">
         <v>2.86496259616478</v>
       </c>
       <c r="O93">
+        <v>2.86496259616478</v>
+      </c>
+      <c r="P93">
         <v>2.8245853003395398</v>
       </c>
-      <c r="P93">
+      <c r="Q93">
         <v>2.8333252176194499</v>
       </c>
-      <c r="Q93">
+      <c r="R93">
         <v>2.9457685808611598</v>
       </c>
-      <c r="R93">
+      <c r="S93">
         <v>2.8582236116876101</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -6654,31 +6945,34 @@
         <v>2.9386851960000002</v>
       </c>
       <c r="K94">
+        <v>2.9087347399999999</v>
+      </c>
+      <c r="L94">
         <v>2.8599666142984401</v>
       </c>
-      <c r="L94">
+      <c r="M94">
         <v>2.8457721674513299</v>
       </c>
-      <c r="M94">
+      <c r="N94">
         <v>2.9386851959559501</v>
       </c>
-      <c r="N94">
+      <c r="O94">
         <v>2.8483085486314801</v>
       </c>
-      <c r="O94">
+      <c r="P94">
         <v>2.8947522155690102</v>
       </c>
-      <c r="P94">
+      <c r="Q94">
         <v>2.8458317868509302</v>
       </c>
-      <c r="Q94">
+      <c r="R94">
         <v>2.8361113344484199</v>
       </c>
-      <c r="R94">
+      <c r="S94">
         <v>2.8555804108926401</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -6710,31 +7004,34 @@
         <v>2.8553698230000002</v>
       </c>
       <c r="K95">
+        <v>2.8437672200000002</v>
+      </c>
+      <c r="L95">
         <v>2.84381039693903</v>
       </c>
-      <c r="L95">
+      <c r="M95">
         <v>2.8462410338659399</v>
       </c>
-      <c r="M95">
+      <c r="N95">
         <v>2.8553698225991702</v>
       </c>
-      <c r="N95">
+      <c r="O95">
         <v>2.8259511292143</v>
       </c>
-      <c r="O95">
+      <c r="P95">
         <v>2.8043830110363799</v>
       </c>
-      <c r="P95">
+      <c r="Q95">
         <v>2.84449964568975</v>
       </c>
-      <c r="Q95">
+      <c r="R95">
         <v>2.8096707411236101</v>
       </c>
-      <c r="R95">
+      <c r="S95">
         <v>2.86628541630277</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -6766,31 +7063,34 @@
         <v>2.8523831579999999</v>
       </c>
       <c r="K96">
+        <v>2.7770363300000001</v>
+      </c>
+      <c r="L96">
         <v>2.8243764323312099</v>
       </c>
-      <c r="L96">
+      <c r="M96">
         <v>2.84603038090202</v>
       </c>
-      <c r="M96">
+      <c r="N96">
         <v>2.8523831580842298</v>
       </c>
-      <c r="N96">
+      <c r="O96">
         <v>2.8180931663056801</v>
       </c>
-      <c r="O96">
+      <c r="P96">
         <v>2.8550126693474902</v>
       </c>
-      <c r="P96">
+      <c r="Q96">
         <v>2.8274887173230998</v>
       </c>
-      <c r="Q96">
+      <c r="R96">
         <v>2.80101970094888</v>
       </c>
-      <c r="R96">
+      <c r="S96">
         <v>2.6660692845585099</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -6822,31 +7122,34 @@
         <v>2.868549271</v>
       </c>
       <c r="K97">
+        <v>2.7981555400000002</v>
+      </c>
+      <c r="L97">
         <v>2.84065490671717</v>
       </c>
-      <c r="L97">
+      <c r="M97">
         <v>2.8448312172027199</v>
       </c>
-      <c r="M97">
+      <c r="N97">
         <v>2.8685492708028701</v>
       </c>
-      <c r="N97">
+      <c r="O97">
         <v>2.8081648309460299</v>
       </c>
-      <c r="O97">
+      <c r="P97">
         <v>2.81410358890491</v>
       </c>
-      <c r="P97">
+      <c r="Q97">
         <v>2.8325284068662899</v>
       </c>
-      <c r="Q97">
+      <c r="R97">
         <v>2.8080987252297498</v>
       </c>
-      <c r="R97">
+      <c r="S97">
         <v>2.7332221359554998</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -6878,31 +7181,34 @@
         <v>2.8656996709999998</v>
       </c>
       <c r="K98">
+        <v>2.8292552400000002</v>
+      </c>
+      <c r="L98">
         <v>2.84523045561957</v>
       </c>
-      <c r="L98">
+      <c r="M98">
         <v>2.8473975745060498</v>
       </c>
-      <c r="M98">
+      <c r="N98">
         <v>2.86569967123584</v>
       </c>
-      <c r="N98">
+      <c r="O98">
         <v>2.82314103978789</v>
       </c>
-      <c r="O98">
+      <c r="P98">
         <v>2.8653947494487699</v>
       </c>
-      <c r="P98">
+      <c r="Q98">
         <v>2.84181227405367</v>
       </c>
-      <c r="Q98">
+      <c r="R98">
         <v>2.8269275363667798</v>
       </c>
-      <c r="R98">
+      <c r="S98">
         <v>2.86569967123584</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -6934,31 +7240,34 @@
         <v>2.9684237950000001</v>
       </c>
       <c r="K99">
+        <v>3.0344384999999998</v>
+      </c>
+      <c r="L99">
         <v>2.9105455861200098</v>
       </c>
-      <c r="L99">
+      <c r="M99">
         <v>2.8455029226359798</v>
       </c>
-      <c r="M99">
+      <c r="N99">
         <v>2.9684237945863101</v>
       </c>
-      <c r="N99">
+      <c r="O99">
         <v>2.8507938510857</v>
       </c>
-      <c r="O99">
+      <c r="P99">
         <v>2.9146358360907501</v>
       </c>
-      <c r="P99">
+      <c r="Q99">
         <v>2.9149875935534899</v>
       </c>
-      <c r="Q99">
+      <c r="R99">
         <v>2.9025477506302502</v>
       </c>
-      <c r="R99">
+      <c r="S99">
         <v>2.9684237945863101</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -6990,36 +7299,39 @@
         <v>2.95724184</v>
       </c>
       <c r="K100">
+        <v>2.8773896300000001</v>
+      </c>
+      <c r="L100">
         <v>2.84670680797944</v>
       </c>
-      <c r="L100">
+      <c r="M100">
         <v>2.8465415042892102</v>
       </c>
-      <c r="M100">
+      <c r="N100">
         <v>2.9572418395103401</v>
       </c>
-      <c r="N100">
+      <c r="O100">
         <v>2.8509135426234198</v>
       </c>
-      <c r="O100">
+      <c r="P100">
         <v>2.86485464363472</v>
       </c>
-      <c r="P100">
+      <c r="Q100">
         <v>2.84487737422003</v>
       </c>
-      <c r="Q100">
+      <c r="R100">
         <v>2.8202373307672799</v>
       </c>
-      <c r="R100">
+      <c r="S100">
         <v>2.9082811917009002</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
         <v>112</v>
       </c>
       <c r="B101">
-        <f t="shared" ref="B101:O101" si="0">SUM(B1:B100)/100</f>
+        <f t="shared" ref="B101:P101" si="0">SUM(B1:B100)/100</f>
         <v>2.8866340274999995</v>
       </c>
       <c r="C101">
@@ -7054,28 +7366,28 @@
         <f t="shared" si="0"/>
         <v>2.8854971700599994</v>
       </c>
-      <c r="K101">
+      <c r="L101">
         <f t="shared" si="0"/>
         <v>2.8413782078829497</v>
       </c>
-      <c r="L101">
+      <c r="M101">
         <f t="shared" si="0"/>
         <v>2.8460038134044878</v>
       </c>
-      <c r="M101">
+      <c r="N101">
         <f t="shared" si="0"/>
         <v>2.8848095011724735</v>
       </c>
-      <c r="N101">
+      <c r="O101">
         <f t="shared" si="0"/>
         <v>2.8315080967053063</v>
       </c>
-      <c r="O101">
+      <c r="P101">
         <f t="shared" si="0"/>
         <v>2.844106245320019</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
         <v>113</v>
       </c>
@@ -7103,8 +7415,17 @@
       <c r="I102">
         <v>4.9799999999999997E-2</v>
       </c>
-    </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="J102">
+        <v>5.0900000000000001E-2</v>
+      </c>
+      <c r="K102">
+        <v>5.0900000000000001E-2</v>
+      </c>
+      <c r="L102">
+        <v>4.9799999999999997E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
         <v>114</v>
       </c>
@@ -7133,7 +7454,7 @@
         <v>0.44976776500000026</v>
       </c>
       <c r="H103">
-        <f t="shared" ref="H103:O103" si="2">MAX(H1:H100)-MIN(H1:H100)</f>
+        <f t="shared" ref="H103:P103" si="2">MAX(H1:H100)-MIN(H1:H100)</f>
         <v>4.9903780000000175E-3</v>
       </c>
       <c r="I103">
@@ -7144,28 +7465,28 @@
         <f t="shared" si="2"/>
         <v>0.41662964700000016</v>
       </c>
-      <c r="K103">
+      <c r="L103">
         <f t="shared" si="2"/>
         <v>0.17688873929987992</v>
       </c>
-      <c r="L103">
+      <c r="M103">
         <f t="shared" si="2"/>
         <v>4.6875070436702693E-3</v>
       </c>
-      <c r="M103">
+      <c r="N103">
         <f t="shared" si="2"/>
         <v>0.44713806286917013</v>
       </c>
-      <c r="N103">
+      <c r="O103">
         <f t="shared" si="2"/>
         <v>0.39613091404415979</v>
       </c>
-      <c r="O103">
+      <c r="P103">
         <f t="shared" si="2"/>
         <v>0.30644419815699964</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
         <v>115</v>
       </c>
@@ -7181,32 +7502,33 @@
       <c r="J104" s="1">
         <v>43092</v>
       </c>
-      <c r="K104" s="1">
+      <c r="K104" s="1"/>
+      <c r="L104" s="1">
         <v>43092</v>
-      </c>
-      <c r="L104" s="1">
-        <v>43093</v>
       </c>
       <c r="M104" s="1">
         <v>43093</v>
       </c>
       <c r="N104" s="1">
+        <v>43093</v>
+      </c>
+      <c r="O104" s="1">
         <v>43094</v>
-      </c>
-      <c r="O104" s="1">
-        <v>43095</v>
       </c>
       <c r="P104" s="1">
         <v>43095</v>
       </c>
       <c r="Q104" s="1">
-        <v>43096</v>
+        <v>43095</v>
       </c>
       <c r="R104" s="1">
         <v>43096</v>
       </c>
-    </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S104" s="1">
+        <v>43096</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
         <v>116</v>
       </c>
@@ -7237,32 +7559,32 @@
       <c r="J105" t="s">
         <v>108</v>
       </c>
-      <c r="K105" t="s">
+      <c r="L105" t="s">
         <v>109</v>
       </c>
-      <c r="L105" t="s">
+      <c r="M105" t="s">
         <v>110</v>
       </c>
-      <c r="M105" t="s">
+      <c r="N105" t="s">
         <v>111</v>
       </c>
-      <c r="N105" t="s">
+      <c r="O105" t="s">
         <v>117</v>
       </c>
-      <c r="O105" t="s">
+      <c r="P105" t="s">
         <v>121</v>
       </c>
-      <c r="P105" t="s">
+      <c r="Q105" t="s">
         <v>122</v>
       </c>
-      <c r="Q105" t="s">
+      <c r="R105" t="s">
         <v>123</v>
       </c>
-      <c r="R105" t="s">
+      <c r="S105" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.15">
       <c r="G106" t="s">
         <v>119</v>
       </c>
@@ -7274,6 +7596,15 @@
       </c>
       <c r="J106" t="s">
         <v>125</v>
+      </c>
+      <c r="L106" t="s">
+        <v>126</v>
+      </c>
+      <c r="M106" t="s">
+        <v>128</v>
+      </c>
+      <c r="N106" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/teacher/ali/data/ans/result.xlsx
+++ b/teacher/ali/data/ans/result.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
   <si>
     <t>ID716</t>
   </si>
@@ -426,6 +426,9 @@
   <si>
     <t>w</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0504 </t>
   </si>
 </sst>
 </file>
@@ -1416,8 +1419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="L108" sqref="L108"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="N102" sqref="M102:N102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7424,6 +7427,12 @@
       <c r="L102">
         <v>4.9799999999999997E-2</v>
       </c>
+      <c r="M102">
+        <v>4.9700000000000001E-2</v>
+      </c>
+      <c r="N102" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A103" t="s">

--- a/teacher/ali/data/ans/result.xlsx
+++ b/teacher/ali/data/ans/result.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
   <si>
     <t>ID716</t>
   </si>
@@ -429,6 +429,46 @@
   </si>
   <si>
     <t>0.0504 </t>
+  </si>
+  <si>
+    <t>相关，2阶</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关，3阶</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关lda</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关knn</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>w</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>w</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1417,19 +1457,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S106"/>
+  <dimension ref="A1:X106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="N102" sqref="M102:N102"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="L110" sqref="L110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="9" max="9" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="19" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.25" customWidth="1"/>
+    <col min="15" max="24" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1470,25 +1512,40 @@
         <v>2.8450196000546999</v>
       </c>
       <c r="N1">
+        <v>2.51953125</v>
+      </c>
+      <c r="O1">
         <v>2.71357994236662</v>
       </c>
-      <c r="O1">
+      <c r="P1">
         <v>2.7182949503448199</v>
       </c>
-      <c r="P1">
+      <c r="Q1">
         <v>2.7388044219393399</v>
       </c>
-      <c r="Q1">
+      <c r="R1">
         <v>2.7719953245690401</v>
       </c>
-      <c r="R1">
+      <c r="S1">
         <v>2.76448791771855</v>
       </c>
-      <c r="S1">
+      <c r="T1">
         <v>2.71357994236662</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U1">
+        <v>2.8474108730493701</v>
+      </c>
+      <c r="V1">
+        <v>2.78102441699426</v>
+      </c>
+      <c r="W1">
+        <v>2.76448791771855</v>
+      </c>
+      <c r="X1">
+        <v>2.7371961972007099</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1529,25 +1586,40 @@
         <v>2.8467565969577202</v>
       </c>
       <c r="N2">
+        <v>2.6517578130000001</v>
+      </c>
+      <c r="O2">
         <v>2.69802198776397</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>2.7897198859386299</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>2.7713460635068499</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>2.71820647368807</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>2.7693698524779502</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>2.76681844443601</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U2">
+        <v>2.8486773269663299</v>
+      </c>
+      <c r="V2">
+        <v>2.7461357888415998</v>
+      </c>
+      <c r="W2">
+        <v>2.7693698524779502</v>
+      </c>
+      <c r="X2">
+        <v>2.7278167134569902</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1588,25 +1660,40 @@
         <v>2.8465010430032098</v>
       </c>
       <c r="N3">
+        <v>2.870117188</v>
+      </c>
+      <c r="O3">
         <v>2.8618391897383502</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>2.8395266452236401</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>2.8608156046240398</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>2.8388643922392101</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>2.84072377807072</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>2.8634195081637599</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U3">
+        <v>2.8450264406639501</v>
+      </c>
+      <c r="V3">
+        <v>2.8483906282588198</v>
+      </c>
+      <c r="W3">
+        <v>2.84072377807072</v>
+      </c>
+      <c r="X3">
+        <v>2.8486951382194299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1647,25 +1734,40 @@
         <v>2.84701149279404</v>
       </c>
       <c r="N4">
+        <v>2.7749999999999999</v>
+      </c>
+      <c r="O4">
         <v>2.9878993304518899</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>2.77276042882262</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>2.87254587380647</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>2.84539085666959</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>2.8518604795604499</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>2.9057067273641501</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U4">
+        <v>2.8443725100997499</v>
+      </c>
+      <c r="V4">
+        <v>2.8508524951009102</v>
+      </c>
+      <c r="W4">
+        <v>2.8518604795604499</v>
+      </c>
+      <c r="X4">
+        <v>2.90403651788501</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1706,25 +1808,40 @@
         <v>2.8470034958583499</v>
       </c>
       <c r="N5">
+        <v>2.8029296879999999</v>
+      </c>
+      <c r="O5">
         <v>2.8923134868461</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>2.83197983755788</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>2.8844070685167198</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>2.8408157835662902</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>2.8360471007135701</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>2.8923134868461</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U5">
+        <v>2.8465749850210802</v>
+      </c>
+      <c r="V5">
+        <v>2.84664438778479</v>
+      </c>
+      <c r="W5">
+        <v>2.8360471007135701</v>
+      </c>
+      <c r="X5">
+        <v>2.9823301164032601</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1765,25 +1882,40 @@
         <v>2.8450369603344399</v>
       </c>
       <c r="N6">
+        <v>2.6722656250000001</v>
+      </c>
+      <c r="O6">
         <v>2.90384614001889</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>2.8445696979655399</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>2.8009775786105702</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>2.8548479545249901</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>2.83708263850321</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>2.90384614001889</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U6">
+        <v>2.8464576402839898</v>
+      </c>
+      <c r="V6">
+        <v>2.8553106558136201</v>
+      </c>
+      <c r="W6">
+        <v>2.83708263850321</v>
+      </c>
+      <c r="X6">
+        <v>2.8032375326279202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1824,25 +1956,40 @@
         <v>2.8439846556430801</v>
       </c>
       <c r="N7">
+        <v>3.0277343750000001</v>
+      </c>
+      <c r="O7">
         <v>2.8753102374187001</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>2.8595496022198299</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>2.8420698377165401</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>2.84771873347505</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>2.8613249466226298</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>2.8753102374187001</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U7">
+        <v>2.8456426675496398</v>
+      </c>
+      <c r="V7">
+        <v>2.8549405566331001</v>
+      </c>
+      <c r="W7">
+        <v>2.8613249466226298</v>
+      </c>
+      <c r="X7">
+        <v>2.8756024540218199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1883,25 +2030,40 @@
         <v>2.8465134755522601</v>
       </c>
       <c r="N8">
+        <v>2.754882813</v>
+      </c>
+      <c r="O8">
         <v>2.8359044765262298</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>2.8293904639897902</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>2.81862878474496</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>2.8410971425985898</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>2.7093361503202402</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>2.7565464674566802</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U8">
+        <v>2.84469323358541</v>
+      </c>
+      <c r="V8">
+        <v>2.8442967354864401</v>
+      </c>
+      <c r="W8">
+        <v>2.7093361503202402</v>
+      </c>
+      <c r="X8">
+        <v>2.6911712283105098</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1942,25 +2104,40 @@
         <v>2.8469091870927801</v>
       </c>
       <c r="N9">
+        <v>2.6439453130000001</v>
+      </c>
+      <c r="O9">
         <v>2.6596732751412699</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>2.81802521738723</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>2.8105181620405801</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>2.8424442330522801</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>2.7310409689233701</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>2.7243036822738</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U9">
+        <v>2.8458173285102601</v>
+      </c>
+      <c r="V9">
+        <v>2.8368335949410102</v>
+      </c>
+      <c r="W9">
+        <v>2.7310409689233701</v>
+      </c>
+      <c r="X9">
+        <v>2.6137963940872901</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2001,25 +2178,40 @@
         <v>2.8451896140657298</v>
       </c>
       <c r="N10">
+        <v>2.666015625</v>
+      </c>
+      <c r="O10">
         <v>2.7500051550864999</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>2.7816425727847101</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>2.8431314003653698</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>2.83522747246916</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>2.75462100084891</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>2.7493226252115401</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U10">
+        <v>2.8454270418269898</v>
+      </c>
+      <c r="V10">
+        <v>2.8508154737356701</v>
+      </c>
+      <c r="W10">
+        <v>2.75462100084891</v>
+      </c>
+      <c r="X10">
+        <v>2.7561178895291998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2060,25 +2252,40 @@
         <v>2.8458112428144902</v>
       </c>
       <c r="N11">
+        <v>2.754882813</v>
+      </c>
+      <c r="O11">
         <v>2.6901816906368698</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>2.7815593716132301</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>2.8356443429705398</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>2.8364553189625101</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>2.7367146744627799</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>2.6894991607619101</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U11">
+        <v>2.8470784118378498</v>
+      </c>
+      <c r="V11">
+        <v>2.8492105105191499</v>
+      </c>
+      <c r="W11">
+        <v>2.7367146744627799</v>
+      </c>
+      <c r="X11">
+        <v>2.7218061916217202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2119,25 +2326,40 @@
         <v>2.8439295773116902</v>
       </c>
       <c r="N12">
+        <v>2.9837890630000001</v>
+      </c>
+      <c r="O12">
         <v>2.9039443855750999</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>2.85791909781917</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>2.8762526590555799</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>2.8486867461624201</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>2.8607109070203198</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>2.9189964659760701</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U12">
+        <v>2.8472917016940902</v>
+      </c>
+      <c r="V12">
+        <v>2.8494315200031801</v>
+      </c>
+      <c r="W12">
+        <v>2.8607109070203198</v>
+      </c>
+      <c r="X12">
+        <v>2.8605353951674299</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2178,25 +2400,40 @@
         <v>2.8469211324893502</v>
       </c>
       <c r="N13">
+        <v>2.796875</v>
+      </c>
+      <c r="O13">
         <v>2.9667429260530001</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>2.8368231587472499</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>2.8229341820912199</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>2.8677580003051699</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>2.8589612531544799</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>3.0013169343395001</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U13">
+        <v>2.8457581005525898</v>
+      </c>
+      <c r="V13">
+        <v>2.8480917967492099</v>
+      </c>
+      <c r="W13">
+        <v>2.8589612531544799</v>
+      </c>
+      <c r="X13">
+        <v>2.9030142253725999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2237,25 +2474,40 @@
         <v>2.84712705838376</v>
       </c>
       <c r="N14">
+        <v>2.6248046880000002</v>
+      </c>
+      <c r="O14">
         <v>2.8968435909456698</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>2.8308088483284801</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>2.7842541688048899</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>2.8469808739736</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>2.8226373665750399</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>2.8367465480208098</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U14">
+        <v>2.8449171880409501</v>
+      </c>
+      <c r="V14">
+        <v>2.8335240055819502</v>
+      </c>
+      <c r="W14">
+        <v>2.8226373665750399</v>
+      </c>
+      <c r="X14">
+        <v>2.7349765102924501</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2296,25 +2548,40 @@
         <v>2.8449010805747701</v>
       </c>
       <c r="N15">
+        <v>2.9691406250000001</v>
+      </c>
+      <c r="O15">
         <v>3.0562470507804602</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>2.8290767473439602</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>2.8819611058982999</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>2.8635443618136498</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>2.8268139332584998</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>3.0562470507804602</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U15">
+        <v>2.84665445626284</v>
+      </c>
+      <c r="V15">
+        <v>2.8673944741451098</v>
+      </c>
+      <c r="W15">
+        <v>2.8268139332584998</v>
+      </c>
+      <c r="X15">
+        <v>3.1087391993157798</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2355,25 +2622,40 @@
         <v>2.8472394577189202</v>
       </c>
       <c r="N16">
+        <v>2.7640625000000001</v>
+      </c>
+      <c r="O16">
         <v>2.8789664681686</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>2.9120155638443102</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>2.8123627288455602</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>2.8350070506357099</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>2.8337350973566098</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>2.8441732419824399</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U16">
+        <v>2.8473614365692299</v>
+      </c>
+      <c r="V16">
+        <v>2.84029892951457</v>
+      </c>
+      <c r="W16">
+        <v>2.8337350973566098</v>
+      </c>
+      <c r="X16">
+        <v>2.8326711012211399</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2414,25 +2696,40 @@
         <v>2.8454209995859201</v>
       </c>
       <c r="N17">
-        <v>2.89071504320217</v>
+        <v>3.014648438</v>
       </c>
       <c r="O17">
         <v>2.89071504320217</v>
       </c>
       <c r="P17">
+        <v>2.89071504320217</v>
+      </c>
+      <c r="Q17">
         <v>2.8922578186945498</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>2.8545013970308899</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>3.0284386849384601</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>2.89071504320217</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U17">
+        <v>2.8481809073380999</v>
+      </c>
+      <c r="V17">
+        <v>2.8389734605602199</v>
+      </c>
+      <c r="W17">
+        <v>3.0284386849384601</v>
+      </c>
+      <c r="X17">
+        <v>2.82953109912722</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -2473,25 +2770,40 @@
         <v>2.8466576136966402</v>
       </c>
       <c r="N18">
+        <v>2.7554687499999999</v>
+      </c>
+      <c r="O18">
         <v>2.9320882172883498</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>2.73317400776217</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>2.8726005434468398</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>2.82947792205435</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>2.83889763315669</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>2.8695971954670401</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U18">
+        <v>2.8445661838168199</v>
+      </c>
+      <c r="V18">
+        <v>2.8451494585745301</v>
+      </c>
+      <c r="W18">
+        <v>2.83889763315669</v>
+      </c>
+      <c r="X18">
+        <v>2.8751021075368901</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2532,25 +2844,40 @@
         <v>2.84525206304279</v>
       </c>
       <c r="N19">
+        <v>2.6332031250000001</v>
+      </c>
+      <c r="O19">
         <v>2.80946402002201</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>2.7335347164139501</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>2.8477173132208899</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>2.84043708926961</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>2.7861025826136898</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>2.8447350394854598</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U19">
+        <v>2.84524985217642</v>
+      </c>
+      <c r="V19">
+        <v>2.8426351352530501</v>
+      </c>
+      <c r="W19">
+        <v>2.7861025826136898</v>
+      </c>
+      <c r="X19">
+        <v>2.847790954738</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2591,25 +2918,40 @@
         <v>2.8438879938753998</v>
       </c>
       <c r="N20">
+        <v>2.9177734380000002</v>
+      </c>
+      <c r="O20">
         <v>2.8172663376538298</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>2.8947807389497102</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>2.8870489662618501</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>2.8479878610916498</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>2.92676717617677</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>2.8172663376538298</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U20">
+        <v>2.8461994079353201</v>
+      </c>
+      <c r="V20">
+        <v>2.8488881395854202</v>
+      </c>
+      <c r="W20">
+        <v>2.92676717617677</v>
+      </c>
+      <c r="X20">
+        <v>2.90689447450006</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2650,25 +2992,40 @@
         <v>2.8459157274129399</v>
       </c>
       <c r="N21">
+        <v>2.8367187500000002</v>
+      </c>
+      <c r="O21">
         <v>2.94012084562649</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>2.8268047112111798</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>2.8237851213102498</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>2.83294030576005</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>2.8022552720093099</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>2.94012084562649</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U21">
+        <v>2.8457585171412698</v>
+      </c>
+      <c r="V21">
+        <v>2.8282932773596099</v>
+      </c>
+      <c r="W21">
+        <v>2.8022552720093099</v>
+      </c>
+      <c r="X21">
+        <v>2.86271746813614</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2709,25 +3066,40 @@
         <v>2.84631282578325</v>
       </c>
       <c r="N22">
-        <v>2.8447350394854598</v>
+        <v>2.6720703129999999</v>
       </c>
       <c r="O22">
         <v>2.8447350394854598</v>
       </c>
       <c r="P22">
+        <v>2.8447350394854598</v>
+      </c>
+      <c r="Q22">
         <v>2.85301982920525</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>2.8565066226646998</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>2.76926398543393</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>2.8447350394854598</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U22">
+        <v>2.8457061631557501</v>
+      </c>
+      <c r="V22">
+        <v>2.8496181813242001</v>
+      </c>
+      <c r="W22">
+        <v>2.76926398543393</v>
+      </c>
+      <c r="X22">
+        <v>2.8493641347432499</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -2768,25 +3140,40 @@
         <v>2.8457502155247698</v>
       </c>
       <c r="N23">
+        <v>2.711914063</v>
+      </c>
+      <c r="O23">
         <v>2.83055030892434</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>2.8683970258624698</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>2.85767358876469</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>2.83927238247347</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>2.8468025270669299</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>2.83055030892434</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U23">
+        <v>2.8467555168185199</v>
+      </c>
+      <c r="V23">
+        <v>2.8437455266419902</v>
+      </c>
+      <c r="W23">
+        <v>2.8468025270669299</v>
+      </c>
+      <c r="X23">
+        <v>2.8468197697214799</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -2827,25 +3214,40 @@
         <v>2.8464447037755498</v>
       </c>
       <c r="N24">
+        <v>2.7501953129999999</v>
+      </c>
+      <c r="O24">
         <v>2.7755966315301399</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>2.7577330698776299</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>2.84821874806949</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>2.8296674948192102</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>2.8196551935811298</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>2.8270367977178301</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U24">
+        <v>2.84754265374049</v>
+      </c>
+      <c r="V24">
+        <v>2.8397529945961701</v>
+      </c>
+      <c r="W24">
+        <v>2.8196551935811298</v>
+      </c>
+      <c r="X24">
+        <v>2.7976413792917199</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -2886,25 +3288,40 @@
         <v>2.8449148714350101</v>
       </c>
       <c r="N25">
-        <v>2.79195578903194</v>
+        <v>2.510742188</v>
       </c>
       <c r="O25">
         <v>2.79195578903194</v>
       </c>
       <c r="P25">
+        <v>2.79195578903194</v>
+      </c>
+      <c r="Q25">
         <v>2.8835263246752301</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>2.84206218453255</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>2.9207330684311401</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>2.79195578903194</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U25">
+        <v>2.8444540926737099</v>
+      </c>
+      <c r="V25">
+        <v>2.8448530227996001</v>
+      </c>
+      <c r="W25">
+        <v>2.9207330684311401</v>
+      </c>
+      <c r="X25">
+        <v>2.8483562121779</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -2945,25 +3362,40 @@
         <v>2.8447854370136998</v>
       </c>
       <c r="N26">
+        <v>2.875</v>
+      </c>
+      <c r="O26">
         <v>2.8392470621886901</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>2.8344646922418399</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>2.8554628030550102</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>2.8403833093264401</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>2.8643328709391098</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>2.9073366472916602</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U26">
+        <v>2.8448461010104702</v>
+      </c>
+      <c r="V26">
+        <v>2.8418456673198702</v>
+      </c>
+      <c r="W26">
+        <v>2.8643328709391098</v>
+      </c>
+      <c r="X26">
+        <v>2.8460183483813899</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -3004,25 +3436,40 @@
         <v>2.8447861643220498</v>
       </c>
       <c r="N27">
+        <v>2.845703125</v>
+      </c>
+      <c r="O27">
         <v>2.8176939576188298</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>2.9645633078969298</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>2.7777513887609802</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>2.8393196732405901</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>2.9060772104563801</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>2.8176939576188298</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U27">
+        <v>2.8460267464083402</v>
+      </c>
+      <c r="V27">
+        <v>2.8492265986994201</v>
+      </c>
+      <c r="W27">
+        <v>2.9060772104563801</v>
+      </c>
+      <c r="X27">
+        <v>2.9060919244060899</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -3063,25 +3510,40 @@
         <v>2.8439748916868099</v>
       </c>
       <c r="N28">
+        <v>2.9894531249999998</v>
+      </c>
+      <c r="O28">
         <v>2.7491414813812298</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>2.6776424877635701</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>2.8110881955154099</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>2.8389330578046801</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>3.0293265062886801</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>2.7902252557871901</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U28">
+        <v>2.84794199124523</v>
+      </c>
+      <c r="V28">
+        <v>2.8422930882423199</v>
+      </c>
+      <c r="W28">
+        <v>3.0293265062886801</v>
+      </c>
+      <c r="X28">
+        <v>2.84816824839212</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -3122,25 +3584,40 @@
         <v>2.8468199900817601</v>
       </c>
       <c r="N29">
+        <v>3.0291015630000002</v>
+      </c>
+      <c r="O29">
         <v>2.8726386979844198</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>2.8844066216589099</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>2.83672733766495</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>2.8429042653341599</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>2.7772062047683499</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>2.8094255522531002</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U29">
+        <v>2.8453669582153198</v>
+      </c>
+      <c r="V29">
+        <v>2.8614917020195598</v>
+      </c>
+      <c r="W29">
+        <v>2.7772062047683499</v>
+      </c>
+      <c r="X29">
+        <v>2.86178594192033</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -3181,25 +3658,40 @@
         <v>2.8453819663654998</v>
       </c>
       <c r="N30">
+        <v>2.9417968750000001</v>
+      </c>
+      <c r="O30">
         <v>2.89939447329456</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>2.8702542647986999</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>2.8033540617592698</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>2.8369378239230998</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>2.8989454089970699</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>2.89939447329456</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U30">
+        <v>2.84626987307534</v>
+      </c>
+      <c r="V30">
+        <v>2.8490396475706801</v>
+      </c>
+      <c r="W30">
+        <v>2.8989454089970699</v>
+      </c>
+      <c r="X30">
+        <v>2.8895313715103201</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -3240,25 +3732,40 @@
         <v>2.84442717527424</v>
       </c>
       <c r="N31">
+        <v>2.7902343749999998</v>
+      </c>
+      <c r="O31">
         <v>2.82548857879098</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>2.83925904371866</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>2.8092672394441398</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>2.8371036886391598</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>2.8602868667493002</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>2.82548857879098</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U31">
+        <v>2.8459569938762299</v>
+      </c>
+      <c r="V31">
+        <v>2.8363901776175902</v>
+      </c>
+      <c r="W31">
+        <v>2.8602868667493002</v>
+      </c>
+      <c r="X31">
+        <v>2.8238221249623701</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -3299,25 +3806,40 @@
         <v>2.8462698415588998</v>
       </c>
       <c r="N32">
+        <v>2.8236328130000001</v>
+      </c>
+      <c r="O32">
         <v>2.8447350394854598</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>2.8270328852295998</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>2.88926123132876</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>2.8491440450437602</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>2.8968017745074102</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>2.8447350394854598</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U32">
+        <v>2.8473036076508902</v>
+      </c>
+      <c r="V32">
+        <v>2.8506057170175998</v>
+      </c>
+      <c r="W32">
+        <v>2.8968017745074102</v>
+      </c>
+      <c r="X32">
+        <v>2.79086739860263</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -3358,25 +3880,40 @@
         <v>2.8465532051291702</v>
       </c>
       <c r="N33">
+        <v>2.9539062500000002</v>
+      </c>
+      <c r="O33">
         <v>2.9906377571825602</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>2.87474091224203</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>2.83805457150171</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>2.85741479956573</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>2.8383031272667401</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>2.92425560538156</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U33">
+        <v>2.8451774099945699</v>
+      </c>
+      <c r="V33">
+        <v>2.8599354193650202</v>
+      </c>
+      <c r="W33">
+        <v>2.8383031272667401</v>
+      </c>
+      <c r="X33">
+        <v>2.8195597646896799</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -3417,25 +3954,40 @@
         <v>2.8448789838865598</v>
       </c>
       <c r="N34">
+        <v>2.7734375</v>
+      </c>
+      <c r="O34">
         <v>3.1068113380104401</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>2.8479334264151999</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>2.9243763337650699</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>2.8675071672222701</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>2.8286165034742901</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>3.1310467453776898</v>
       </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U34">
+        <v>2.8454110947284401</v>
+      </c>
+      <c r="V34">
+        <v>2.8575701923407899</v>
+      </c>
+      <c r="W34">
+        <v>2.8286165034742901</v>
+      </c>
+      <c r="X34">
+        <v>3.02141095002077</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -3476,25 +4028,40 @@
         <v>2.8473215703885799</v>
       </c>
       <c r="N35">
+        <v>2.8871093750000001</v>
+      </c>
+      <c r="O35">
         <v>2.9721224618793798</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>2.8132324954633599</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>2.8703836438806301</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>2.8462101415538799</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>2.81123697638919</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>2.9479518987943698</v>
       </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U35">
+        <v>2.84776955366317</v>
+      </c>
+      <c r="V35">
+        <v>2.8528865424457299</v>
+      </c>
+      <c r="W35">
+        <v>2.81123697638919</v>
+      </c>
+      <c r="X35">
+        <v>2.8701455404578202</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -3535,25 +4102,40 @@
         <v>2.8471569035175199</v>
       </c>
       <c r="N36">
+        <v>2.791992188</v>
+      </c>
+      <c r="O36">
         <v>3.0591180489021101</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>2.8301384422112701</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>2.8464375451070199</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>2.8491100518442698</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>2.8058088544003299</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>3.0591180489021101</v>
       </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U36">
+        <v>2.8458068185171101</v>
+      </c>
+      <c r="V36">
+        <v>2.8448748889724902</v>
+      </c>
+      <c r="W36">
+        <v>2.8058088544003299</v>
+      </c>
+      <c r="X36">
+        <v>2.9965079620987001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -3594,25 +4176,40 @@
         <v>2.8457656187070901</v>
       </c>
       <c r="N37">
+        <v>3.109960938</v>
+      </c>
+      <c r="O37">
         <v>2.86614129744751</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>2.7861021610117098</v>
       </c>
-      <c r="P37">
+      <c r="Q37">
         <v>2.8535400736927001</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>2.8405546225334102</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <v>2.8599985072225298</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <v>2.86614129744751</v>
       </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U37">
+        <v>2.84738460723753</v>
+      </c>
+      <c r="V37">
+        <v>2.8498788090052098</v>
+      </c>
+      <c r="W37">
+        <v>2.8599985072225298</v>
+      </c>
+      <c r="X37">
+        <v>2.8759486789372701</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -3653,25 +4250,40 @@
         <v>2.8442619710041002</v>
       </c>
       <c r="N38">
+        <v>2.8162109380000002</v>
+      </c>
+      <c r="O38">
         <v>2.8806089227582001</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>2.82216035537932</v>
       </c>
-      <c r="P38">
+      <c r="Q38">
         <v>2.8622842491624398</v>
       </c>
-      <c r="Q38">
+      <c r="R38">
         <v>2.8571778737004601</v>
       </c>
-      <c r="R38">
+      <c r="S38">
         <v>2.8512463754650099</v>
       </c>
-      <c r="S38">
+      <c r="T38">
         <v>2.8865699125000202</v>
       </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U38">
+        <v>2.8493478675442998</v>
+      </c>
+      <c r="V38">
+        <v>2.84001054105621</v>
+      </c>
+      <c r="W38">
+        <v>2.8512463754650099</v>
+      </c>
+      <c r="X38">
+        <v>2.9130771008424401</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -3712,25 +4324,40 @@
         <v>2.8457877125706799</v>
       </c>
       <c r="N39">
+        <v>2.9058593749999999</v>
+      </c>
+      <c r="O39">
         <v>2.90331219046212</v>
       </c>
-      <c r="O39">
+      <c r="P39">
         <v>2.6950594310828899</v>
       </c>
-      <c r="P39">
+      <c r="Q39">
         <v>2.8396078996247498</v>
       </c>
-      <c r="Q39">
+      <c r="R39">
         <v>2.8325605060557999</v>
       </c>
-      <c r="R39">
+      <c r="S39">
         <v>2.8376084638839698</v>
       </c>
-      <c r="S39">
+      <c r="T39">
         <v>2.90331219046212</v>
       </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U39">
+        <v>2.8458696315855301</v>
+      </c>
+      <c r="V39">
+        <v>2.8367794261183801</v>
+      </c>
+      <c r="W39">
+        <v>2.8376084638839698</v>
+      </c>
+      <c r="X39">
+        <v>2.9019044543377199</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -3771,25 +4398,40 @@
         <v>2.8462405507321802</v>
       </c>
       <c r="N40">
+        <v>2.865234375</v>
+      </c>
+      <c r="O40">
         <v>2.9266795733066902</v>
       </c>
-      <c r="O40">
+      <c r="P40">
         <v>2.70099225066997</v>
       </c>
-      <c r="P40">
+      <c r="Q40">
         <v>2.8347500632501301</v>
       </c>
-      <c r="Q40">
+      <c r="R40">
         <v>2.8359057524868501</v>
       </c>
-      <c r="R40">
+      <c r="S40">
         <v>2.8626333299598801</v>
       </c>
-      <c r="S40">
+      <c r="T40">
         <v>2.9266795733066902</v>
       </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U40">
+        <v>2.8448796037801398</v>
+      </c>
+      <c r="V40">
+        <v>2.84455424980536</v>
+      </c>
+      <c r="W40">
+        <v>2.8626333299598801</v>
+      </c>
+      <c r="X40">
+        <v>2.9212931534607698</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -3830,25 +4472,40 @@
         <v>2.84630236461064</v>
       </c>
       <c r="N41">
+        <v>2.7316406249999998</v>
+      </c>
+      <c r="O41">
         <v>2.8571590249714598</v>
       </c>
-      <c r="O41">
+      <c r="P41">
         <v>2.7902037581714501</v>
       </c>
-      <c r="P41">
+      <c r="Q41">
         <v>2.8880396285324599</v>
       </c>
-      <c r="Q41">
+      <c r="R41">
         <v>2.8449078839538902</v>
       </c>
-      <c r="R41">
+      <c r="S41">
         <v>2.81072033624437</v>
       </c>
-      <c r="S41">
+      <c r="T41">
         <v>2.8611540019225399</v>
       </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U41">
+        <v>2.8457915936433502</v>
+      </c>
+      <c r="V41">
+        <v>2.8446058110812702</v>
+      </c>
+      <c r="W41">
+        <v>2.81072033624437</v>
+      </c>
+      <c r="X41">
+        <v>2.9583144879774701</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -3889,25 +4546,40 @@
         <v>2.84745782114353</v>
       </c>
       <c r="N42">
+        <v>3.055273438</v>
+      </c>
+      <c r="O42">
         <v>2.90331219046212</v>
       </c>
-      <c r="O42">
+      <c r="P42">
         <v>2.7699942136739102</v>
       </c>
-      <c r="P42">
+      <c r="Q42">
         <v>2.8437270834519799</v>
       </c>
-      <c r="Q42">
+      <c r="R42">
         <v>2.8451838145365902</v>
       </c>
-      <c r="R42">
+      <c r="S42">
         <v>2.8691317795920899</v>
       </c>
-      <c r="S42">
+      <c r="T42">
         <v>2.90331219046212</v>
       </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U42">
+        <v>2.84674826182912</v>
+      </c>
+      <c r="V42">
+        <v>2.8417401484455702</v>
+      </c>
+      <c r="W42">
+        <v>2.8691317795920899</v>
+      </c>
+      <c r="X42">
+        <v>2.90358976291499</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -3948,25 +4620,40 @@
         <v>2.8474522528892399</v>
       </c>
       <c r="N43">
+        <v>2.7552734380000001</v>
+      </c>
+      <c r="O43">
         <v>2.9560128269184598</v>
       </c>
-      <c r="O43">
+      <c r="P43">
         <v>2.8123471965277198</v>
       </c>
-      <c r="P43">
+      <c r="Q43">
         <v>2.8693314849628599</v>
       </c>
-      <c r="Q43">
+      <c r="R43">
         <v>2.8371910891372001</v>
       </c>
-      <c r="R43">
+      <c r="S43">
         <v>2.81756387549822</v>
       </c>
-      <c r="S43">
+      <c r="T43">
         <v>2.9560128269184598</v>
       </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U43">
+        <v>2.84735980551278</v>
+      </c>
+      <c r="V43">
+        <v>2.8335908351687999</v>
+      </c>
+      <c r="W43">
+        <v>2.81756387549822</v>
+      </c>
+      <c r="X43">
+        <v>2.9562593612207202</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -4007,25 +4694,40 @@
         <v>2.8464699759613499</v>
       </c>
       <c r="N44">
+        <v>2.9554687500000001</v>
+      </c>
+      <c r="O44">
         <v>2.89939447329456</v>
       </c>
-      <c r="O44">
+      <c r="P44">
         <v>2.8443655661373102</v>
       </c>
-      <c r="P44">
+      <c r="Q44">
         <v>2.8915390402958701</v>
       </c>
-      <c r="Q44">
+      <c r="R44">
         <v>2.84733868829503</v>
       </c>
-      <c r="R44">
+      <c r="S44">
         <v>2.8691835750517001</v>
       </c>
-      <c r="S44">
+      <c r="T44">
         <v>2.89939447329456</v>
       </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U44">
+        <v>2.8476987939002201</v>
+      </c>
+      <c r="V44">
+        <v>2.84628348352302</v>
+      </c>
+      <c r="W44">
+        <v>2.8691835750517001</v>
+      </c>
+      <c r="X44">
+        <v>2.8931806746822399</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -4066,25 +4768,40 @@
         <v>2.8446111104037799</v>
       </c>
       <c r="N45">
-        <v>2.86073226204919</v>
+        <v>2.84</v>
       </c>
       <c r="O45">
         <v>2.86073226204919</v>
       </c>
       <c r="P45">
+        <v>2.86073226204919</v>
+      </c>
+      <c r="Q45">
         <v>2.8152501079253698</v>
       </c>
-      <c r="Q45">
+      <c r="R45">
         <v>2.84430819042168</v>
       </c>
-      <c r="R45">
+      <c r="S45">
         <v>2.9392618159436701</v>
       </c>
-      <c r="S45">
+      <c r="T45">
         <v>2.86073226204919</v>
       </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U45">
+        <v>2.8471074408244101</v>
+      </c>
+      <c r="V45">
+        <v>2.8544697107508301</v>
+      </c>
+      <c r="W45">
+        <v>2.9392618159436701</v>
+      </c>
+      <c r="X45">
+        <v>2.83577488220019</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -4125,25 +4842,40 @@
         <v>2.8472524079055099</v>
       </c>
       <c r="N46">
+        <v>2.9291015630000001</v>
+      </c>
+      <c r="O46">
         <v>2.82548857879098</v>
       </c>
-      <c r="O46">
+      <c r="P46">
         <v>2.8972637556113701</v>
       </c>
-      <c r="P46">
+      <c r="Q46">
         <v>2.8918902052712601</v>
       </c>
-      <c r="Q46">
+      <c r="R46">
         <v>2.83742009195986</v>
       </c>
-      <c r="R46">
+      <c r="S46">
         <v>2.8497663078738298</v>
       </c>
-      <c r="S46">
+      <c r="T46">
         <v>2.82548857879098</v>
       </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U46">
+        <v>2.8445135847869598</v>
+      </c>
+      <c r="V46">
+        <v>2.8399373483921502</v>
+      </c>
+      <c r="W46">
+        <v>2.8497663078738298</v>
+      </c>
+      <c r="X46">
+        <v>2.8341987590136299</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -4184,25 +4916,40 @@
         <v>2.8444266101159399</v>
       </c>
       <c r="N47">
+        <v>3.1947265630000001</v>
+      </c>
+      <c r="O47">
         <v>2.9259587264603701</v>
       </c>
-      <c r="O47">
+      <c r="P47">
         <v>3.0427085280763499</v>
       </c>
-      <c r="P47">
+      <c r="Q47">
         <v>2.78262641976902</v>
       </c>
-      <c r="Q47">
+      <c r="R47">
         <v>2.8533525888434301</v>
       </c>
-      <c r="R47">
+      <c r="S47">
         <v>3.00154528872471</v>
       </c>
-      <c r="S47">
+      <c r="T47">
         <v>2.9139261319537</v>
       </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U47">
+        <v>2.8464310205818202</v>
+      </c>
+      <c r="V47">
+        <v>2.8536177331738402</v>
+      </c>
+      <c r="W47">
+        <v>3.00154528872471</v>
+      </c>
+      <c r="X47">
+        <v>2.7966370176947102</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -4243,25 +4990,40 @@
         <v>2.84557623761803</v>
       </c>
       <c r="N48">
+        <v>2.884765625</v>
+      </c>
+      <c r="O48">
         <v>2.8447350394854598</v>
       </c>
-      <c r="O48">
+      <c r="P48">
         <v>2.87564830340032</v>
       </c>
-      <c r="P48">
+      <c r="Q48">
         <v>2.7934919319834299</v>
       </c>
-      <c r="Q48">
+      <c r="R48">
         <v>2.8455054723796298</v>
       </c>
-      <c r="R48">
+      <c r="S48">
         <v>2.8365279055144699</v>
       </c>
-      <c r="S48">
+      <c r="T48">
         <v>2.8447350394854598</v>
       </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U48">
+        <v>2.8472184884841698</v>
+      </c>
+      <c r="V48">
+        <v>2.8630015805685001</v>
+      </c>
+      <c r="W48">
+        <v>2.8365279055144699</v>
+      </c>
+      <c r="X48">
+        <v>2.8489113424813599</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -4302,25 +5064,40 @@
         <v>2.8442647738819602</v>
       </c>
       <c r="N49">
+        <v>2.7787109380000001</v>
+      </c>
+      <c r="O49">
         <v>2.85521692937537</v>
       </c>
-      <c r="O49">
+      <c r="P49">
         <v>2.7300927319885901</v>
       </c>
-      <c r="P49">
+      <c r="Q49">
         <v>2.82227611583503</v>
       </c>
-      <c r="Q49">
+      <c r="R49">
         <v>2.8366300936873001</v>
       </c>
-      <c r="R49">
+      <c r="S49">
         <v>2.91781840741633</v>
       </c>
-      <c r="S49">
+      <c r="T49">
         <v>2.85521692937537</v>
       </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U49">
+        <v>2.8490676745457799</v>
+      </c>
+      <c r="V49">
+        <v>2.8338542376729499</v>
+      </c>
+      <c r="W49">
+        <v>2.91781840741633</v>
+      </c>
+      <c r="X49">
+        <v>2.7741760054653599</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -4361,25 +5138,40 @@
         <v>2.8467468282717499</v>
       </c>
       <c r="N50">
+        <v>2.8751953129999999</v>
+      </c>
+      <c r="O50">
         <v>2.8703546042566601</v>
       </c>
-      <c r="O50">
+      <c r="P50">
         <v>2.9010328741818801</v>
       </c>
-      <c r="P50">
+      <c r="Q50">
         <v>2.8445470039646099</v>
       </c>
-      <c r="Q50">
+      <c r="R50">
         <v>2.84576885389348</v>
       </c>
-      <c r="R50">
+      <c r="S50">
         <v>2.8411721268225998</v>
       </c>
-      <c r="S50">
+      <c r="T50">
         <v>2.8447350394854598</v>
       </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U50">
+        <v>2.8488833943160099</v>
+      </c>
+      <c r="V50">
+        <v>2.8493497550390101</v>
+      </c>
+      <c r="W50">
+        <v>2.8411721268225998</v>
+      </c>
+      <c r="X50">
+        <v>2.8485449706969699</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -4420,25 +5212,40 @@
         <v>2.8454558682412898</v>
       </c>
       <c r="N51">
-        <v>2.9064877181398998</v>
+        <v>2.84</v>
       </c>
       <c r="O51">
         <v>2.9064877181398998</v>
       </c>
       <c r="P51">
+        <v>2.9064877181398998</v>
+      </c>
+      <c r="Q51">
         <v>2.8006610492553601</v>
       </c>
-      <c r="Q51">
+      <c r="R51">
         <v>2.8356028378197902</v>
       </c>
-      <c r="R51">
+      <c r="S51">
         <v>3.0036201851523598</v>
       </c>
-      <c r="S51">
+      <c r="T51">
         <v>2.8896284331466902</v>
       </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U51">
+        <v>2.8451825528128998</v>
+      </c>
+      <c r="V51">
+        <v>2.84014526914582</v>
+      </c>
+      <c r="W51">
+        <v>3.0036201851523598</v>
+      </c>
+      <c r="X51">
+        <v>2.8281919292472799</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -4479,25 +5286,40 @@
         <v>2.8471795670649098</v>
       </c>
       <c r="N52">
+        <v>2.8728515630000002</v>
+      </c>
+      <c r="O52">
         <v>2.89071504320217</v>
       </c>
-      <c r="O52">
+      <c r="P52">
         <v>2.83541474729698</v>
       </c>
-      <c r="P52">
+      <c r="Q52">
         <v>2.8718199750947102</v>
       </c>
-      <c r="Q52">
+      <c r="R52">
         <v>2.8606539172876402</v>
       </c>
-      <c r="R52">
+      <c r="S52">
         <v>2.83824941381893</v>
       </c>
-      <c r="S52">
+      <c r="T52">
         <v>2.89071504320217</v>
       </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U52">
+        <v>2.8478510172029701</v>
+      </c>
+      <c r="V52">
+        <v>2.85863270910454</v>
+      </c>
+      <c r="W52">
+        <v>2.83824941381893</v>
+      </c>
+      <c r="X52">
+        <v>2.88911159058005</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -4538,25 +5360,40 @@
         <v>2.8456250365360201</v>
       </c>
       <c r="N53">
+        <v>2.8464843750000002</v>
+      </c>
+      <c r="O53">
         <v>3.0460436680871998</v>
       </c>
-      <c r="O53">
+      <c r="P53">
         <v>2.8580685822449401</v>
       </c>
-      <c r="P53">
+      <c r="Q53">
         <v>2.79424044983273</v>
       </c>
-      <c r="Q53">
+      <c r="R53">
         <v>2.8398436630013699</v>
       </c>
-      <c r="R53">
+      <c r="S53">
         <v>2.8372653688445402</v>
       </c>
-      <c r="S53">
+      <c r="T53">
         <v>3.0460436680871998</v>
       </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U53">
+        <v>2.84521412262206</v>
+      </c>
+      <c r="V53">
+        <v>2.8496265926682001</v>
+      </c>
+      <c r="W53">
+        <v>2.8372653688445402</v>
+      </c>
+      <c r="X53">
+        <v>2.9106895200940199</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -4597,25 +5434,40 @@
         <v>2.8463559167784598</v>
       </c>
       <c r="N54">
+        <v>2.9328124999999998</v>
+      </c>
+      <c r="O54">
         <v>2.8545574539554099</v>
       </c>
-      <c r="O54">
+      <c r="P54">
         <v>2.8402910077139398</v>
       </c>
-      <c r="P54">
+      <c r="Q54">
         <v>2.8454549722937599</v>
       </c>
-      <c r="Q54">
+      <c r="R54">
         <v>2.8418921218557802</v>
       </c>
-      <c r="R54">
+      <c r="S54">
         <v>2.8175341206225299</v>
       </c>
-      <c r="S54">
+      <c r="T54">
         <v>2.9285941049667401</v>
       </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U54">
+        <v>2.84600213157219</v>
+      </c>
+      <c r="V54">
+        <v>2.8394773071769701</v>
+      </c>
+      <c r="W54">
+        <v>2.8175341206225299</v>
+      </c>
+      <c r="X54">
+        <v>2.9142694478932998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -4656,25 +5508,40 @@
         <v>2.84678400199356</v>
       </c>
       <c r="N55">
-        <v>2.9646981112844699</v>
+        <v>2.84</v>
       </c>
       <c r="O55">
         <v>2.9646981112844699</v>
       </c>
       <c r="P55">
+        <v>2.9646981112844699</v>
+      </c>
+      <c r="Q55">
         <v>2.8904766973531602</v>
       </c>
-      <c r="Q55">
+      <c r="R55">
         <v>2.8500913768767999</v>
       </c>
-      <c r="R55">
+      <c r="S55">
         <v>2.92529236020673</v>
       </c>
-      <c r="S55">
+      <c r="T55">
         <v>2.8296740945671299</v>
       </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U55">
+        <v>2.8443376806246801</v>
+      </c>
+      <c r="V55">
+        <v>2.8614737699222599</v>
+      </c>
+      <c r="W55">
+        <v>2.92529236020673</v>
+      </c>
+      <c r="X55">
+        <v>2.7756200400191702</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -4715,25 +5582,40 @@
         <v>2.8469151622947</v>
       </c>
       <c r="N56">
+        <v>2.9392578130000002</v>
+      </c>
+      <c r="O56">
         <v>2.8749131121989602</v>
       </c>
-      <c r="O56">
+      <c r="P56">
         <v>2.8772647439732402</v>
       </c>
-      <c r="P56">
+      <c r="Q56">
         <v>2.8400676658289901</v>
       </c>
-      <c r="Q56">
+      <c r="R56">
         <v>2.8431869345473002</v>
       </c>
-      <c r="R56">
+      <c r="S56">
         <v>2.9316562716602701</v>
       </c>
-      <c r="S56">
+      <c r="T56">
         <v>2.8749131121989602</v>
       </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U56">
+        <v>2.8465510574507702</v>
+      </c>
+      <c r="V56">
+        <v>2.8440695257511899</v>
+      </c>
+      <c r="W56">
+        <v>2.9316562716602701</v>
+      </c>
+      <c r="X56">
+        <v>2.7596460057148602</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -4774,25 +5656,40 @@
         <v>2.8469996906964701</v>
       </c>
       <c r="N57">
-        <v>2.9310431950441198</v>
+        <v>3.0242187500000002</v>
       </c>
       <c r="O57">
         <v>2.9310431950441198</v>
       </c>
       <c r="P57">
+        <v>2.9310431950441198</v>
+      </c>
+      <c r="Q57">
         <v>2.9546721753823699</v>
       </c>
-      <c r="Q57">
+      <c r="R57">
         <v>2.8504653682706098</v>
       </c>
-      <c r="R57">
+      <c r="S57">
         <v>2.8689441270066398</v>
       </c>
-      <c r="S57">
+      <c r="T57">
         <v>2.8997301099405299</v>
       </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U57">
+        <v>2.8456727294386499</v>
+      </c>
+      <c r="V57">
+        <v>2.8446774690757302</v>
+      </c>
+      <c r="W57">
+        <v>2.8689441270066398</v>
+      </c>
+      <c r="X57">
+        <v>2.84272451977164</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -4833,25 +5730,40 @@
         <v>2.8453411293261199</v>
       </c>
       <c r="N58">
+        <v>2.6462890630000002</v>
+      </c>
+      <c r="O58">
         <v>3.0129987026066498</v>
       </c>
-      <c r="O58">
+      <c r="P58">
         <v>2.8272471557020502</v>
       </c>
-      <c r="P58">
+      <c r="Q58">
         <v>2.8995849732560202</v>
       </c>
-      <c r="Q58">
+      <c r="R58">
         <v>2.85049218078175</v>
       </c>
-      <c r="R58">
+      <c r="S58">
         <v>2.81200954111242</v>
       </c>
-      <c r="S58">
+      <c r="T58">
         <v>3.0445120285406602</v>
       </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U58">
+        <v>2.8455525248981699</v>
+      </c>
+      <c r="V58">
+        <v>2.8453431066566499</v>
+      </c>
+      <c r="W58">
+        <v>2.81200954111242</v>
+      </c>
+      <c r="X58">
+        <v>2.9031683181168302</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -4892,25 +5804,40 @@
         <v>2.8448201793493202</v>
       </c>
       <c r="N59">
+        <v>2.832617188</v>
+      </c>
+      <c r="O59">
         <v>2.9443538837179202</v>
       </c>
-      <c r="O59">
+      <c r="P59">
         <v>2.83461096103792</v>
       </c>
-      <c r="P59">
+      <c r="Q59">
         <v>2.8495481492964099</v>
       </c>
-      <c r="Q59">
+      <c r="R59">
         <v>2.8419034759941599</v>
       </c>
-      <c r="R59">
+      <c r="S59">
         <v>2.8664801670053301</v>
       </c>
-      <c r="S59">
+      <c r="T59">
         <v>2.8575734286701802</v>
       </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U59">
+        <v>2.8456480367780301</v>
+      </c>
+      <c r="V59">
+        <v>2.8359626876379198</v>
+      </c>
+      <c r="W59">
+        <v>2.8664801670053301</v>
+      </c>
+      <c r="X59">
+        <v>2.8905736315354802</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -4951,25 +5878,40 @@
         <v>2.84696058408844</v>
       </c>
       <c r="N60">
+        <v>2.671875</v>
+      </c>
+      <c r="O60">
         <v>3.0490748042304499</v>
       </c>
-      <c r="O60">
+      <c r="P60">
         <v>2.78220091435991</v>
       </c>
-      <c r="P60">
+      <c r="Q60">
         <v>2.92514623766793</v>
       </c>
-      <c r="Q60">
+      <c r="R60">
         <v>2.8448351173897701</v>
       </c>
-      <c r="R60">
+      <c r="S60">
         <v>2.76804695115064</v>
       </c>
-      <c r="S60">
+      <c r="T60">
         <v>3.0490748042304499</v>
       </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U60">
+        <v>2.8460842979384902</v>
+      </c>
+      <c r="V60">
+        <v>2.8521650839560699</v>
+      </c>
+      <c r="W60">
+        <v>2.76804695115064</v>
+      </c>
+      <c r="X60">
+        <v>2.9920546010215499</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -5010,25 +5952,40 @@
         <v>2.8452197461345401</v>
       </c>
       <c r="N61">
+        <v>2.854492188</v>
+      </c>
+      <c r="O61">
         <v>2.7308365955222098</v>
       </c>
-      <c r="O61">
+      <c r="P61">
         <v>2.8108234030735999</v>
       </c>
-      <c r="P61">
+      <c r="Q61">
         <v>2.7525392584021402</v>
       </c>
-      <c r="Q61">
+      <c r="R61">
         <v>2.7988468302995799</v>
       </c>
-      <c r="R61">
+      <c r="S61">
         <v>2.8110108369615601</v>
       </c>
-      <c r="S61">
+      <c r="T61">
         <v>2.7291448438071901</v>
       </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U61">
+        <v>2.8457889258990301</v>
+      </c>
+      <c r="V61">
+        <v>2.82093115840896</v>
+      </c>
+      <c r="W61">
+        <v>2.8110108369615601</v>
+      </c>
+      <c r="X61">
+        <v>2.7680314350418702</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -5069,25 +6026,40 @@
         <v>2.8447696751406801</v>
       </c>
       <c r="N62">
+        <v>2.6931640630000002</v>
+      </c>
+      <c r="O62">
         <v>2.8664229635860101</v>
       </c>
-      <c r="O62">
+      <c r="P62">
         <v>2.8511434531169999</v>
       </c>
-      <c r="P62">
+      <c r="Q62">
         <v>2.9448604785566701</v>
       </c>
-      <c r="Q62">
+      <c r="R62">
         <v>2.8433968013800199</v>
       </c>
-      <c r="R62">
+      <c r="S62">
         <v>2.8206070517604398</v>
       </c>
-      <c r="S62">
+      <c r="T62">
         <v>2.8664229635860101</v>
       </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U62">
+        <v>2.8457229991649702</v>
+      </c>
+      <c r="V62">
+        <v>2.8404408505294101</v>
+      </c>
+      <c r="W62">
+        <v>2.8206070517604398</v>
+      </c>
+      <c r="X62">
+        <v>2.9075773614771099</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -5128,25 +6100,40 @@
         <v>2.8467898702375298</v>
       </c>
       <c r="N63">
+        <v>2.9058593749999999</v>
+      </c>
+      <c r="O63">
         <v>2.90410672592167</v>
       </c>
-      <c r="O63">
+      <c r="P63">
         <v>2.8337382690744501</v>
       </c>
-      <c r="P63">
+      <c r="Q63">
         <v>2.8699288257819799</v>
       </c>
-      <c r="Q63">
+      <c r="R63">
         <v>2.8458317263807502</v>
       </c>
-      <c r="R63">
+      <c r="S63">
         <v>2.8180200999441598</v>
       </c>
-      <c r="S63">
+      <c r="T63">
         <v>2.8862245967101798</v>
       </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U63">
+        <v>2.8451667609558502</v>
+      </c>
+      <c r="V63">
+        <v>2.8422951507143202</v>
+      </c>
+      <c r="W63">
+        <v>2.8180200999441598</v>
+      </c>
+      <c r="X63">
+        <v>2.9349228055485099</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -5187,25 +6174,40 @@
         <v>2.8460136533921201</v>
       </c>
       <c r="N64">
+        <v>2.7074218750000001</v>
+      </c>
+      <c r="O64">
         <v>2.9357349560269501</v>
       </c>
-      <c r="O64">
+      <c r="P64">
         <v>2.7855068028611001</v>
       </c>
-      <c r="P64">
+      <c r="Q64">
         <v>2.8541486962053799</v>
       </c>
-      <c r="Q64">
+      <c r="R64">
         <v>2.8396827391530199</v>
       </c>
-      <c r="R64">
+      <c r="S64">
         <v>2.7928041965398198</v>
       </c>
-      <c r="S64">
+      <c r="T64">
         <v>2.9357349560269501</v>
       </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U64">
+        <v>2.8460981058649399</v>
+      </c>
+      <c r="V64">
+        <v>2.84937643845773</v>
+      </c>
+      <c r="W64">
+        <v>2.7928041965398198</v>
+      </c>
+      <c r="X64">
+        <v>2.8882281980814501</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -5246,25 +6248,40 @@
         <v>2.8467692233398298</v>
       </c>
       <c r="N65">
+        <v>3.05859375</v>
+      </c>
+      <c r="O65">
         <v>2.8993250790239302</v>
       </c>
-      <c r="O65">
+      <c r="P65">
         <v>2.8372113521937998</v>
       </c>
-      <c r="P65">
+      <c r="Q65">
         <v>2.8984870916674401</v>
       </c>
-      <c r="Q65">
+      <c r="R65">
         <v>2.8601196465513601</v>
       </c>
-      <c r="R65">
+      <c r="S65">
         <v>2.8613176257795798</v>
       </c>
-      <c r="S65">
+      <c r="T65">
         <v>2.8931017956334402</v>
       </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U65">
+        <v>2.8452527958755001</v>
+      </c>
+      <c r="V65">
+        <v>2.8694810809363802</v>
+      </c>
+      <c r="W65">
+        <v>2.8613176257795798</v>
+      </c>
+      <c r="X65">
+        <v>2.9339573839057902</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -5305,25 +6322,40 @@
         <v>2.84585049272347</v>
       </c>
       <c r="N66">
+        <v>2.7843749999999998</v>
+      </c>
+      <c r="O66">
         <v>2.80487815176487</v>
       </c>
-      <c r="O66">
+      <c r="P66">
         <v>2.80485931249952</v>
       </c>
-      <c r="P66">
+      <c r="Q66">
         <v>2.8140708856445502</v>
       </c>
-      <c r="Q66">
+      <c r="R66">
         <v>2.8388310180401199</v>
       </c>
-      <c r="R66">
+      <c r="S66">
         <v>2.80667307070539</v>
       </c>
-      <c r="S66">
+      <c r="T66">
         <v>2.80487815176487</v>
       </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U66">
+        <v>2.8463036255298899</v>
+      </c>
+      <c r="V66">
+        <v>2.8214916038104199</v>
+      </c>
+      <c r="W66">
+        <v>2.80667307070539</v>
+      </c>
+      <c r="X66">
+        <v>2.8995544606108399</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -5364,25 +6396,40 @@
         <v>2.8481977363386801</v>
       </c>
       <c r="N67">
+        <v>2.8039062499999998</v>
+      </c>
+      <c r="O67">
         <v>2.8658311016549498</v>
       </c>
-      <c r="O67">
+      <c r="P67">
         <v>2.8399364926258701</v>
       </c>
-      <c r="P67">
+      <c r="Q67">
         <v>2.8135894321978099</v>
       </c>
-      <c r="Q67">
+      <c r="R67">
         <v>2.8254543083530002</v>
       </c>
-      <c r="R67">
+      <c r="S67">
         <v>2.8236486465862201</v>
       </c>
-      <c r="S67">
+      <c r="T67">
         <v>2.9358686884126501</v>
       </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U67">
+        <v>2.8462233694416099</v>
+      </c>
+      <c r="V67">
+        <v>2.8742541749838799</v>
+      </c>
+      <c r="W67">
+        <v>2.8236486465862201</v>
+      </c>
+      <c r="X67">
+        <v>2.8904148969886201</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -5423,25 +6470,40 @@
         <v>2.8465582895049302</v>
       </c>
       <c r="N68">
+        <v>2.7689453130000001</v>
+      </c>
+      <c r="O68">
         <v>2.9019456383863802</v>
       </c>
-      <c r="O68">
+      <c r="P68">
         <v>2.8385292157437498</v>
       </c>
-      <c r="P68">
+      <c r="Q68">
         <v>2.8204487068753101</v>
       </c>
-      <c r="Q68">
+      <c r="R68">
         <v>2.8652993554622599</v>
       </c>
-      <c r="R68">
+      <c r="S68">
         <v>2.8500812575848302</v>
       </c>
-      <c r="S68">
+      <c r="T68">
         <v>2.9335113235963801</v>
       </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U68">
+        <v>2.8464825881146099</v>
+      </c>
+      <c r="V68">
+        <v>2.8719425943748398</v>
+      </c>
+      <c r="W68">
+        <v>2.8500812575848302</v>
+      </c>
+      <c r="X68">
+        <v>2.8927452259133202</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -5482,25 +6544,40 @@
         <v>2.8453192998764001</v>
       </c>
       <c r="N69">
+        <v>2.9874999999999998</v>
+      </c>
+      <c r="O69">
         <v>3.0733787380464102</v>
       </c>
-      <c r="O69">
+      <c r="P69">
         <v>2.8311738699492</v>
       </c>
-      <c r="P69">
+      <c r="Q69">
         <v>2.9340170783383202</v>
       </c>
-      <c r="Q69">
+      <c r="R69">
         <v>2.8788415490441501</v>
       </c>
-      <c r="R69">
+      <c r="S69">
         <v>2.8783017377226701</v>
       </c>
-      <c r="S69">
+      <c r="T69">
         <v>3.0733787380464102</v>
       </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U69">
+        <v>2.8453772440409599</v>
+      </c>
+      <c r="V69">
+        <v>2.86867907061086</v>
+      </c>
+      <c r="W69">
+        <v>2.8783017377226701</v>
+      </c>
+      <c r="X69">
+        <v>3.1486214464703002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -5541,25 +6618,40 @@
         <v>2.84751359771382</v>
       </c>
       <c r="N70">
+        <v>2.7513671880000001</v>
+      </c>
+      <c r="O70">
         <v>2.6944401005719598</v>
       </c>
-      <c r="O70">
+      <c r="P70">
         <v>2.7925281564327702</v>
       </c>
-      <c r="P70">
+      <c r="Q70">
         <v>2.6936480753453602</v>
       </c>
-      <c r="Q70">
+      <c r="R70">
         <v>2.7273894274783199</v>
       </c>
-      <c r="R70">
+      <c r="S70">
         <v>2.8200944955520599</v>
       </c>
-      <c r="S70">
+      <c r="T70">
         <v>2.6944401005719598</v>
       </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U70">
+        <v>2.8456937311095301</v>
+      </c>
+      <c r="V70">
+        <v>2.7159273024511501</v>
+      </c>
+      <c r="W70">
+        <v>2.8200944955520599</v>
+      </c>
+      <c r="X70">
+        <v>2.6817255808071301</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -5600,25 +6692,40 @@
         <v>2.8462274995833301</v>
       </c>
       <c r="N71">
+        <v>2.919921875</v>
+      </c>
+      <c r="O71">
         <v>2.8933806212462598</v>
       </c>
-      <c r="O71">
+      <c r="P71">
         <v>2.8592515125608</v>
       </c>
-      <c r="P71">
+      <c r="Q71">
         <v>2.8756986505938098</v>
       </c>
-      <c r="Q71">
+      <c r="R71">
         <v>2.8380389914215698</v>
       </c>
-      <c r="R71">
+      <c r="S71">
         <v>2.8355517036804598</v>
       </c>
-      <c r="S71">
+      <c r="T71">
         <v>2.8933806212462598</v>
       </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U71">
+        <v>2.8461670644954702</v>
+      </c>
+      <c r="V71">
+        <v>2.84307930650834</v>
+      </c>
+      <c r="W71">
+        <v>2.8355517036804598</v>
+      </c>
+      <c r="X71">
+        <v>2.9452776614637401</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -5659,25 +6766,40 @@
         <v>2.8442438276941999</v>
       </c>
       <c r="N72">
+        <v>2.8998046880000001</v>
+      </c>
+      <c r="O72">
         <v>2.8385779538658702</v>
       </c>
-      <c r="O72">
+      <c r="P72">
         <v>2.6465776140321902</v>
       </c>
-      <c r="P72">
+      <c r="Q72">
         <v>2.8337224407476702</v>
       </c>
-      <c r="Q72">
+      <c r="R72">
         <v>2.8304312118439601</v>
       </c>
-      <c r="R72">
+      <c r="S72">
         <v>2.7590490220120398</v>
       </c>
-      <c r="S72">
+      <c r="T72">
         <v>2.9010974863212899</v>
       </c>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U72">
+        <v>2.8446262072102901</v>
+      </c>
+      <c r="V72">
+        <v>2.8412124206723299</v>
+      </c>
+      <c r="W72">
+        <v>2.7590490220120398</v>
+      </c>
+      <c r="X72">
+        <v>2.8462370108155199</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -5718,25 +6840,40 @@
         <v>2.8461047159030799</v>
       </c>
       <c r="N73">
+        <v>2.7542968750000001</v>
+      </c>
+      <c r="O73">
         <v>2.8836716660355202</v>
       </c>
-      <c r="O73">
+      <c r="P73">
         <v>2.8491338212206099</v>
       </c>
-      <c r="P73">
+      <c r="Q73">
         <v>2.8308362570191399</v>
       </c>
-      <c r="Q73">
+      <c r="R73">
         <v>2.84084827736182</v>
       </c>
-      <c r="R73">
+      <c r="S73">
         <v>2.8414312647159798</v>
       </c>
-      <c r="S73">
+      <c r="T73">
         <v>2.8930974545684598</v>
       </c>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U73">
+        <v>2.8445688725050799</v>
+      </c>
+      <c r="V73">
+        <v>2.8455177667793001</v>
+      </c>
+      <c r="W73">
+        <v>2.8414312647159798</v>
+      </c>
+      <c r="X73">
+        <v>2.8092275986420998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -5777,25 +6914,40 @@
         <v>2.8459302268589299</v>
       </c>
       <c r="N74">
+        <v>3</v>
+      </c>
+      <c r="O74">
         <v>2.9242842685382402</v>
       </c>
-      <c r="O74">
+      <c r="P74">
         <v>2.90620919665156</v>
       </c>
-      <c r="P74">
+      <c r="Q74">
         <v>2.8626514153275999</v>
       </c>
-      <c r="Q74">
+      <c r="R74">
         <v>2.8372009088336001</v>
       </c>
-      <c r="R74">
+      <c r="S74">
         <v>2.8666302475641499</v>
       </c>
-      <c r="S74">
+      <c r="T74">
         <v>2.9411293941314698</v>
       </c>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U74">
+        <v>2.8456999908038298</v>
+      </c>
+      <c r="V74">
+        <v>2.8470087105514499</v>
+      </c>
+      <c r="W74">
+        <v>2.8666302475641499</v>
+      </c>
+      <c r="X74">
+        <v>2.8715267544244201</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -5836,25 +6988,40 @@
         <v>2.8475662998534998</v>
       </c>
       <c r="N75">
+        <v>2.8207031250000001</v>
+      </c>
+      <c r="O75">
         <v>2.7921214030945198</v>
       </c>
-      <c r="O75">
+      <c r="P75">
         <v>2.8339054178691301</v>
       </c>
-      <c r="P75">
+      <c r="Q75">
         <v>2.71228161776143</v>
       </c>
-      <c r="Q75">
+      <c r="R75">
         <v>2.8307989556964102</v>
       </c>
-      <c r="R75">
+      <c r="S75">
         <v>2.8435252385898702</v>
       </c>
-      <c r="S75">
+      <c r="T75">
         <v>2.8044258561002802</v>
       </c>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U75">
+        <v>2.8455906703171299</v>
+      </c>
+      <c r="V75">
+        <v>2.8374895725554801</v>
+      </c>
+      <c r="W75">
+        <v>2.8435252385898702</v>
+      </c>
+      <c r="X75">
+        <v>2.77391038254585</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -5895,25 +7062,40 @@
         <v>2.8464676229840302</v>
       </c>
       <c r="N76">
+        <v>2.9285156250000002</v>
+      </c>
+      <c r="O76">
         <v>2.9026809972641399</v>
       </c>
-      <c r="O76">
+      <c r="P76">
         <v>2.8380976439590899</v>
       </c>
-      <c r="P76">
+      <c r="Q76">
         <v>2.90672666992428</v>
       </c>
-      <c r="Q76">
+      <c r="R76">
         <v>2.84760889129047</v>
       </c>
-      <c r="R76">
+      <c r="S76">
         <v>2.8443975966447801</v>
       </c>
-      <c r="S76">
+      <c r="T76">
         <v>2.9433355740707601</v>
       </c>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U76">
+        <v>2.8479621041484</v>
+      </c>
+      <c r="V76">
+        <v>2.85232912786427</v>
+      </c>
+      <c r="W76">
+        <v>2.8443975966447801</v>
+      </c>
+      <c r="X76">
+        <v>2.83228582478529</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -5954,25 +7136,40 @@
         <v>2.8439797098369701</v>
       </c>
       <c r="N77">
+        <v>2.875585938</v>
+      </c>
+      <c r="O77">
         <v>2.8454072270658699</v>
       </c>
-      <c r="O77">
+      <c r="P77">
         <v>2.8600547657985298</v>
       </c>
-      <c r="P77">
+      <c r="Q77">
         <v>2.8125211032662101</v>
       </c>
-      <c r="Q77">
+      <c r="R77">
         <v>2.8351527919786399</v>
       </c>
-      <c r="R77">
+      <c r="S77">
         <v>2.8731171250525902</v>
       </c>
-      <c r="S77">
+      <c r="T77">
         <v>2.7563118531272699</v>
       </c>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U77">
+        <v>2.84487185446388</v>
+      </c>
+      <c r="V77">
+        <v>2.84286325956039</v>
+      </c>
+      <c r="W77">
+        <v>2.8731171250525902</v>
+      </c>
+      <c r="X77">
+        <v>2.8846044940622702</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -6013,25 +7210,40 @@
         <v>2.8457861102540098</v>
       </c>
       <c r="N78">
-        <v>2.7430295859666698</v>
+        <v>2.6265624999999999</v>
       </c>
       <c r="O78">
         <v>2.7430295859666698</v>
       </c>
       <c r="P78">
+        <v>2.7430295859666698</v>
+      </c>
+      <c r="Q78">
         <v>2.8735657897386599</v>
       </c>
-      <c r="Q78">
+      <c r="R78">
         <v>2.83322864048968</v>
       </c>
-      <c r="R78">
+      <c r="S78">
         <v>2.7791446085103302</v>
       </c>
-      <c r="S78">
+      <c r="T78">
         <v>2.6502295328028902</v>
       </c>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U78">
+        <v>2.8447534875278899</v>
+      </c>
+      <c r="V78">
+        <v>2.8416713402634701</v>
+      </c>
+      <c r="W78">
+        <v>2.7791446085103302</v>
+      </c>
+      <c r="X78">
+        <v>2.7486226408926302</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -6072,25 +7284,40 @@
         <v>2.8451465344830802</v>
       </c>
       <c r="N79">
+        <v>2.9210937499999998</v>
+      </c>
+      <c r="O79">
         <v>2.7899579773850798</v>
       </c>
-      <c r="O79">
+      <c r="P79">
         <v>2.82717737515227</v>
       </c>
-      <c r="P79">
+      <c r="Q79">
         <v>2.78555812013265</v>
       </c>
-      <c r="Q79">
+      <c r="R79">
         <v>2.8198267262271099</v>
       </c>
-      <c r="R79">
+      <c r="S79">
         <v>2.8350603468840498</v>
       </c>
-      <c r="S79">
+      <c r="T79">
         <v>2.7650304349110901</v>
       </c>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U79">
+        <v>2.84533439600157</v>
+      </c>
+      <c r="V79">
+        <v>2.8396739153274999</v>
+      </c>
+      <c r="W79">
+        <v>2.8350603468840498</v>
+      </c>
+      <c r="X79">
+        <v>2.70922728500681</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -6131,25 +7358,40 @@
         <v>2.8462854990044999</v>
       </c>
       <c r="N80">
+        <v>2.9750000000000001</v>
+      </c>
+      <c r="O80">
         <v>2.9669988694309501</v>
       </c>
-      <c r="O80">
+      <c r="P80">
         <v>2.84074968557643</v>
       </c>
-      <c r="P80">
+      <c r="Q80">
         <v>2.8745834986907099</v>
       </c>
-      <c r="Q80">
+      <c r="R80">
         <v>2.8582405625206202</v>
       </c>
-      <c r="R80">
+      <c r="S80">
         <v>2.8726277741597199</v>
       </c>
-      <c r="S80">
+      <c r="T80">
         <v>3.00161826541322</v>
       </c>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U80">
+        <v>2.8469484231369999</v>
+      </c>
+      <c r="V80">
+        <v>2.86044107050231</v>
+      </c>
+      <c r="W80">
+        <v>2.8726277741597199</v>
+      </c>
+      <c r="X80">
+        <v>2.9975788694193799</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -6190,25 +7432,40 @@
         <v>2.8471845996876999</v>
       </c>
       <c r="N81">
+        <v>2.8445312500000002</v>
+      </c>
+      <c r="O81">
         <v>3.0029146915937801</v>
       </c>
-      <c r="O81">
+      <c r="P81">
         <v>2.98361890673449</v>
       </c>
-      <c r="P81">
+      <c r="Q81">
         <v>2.8733219525787899</v>
       </c>
-      <c r="Q81">
+      <c r="R81">
         <v>2.8509834544969399</v>
       </c>
-      <c r="R81">
+      <c r="S81">
         <v>2.8890028792121099</v>
       </c>
-      <c r="S81">
+      <c r="T81">
         <v>2.97441000807197</v>
       </c>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U81">
+        <v>2.8470680477351902</v>
+      </c>
+      <c r="V81">
+        <v>2.8587089078207399</v>
+      </c>
+      <c r="W81">
+        <v>2.8890028792121099</v>
+      </c>
+      <c r="X81">
+        <v>2.93185907094988</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -6249,25 +7506,40 @@
         <v>2.8466308761069099</v>
       </c>
       <c r="N82">
+        <v>2.9177734380000002</v>
+      </c>
+      <c r="O82">
         <v>3.04133988973738</v>
       </c>
-      <c r="O82">
+      <c r="P82">
         <v>2.8125094751619999</v>
       </c>
-      <c r="P82">
+      <c r="Q82">
         <v>2.8358505163879602</v>
       </c>
-      <c r="Q82">
+      <c r="R82">
         <v>2.8366165420564702</v>
       </c>
-      <c r="R82">
+      <c r="S82">
         <v>2.8361557959901398</v>
       </c>
-      <c r="S82">
+      <c r="T82">
         <v>2.9247766231073</v>
       </c>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U82">
+        <v>2.84662642211793</v>
+      </c>
+      <c r="V82">
+        <v>2.8521694672961999</v>
+      </c>
+      <c r="W82">
+        <v>2.8361557959901398</v>
+      </c>
+      <c r="X82">
+        <v>3.0724978181842801</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -6308,25 +7580,40 @@
         <v>2.8455600292449899</v>
       </c>
       <c r="N83">
+        <v>2.9097656249999999</v>
+      </c>
+      <c r="O83">
         <v>2.99273721093709</v>
       </c>
-      <c r="O83">
+      <c r="P83">
         <v>2.8456778077270402</v>
       </c>
-      <c r="P83">
+      <c r="Q83">
         <v>2.8165610369115801</v>
       </c>
-      <c r="Q83">
+      <c r="R83">
         <v>2.8562221047388801</v>
       </c>
-      <c r="R83">
+      <c r="S83">
         <v>2.8650210056197101</v>
       </c>
-      <c r="S83">
+      <c r="T83">
         <v>2.99273721093709</v>
       </c>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U83">
+        <v>2.8455391120034399</v>
+      </c>
+      <c r="V83">
+        <v>2.8597166507690801</v>
+      </c>
+      <c r="W83">
+        <v>2.8650210056197101</v>
+      </c>
+      <c r="X83">
+        <v>2.8840714183212399</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -6367,25 +7654,40 @@
         <v>2.8471965602965601</v>
       </c>
       <c r="N84">
+        <v>2.745117188</v>
+      </c>
+      <c r="O84">
         <v>2.8845258579137099</v>
       </c>
-      <c r="O84">
+      <c r="P84">
         <v>2.81585323544323</v>
       </c>
-      <c r="P84">
+      <c r="Q84">
         <v>2.7181053325975002</v>
       </c>
-      <c r="Q84">
+      <c r="R84">
         <v>2.77852391473593</v>
       </c>
-      <c r="R84">
+      <c r="S84">
         <v>2.8258164228067399</v>
       </c>
-      <c r="S84">
+      <c r="T84">
         <v>2.8601329503878699</v>
       </c>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U84">
+        <v>2.8485090816859602</v>
+      </c>
+      <c r="V84">
+        <v>2.7895198847173801</v>
+      </c>
+      <c r="W84">
+        <v>2.8258164228067399</v>
+      </c>
+      <c r="X84">
+        <v>2.8744667877994399</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -6426,25 +7728,40 @@
         <v>2.8467036446010998</v>
       </c>
       <c r="N85">
+        <v>2.7199218749999998</v>
+      </c>
+      <c r="O85">
         <v>2.8402794988412601</v>
       </c>
-      <c r="O85">
+      <c r="P85">
         <v>2.7958463216060099</v>
       </c>
-      <c r="P85">
+      <c r="Q85">
         <v>2.6634572225799902</v>
       </c>
-      <c r="Q85">
+      <c r="R85">
         <v>2.7793430138680302</v>
       </c>
-      <c r="R85">
+      <c r="S85">
         <v>2.8202676296651799</v>
       </c>
-      <c r="S85">
+      <c r="T85">
         <v>2.8200584540209399</v>
       </c>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U85">
+        <v>2.84789495023495</v>
+      </c>
+      <c r="V85">
+        <v>2.7761920389121002</v>
+      </c>
+      <c r="W85">
+        <v>2.8202676296651799</v>
+      </c>
+      <c r="X85">
+        <v>2.7169059916866498</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -6485,25 +7802,40 @@
         <v>2.84709956727716</v>
       </c>
       <c r="N86">
+        <v>2.8929687500000001</v>
+      </c>
+      <c r="O86">
         <v>2.8806310195483</v>
       </c>
-      <c r="O86">
+      <c r="P86">
         <v>2.83246576356319</v>
       </c>
-      <c r="P86">
+      <c r="Q86">
         <v>2.8617887036150398</v>
       </c>
-      <c r="Q86">
+      <c r="R86">
         <v>2.8639791648334199</v>
       </c>
-      <c r="R86">
+      <c r="S86">
         <v>2.8330039664142501</v>
       </c>
-      <c r="S86">
+      <c r="T86">
         <v>2.80672229176536</v>
       </c>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U86">
+        <v>2.8450971372832798</v>
+      </c>
+      <c r="V86">
+        <v>2.8726400081605501</v>
+      </c>
+      <c r="W86">
+        <v>2.8330039664142501</v>
+      </c>
+      <c r="X86">
+        <v>2.86486828389019</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -6544,25 +7876,40 @@
         <v>2.84673463834479</v>
       </c>
       <c r="N87">
+        <v>2.779882813</v>
+      </c>
+      <c r="O87">
         <v>2.78568339598452</v>
       </c>
-      <c r="O87">
+      <c r="P87">
         <v>2.80868976155987</v>
       </c>
-      <c r="P87">
+      <c r="Q87">
         <v>2.7724160306560002</v>
       </c>
-      <c r="Q87">
+      <c r="R87">
         <v>2.8093399872339901</v>
       </c>
-      <c r="R87">
+      <c r="S87">
         <v>2.7881143257043699</v>
       </c>
-      <c r="S87">
+      <c r="T87">
         <v>2.78568339598452</v>
       </c>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U87">
+        <v>2.8451180483616301</v>
+      </c>
+      <c r="V87">
+        <v>2.8127399094104799</v>
+      </c>
+      <c r="W87">
+        <v>2.7881143257043699</v>
+      </c>
+      <c r="X87">
+        <v>2.7836378010511398</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -6603,25 +7950,40 @@
         <v>2.8454069979225598</v>
       </c>
       <c r="N88">
+        <v>2.7984374999999999</v>
+      </c>
+      <c r="O88">
         <v>2.9140730818962601</v>
       </c>
-      <c r="O88">
+      <c r="P88">
         <v>2.8286375674993098</v>
       </c>
-      <c r="P88">
+      <c r="Q88">
         <v>2.9699014207369898</v>
       </c>
-      <c r="Q88">
+      <c r="R88">
         <v>2.90279285634224</v>
       </c>
-      <c r="R88">
+      <c r="S88">
         <v>2.8187428495909002</v>
       </c>
-      <c r="S88">
+      <c r="T88">
         <v>2.7741503346602099</v>
       </c>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U88">
+        <v>2.84643153744448</v>
+      </c>
+      <c r="V88">
+        <v>2.8966441170379</v>
+      </c>
+      <c r="W88">
+        <v>2.8187428495909002</v>
+      </c>
+      <c r="X88">
+        <v>2.8483543070647799</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -6662,25 +8024,40 @@
         <v>2.8485755009190701</v>
       </c>
       <c r="N89">
+        <v>2.9535156250000001</v>
+      </c>
+      <c r="O89">
         <v>2.9584149547920902</v>
       </c>
-      <c r="O89">
+      <c r="P89">
         <v>2.9066271208241399</v>
       </c>
-      <c r="P89">
+      <c r="Q89">
         <v>2.9015647269560199</v>
       </c>
-      <c r="Q89">
+      <c r="R89">
         <v>2.8495760232628098</v>
       </c>
-      <c r="R89">
+      <c r="S89">
         <v>2.8566634933228601</v>
       </c>
-      <c r="S89">
+      <c r="T89">
         <v>2.9584131955510098</v>
       </c>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U89">
+        <v>2.8448983634897198</v>
+      </c>
+      <c r="V89">
+        <v>2.8502104773257</v>
+      </c>
+      <c r="W89">
+        <v>2.8566634933228601</v>
+      </c>
+      <c r="X89">
+        <v>2.8865615802450502</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -6721,25 +8098,40 @@
         <v>2.8467881163895101</v>
       </c>
       <c r="N90">
+        <v>2.889648438</v>
+      </c>
+      <c r="O90">
         <v>2.9198076150964001</v>
       </c>
-      <c r="O90">
+      <c r="P90">
         <v>2.8351558626677602</v>
       </c>
-      <c r="P90">
+      <c r="Q90">
         <v>2.8969859044200899</v>
       </c>
-      <c r="Q90">
+      <c r="R90">
         <v>2.8554007401069201</v>
       </c>
-      <c r="R90">
+      <c r="S90">
         <v>2.83599082931224</v>
       </c>
-      <c r="S90">
+      <c r="T90">
         <v>2.9533970803994398</v>
       </c>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U90">
+        <v>2.8479468453568599</v>
+      </c>
+      <c r="V90">
+        <v>2.8487742698438101</v>
+      </c>
+      <c r="W90">
+        <v>2.83599082931224</v>
+      </c>
+      <c r="X90">
+        <v>2.91377636423845</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -6780,25 +8172,40 @@
         <v>2.8447910853804701</v>
       </c>
       <c r="N91">
+        <v>2.799414063</v>
+      </c>
+      <c r="O91">
         <v>2.8386164179634799</v>
       </c>
-      <c r="O91">
+      <c r="P91">
         <v>2.8173701460775802</v>
       </c>
-      <c r="P91">
+      <c r="Q91">
         <v>2.8280985506012501</v>
       </c>
-      <c r="Q91">
+      <c r="R91">
         <v>2.8402517068603998</v>
       </c>
-      <c r="R91">
+      <c r="S91">
         <v>2.8196347625842502</v>
       </c>
-      <c r="S91">
+      <c r="T91">
         <v>2.8352293116685998</v>
       </c>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U91">
+        <v>2.8467936735453501</v>
+      </c>
+      <c r="V91">
+        <v>2.83632462170022</v>
+      </c>
+      <c r="W91">
+        <v>2.8196347625842502</v>
+      </c>
+      <c r="X91">
+        <v>2.7171370531711601</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -6839,25 +8246,40 @@
         <v>2.8444171443742499</v>
       </c>
       <c r="N92">
+        <v>2.8402343750000001</v>
+      </c>
+      <c r="O92">
         <v>2.9627677180971501</v>
       </c>
-      <c r="O92">
+      <c r="P92">
         <v>2.8232007144210098</v>
       </c>
-      <c r="P92">
+      <c r="Q92">
         <v>2.8817267854191502</v>
       </c>
-      <c r="Q92">
+      <c r="R92">
         <v>2.8433816800085698</v>
       </c>
-      <c r="R92">
+      <c r="S92">
         <v>2.8223958361605801</v>
       </c>
-      <c r="S92">
+      <c r="T92">
         <v>2.8849568795062099</v>
       </c>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U92">
+        <v>2.8456978548337202</v>
+      </c>
+      <c r="V92">
+        <v>2.8480173843499301</v>
+      </c>
+      <c r="W92">
+        <v>2.8223958361605801</v>
+      </c>
+      <c r="X92">
+        <v>2.8071209288327799</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -6898,25 +8320,40 @@
         <v>2.8464139620015101</v>
       </c>
       <c r="N93">
-        <v>2.86496259616478</v>
+        <v>2.84</v>
       </c>
       <c r="O93">
         <v>2.86496259616478</v>
       </c>
       <c r="P93">
+        <v>2.86496259616478</v>
+      </c>
+      <c r="Q93">
         <v>2.8245853003395398</v>
       </c>
-      <c r="Q93">
+      <c r="R93">
         <v>2.8333252176194499</v>
       </c>
-      <c r="R93">
+      <c r="S93">
         <v>2.9457685808611598</v>
       </c>
-      <c r="S93">
+      <c r="T93">
         <v>2.8582236116876101</v>
       </c>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U93">
+        <v>2.8470575500141302</v>
+      </c>
+      <c r="V93">
+        <v>2.85150146166067</v>
+      </c>
+      <c r="W93">
+        <v>2.9457685808611598</v>
+      </c>
+      <c r="X93">
+        <v>2.7243435741122002</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -6957,25 +8394,40 @@
         <v>2.8457721674513299</v>
       </c>
       <c r="N94">
+        <v>2.78125</v>
+      </c>
+      <c r="O94">
         <v>2.9386851959559501</v>
       </c>
-      <c r="O94">
+      <c r="P94">
         <v>2.8483085486314801</v>
       </c>
-      <c r="P94">
+      <c r="Q94">
         <v>2.8947522155690102</v>
       </c>
-      <c r="Q94">
+      <c r="R94">
         <v>2.8458317868509302</v>
       </c>
-      <c r="R94">
+      <c r="S94">
         <v>2.8361113344484199</v>
       </c>
-      <c r="S94">
+      <c r="T94">
         <v>2.8555804108926401</v>
       </c>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U94">
+        <v>2.8450934113461601</v>
+      </c>
+      <c r="V94">
+        <v>2.8566105181645201</v>
+      </c>
+      <c r="W94">
+        <v>2.8361113344484199</v>
+      </c>
+      <c r="X94">
+        <v>2.8742550978594901</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -7016,25 +8468,40 @@
         <v>2.8462410338659399</v>
       </c>
       <c r="N95">
+        <v>2.8386718750000002</v>
+      </c>
+      <c r="O95">
         <v>2.8553698225991702</v>
       </c>
-      <c r="O95">
+      <c r="P95">
         <v>2.8259511292143</v>
       </c>
-      <c r="P95">
+      <c r="Q95">
         <v>2.8043830110363799</v>
       </c>
-      <c r="Q95">
+      <c r="R95">
         <v>2.84449964568975</v>
       </c>
-      <c r="R95">
+      <c r="S95">
         <v>2.8096707411236101</v>
       </c>
-      <c r="S95">
+      <c r="T95">
         <v>2.86628541630277</v>
       </c>
-    </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U95">
+        <v>2.8451194563576099</v>
+      </c>
+      <c r="V95">
+        <v>2.8413767891745998</v>
+      </c>
+      <c r="W95">
+        <v>2.8096707411236101</v>
+      </c>
+      <c r="X95">
+        <v>2.8447660950002698</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -7075,25 +8542,40 @@
         <v>2.84603038090202</v>
       </c>
       <c r="N96">
+        <v>2.7730468749999999</v>
+      </c>
+      <c r="O96">
         <v>2.8523831580842298</v>
       </c>
-      <c r="O96">
+      <c r="P96">
         <v>2.8180931663056801</v>
       </c>
-      <c r="P96">
+      <c r="Q96">
         <v>2.8550126693474902</v>
       </c>
-      <c r="Q96">
+      <c r="R96">
         <v>2.8274887173230998</v>
       </c>
-      <c r="R96">
+      <c r="S96">
         <v>2.80101970094888</v>
       </c>
-      <c r="S96">
+      <c r="T96">
         <v>2.6660692845585099</v>
       </c>
-    </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U96">
+        <v>2.8458265612478399</v>
+      </c>
+      <c r="V96">
+        <v>2.8433069482332201</v>
+      </c>
+      <c r="W96">
+        <v>2.80101970094888</v>
+      </c>
+      <c r="X96">
+        <v>2.77581195745723</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -7134,25 +8616,40 @@
         <v>2.8448312172027199</v>
       </c>
       <c r="N97">
+        <v>2.7351562500000002</v>
+      </c>
+      <c r="O97">
         <v>2.8685492708028701</v>
       </c>
-      <c r="O97">
+      <c r="P97">
         <v>2.8081648309460299</v>
       </c>
-      <c r="P97">
+      <c r="Q97">
         <v>2.81410358890491</v>
       </c>
-      <c r="Q97">
+      <c r="R97">
         <v>2.8325284068662899</v>
       </c>
-      <c r="R97">
+      <c r="S97">
         <v>2.8080987252297498</v>
       </c>
-      <c r="S97">
+      <c r="T97">
         <v>2.7332221359554998</v>
       </c>
-    </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U97">
+        <v>2.8431718656405698</v>
+      </c>
+      <c r="V97">
+        <v>2.8420456020808098</v>
+      </c>
+      <c r="W97">
+        <v>2.8080987252297498</v>
+      </c>
+      <c r="X97">
+        <v>2.7864168160192402</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -7193,25 +8690,40 @@
         <v>2.8473975745060498</v>
       </c>
       <c r="N98">
+        <v>2.732421875</v>
+      </c>
+      <c r="O98">
         <v>2.86569967123584</v>
       </c>
-      <c r="O98">
+      <c r="P98">
         <v>2.82314103978789</v>
       </c>
-      <c r="P98">
+      <c r="Q98">
         <v>2.8653947494487699</v>
       </c>
-      <c r="Q98">
+      <c r="R98">
         <v>2.84181227405367</v>
       </c>
-      <c r="R98">
+      <c r="S98">
         <v>2.8269275363667798</v>
       </c>
-      <c r="S98">
+      <c r="T98">
         <v>2.86569967123584</v>
       </c>
-    </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U98">
+        <v>2.8446700880599298</v>
+      </c>
+      <c r="V98">
+        <v>2.8483494261321098</v>
+      </c>
+      <c r="W98">
+        <v>2.8269275363667798</v>
+      </c>
+      <c r="X98">
+        <v>2.7267895316109598</v>
+      </c>
+    </row>
+    <row r="99" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -7252,25 +8764,40 @@
         <v>2.8455029226359798</v>
       </c>
       <c r="N99">
+        <v>3.079101563</v>
+      </c>
+      <c r="O99">
         <v>2.9684237945863101</v>
       </c>
-      <c r="O99">
+      <c r="P99">
         <v>2.8507938510857</v>
       </c>
-      <c r="P99">
+      <c r="Q99">
         <v>2.9146358360907501</v>
       </c>
-      <c r="Q99">
+      <c r="R99">
         <v>2.9149875935534899</v>
       </c>
-      <c r="R99">
+      <c r="S99">
         <v>2.9025477506302502</v>
       </c>
-      <c r="S99">
+      <c r="T99">
         <v>2.9684237945863101</v>
       </c>
-    </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U99">
+        <v>2.8464032482171202</v>
+      </c>
+      <c r="V99">
+        <v>2.9488121269497598</v>
+      </c>
+      <c r="W99">
+        <v>2.9025477506302502</v>
+      </c>
+      <c r="X99">
+        <v>3.0152767456710001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -7311,30 +8838,45 @@
         <v>2.8465415042892102</v>
       </c>
       <c r="N100">
+        <v>3.080664063</v>
+      </c>
+      <c r="O100">
         <v>2.9572418395103401</v>
       </c>
-      <c r="O100">
+      <c r="P100">
         <v>2.8509135426234198</v>
       </c>
-      <c r="P100">
+      <c r="Q100">
         <v>2.86485464363472</v>
       </c>
-      <c r="Q100">
+      <c r="R100">
         <v>2.84487737422003</v>
       </c>
-      <c r="R100">
+      <c r="S100">
         <v>2.8202373307672799</v>
       </c>
-      <c r="S100">
+      <c r="T100">
         <v>2.9082811917009002</v>
       </c>
-    </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U100">
+        <v>2.8461825197320598</v>
+      </c>
+      <c r="V100">
+        <v>2.84986656007466</v>
+      </c>
+      <c r="W100">
+        <v>2.8202373307672799</v>
+      </c>
+      <c r="X100">
+        <v>2.8574924790855398</v>
+      </c>
+    </row>
+    <row r="101" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
         <v>112</v>
       </c>
       <c r="B101">
-        <f t="shared" ref="B101:P101" si="0">SUM(B1:B100)/100</f>
+        <f t="shared" ref="B101:V101" si="0">SUM(B1:B100)/100</f>
         <v>2.8866340274999995</v>
       </c>
       <c r="C101">
@@ -7377,20 +8919,40 @@
         <f t="shared" si="0"/>
         <v>2.8460038134044878</v>
       </c>
-      <c r="N101">
+      <c r="O101">
         <f t="shared" si="0"/>
         <v>2.8848095011724735</v>
       </c>
-      <c r="O101">
+      <c r="P101">
         <f t="shared" si="0"/>
         <v>2.8315080967053063</v>
       </c>
-      <c r="P101">
+      <c r="Q101">
         <f t="shared" si="0"/>
         <v>2.844106245320019</v>
       </c>
-    </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="R101">
+        <f t="shared" si="0"/>
+        <v>2.8402246608213715</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="0"/>
+        <v>2.843788885387363</v>
+      </c>
+      <c r="T101">
+        <f t="shared" si="0"/>
+        <v>2.8736421602182407</v>
+      </c>
+      <c r="U101">
+        <f t="shared" si="0"/>
+        <v>2.8461362869692239</v>
+      </c>
+      <c r="V101">
+        <f t="shared" si="0"/>
+        <v>2.8444414508498284</v>
+      </c>
+    </row>
+    <row r="102" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
         <v>113</v>
       </c>
@@ -7430,11 +8992,23 @@
       <c r="M102">
         <v>4.9700000000000001E-2</v>
       </c>
-      <c r="N102" t="s">
+      <c r="N102">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="O102" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="P102">
+        <v>4.7899999999999998E-2</v>
+      </c>
+      <c r="Q102">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="V102">
+        <v>4.9299999999999997E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
         <v>114</v>
       </c>
@@ -7463,7 +9037,7 @@
         <v>0.44976776500000026</v>
       </c>
       <c r="H103">
-        <f t="shared" ref="H103:P103" si="2">MAX(H1:H100)-MIN(H1:H100)</f>
+        <f t="shared" ref="H103:V103" si="2">MAX(H1:H100)-MIN(H1:H100)</f>
         <v>4.9903780000000175E-3</v>
       </c>
       <c r="I103">
@@ -7482,20 +9056,40 @@
         <f t="shared" si="2"/>
         <v>4.6875070436702693E-3</v>
       </c>
-      <c r="N103">
+      <c r="O103">
         <f t="shared" si="2"/>
         <v>0.44713806286917013</v>
       </c>
-      <c r="O103">
+      <c r="P103">
         <f t="shared" si="2"/>
         <v>0.39613091404415979</v>
       </c>
-      <c r="P103">
+      <c r="Q103">
         <f t="shared" si="2"/>
         <v>0.30644419815699964</v>
       </c>
-    </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="R103">
+        <f t="shared" si="2"/>
+        <v>0.19678111986541991</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="2"/>
+        <v>0.31999035596843983</v>
+      </c>
+      <c r="T103">
+        <f t="shared" si="2"/>
+        <v>0.48081721257479959</v>
+      </c>
+      <c r="U103">
+        <f t="shared" si="2"/>
+        <v>6.1760019037300218E-3</v>
+      </c>
+      <c r="V103">
+        <f t="shared" si="2"/>
+        <v>0.2328848244986097</v>
+      </c>
+    </row>
+    <row r="104" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
         <v>115</v>
       </c>
@@ -7518,26 +9112,39 @@
       <c r="M104" s="1">
         <v>43093</v>
       </c>
-      <c r="N104" s="1">
+      <c r="N104" s="1"/>
+      <c r="O104" s="1">
         <v>43093</v>
       </c>
-      <c r="O104" s="1">
+      <c r="P104" s="1">
         <v>43094</v>
       </c>
-      <c r="P104" s="1">
+      <c r="Q104" s="1">
+        <v>43094</v>
+      </c>
+      <c r="R104" s="1">
         <v>43095</v>
       </c>
-      <c r="Q104" s="1">
+      <c r="S104" s="1">
         <v>43095</v>
       </c>
-      <c r="R104" s="1">
+      <c r="T104" s="1">
         <v>43096</v>
       </c>
-      <c r="S104" s="1">
+      <c r="U104" s="1">
         <v>43096</v>
       </c>
-    </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="V104" s="1">
+        <v>43097</v>
+      </c>
+      <c r="W104" s="1">
+        <v>43097</v>
+      </c>
+      <c r="X104" s="1">
+        <v>43098</v>
+      </c>
+    </row>
+    <row r="105" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
         <v>116</v>
       </c>
@@ -7574,26 +9181,38 @@
       <c r="M105" t="s">
         <v>110</v>
       </c>
-      <c r="N105" t="s">
+      <c r="O105" t="s">
         <v>111</v>
       </c>
-      <c r="O105" t="s">
+      <c r="P105" t="s">
         <v>117</v>
       </c>
-      <c r="P105" t="s">
+      <c r="Q105" t="s">
         <v>121</v>
       </c>
-      <c r="Q105" t="s">
+      <c r="R105" t="s">
         <v>122</v>
       </c>
-      <c r="R105" t="s">
+      <c r="S105" t="s">
         <v>123</v>
       </c>
-      <c r="S105" t="s">
+      <c r="T105" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="U105" t="s">
+        <v>130</v>
+      </c>
+      <c r="V105" t="s">
+        <v>131</v>
+      </c>
+      <c r="W105" t="s">
+        <v>132</v>
+      </c>
+      <c r="X105" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="106" spans="1:24" x14ac:dyDescent="0.15">
       <c r="G106" t="s">
         <v>119</v>
       </c>
@@ -7606,14 +9225,32 @@
       <c r="J106" t="s">
         <v>125</v>
       </c>
+      <c r="K106" t="s">
+        <v>136</v>
+      </c>
       <c r="L106" t="s">
         <v>126</v>
       </c>
       <c r="M106" t="s">
         <v>128</v>
       </c>
-      <c r="N106" t="s">
+      <c r="O106" t="s">
         <v>127</v>
+      </c>
+      <c r="P106" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>135</v>
+      </c>
+      <c r="R106" t="s">
+        <v>138</v>
+      </c>
+      <c r="S106" t="s">
+        <v>139</v>
+      </c>
+      <c r="V106" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/teacher/ali/data/ans/result.xlsx
+++ b/teacher/ali/data/ans/result.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
   <si>
     <t>ID716</t>
   </si>
@@ -460,6 +460,38 @@
   </si>
   <si>
     <t>c</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>w</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>w</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关1687，3阶</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关820，3阶</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>820,nopca2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>820，pca，3</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -1457,10 +1489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X106"/>
+  <dimension ref="A1:AC106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="L110" sqref="L110"/>
+    <sheetView tabSelected="1" topLeftCell="J76" workbookViewId="0">
+      <selection activeCell="T102" sqref="T102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1471,7 +1503,7 @@
     <col min="15" max="24" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1544,8 +1576,23 @@
       <c r="X1">
         <v>2.7371961972007099</v>
       </c>
+      <c r="Y1">
+        <v>2.5</v>
+      </c>
+      <c r="Z1">
+        <v>2.7983330724486302</v>
+      </c>
+      <c r="AA1">
+        <v>2.7663351896800599</v>
+      </c>
+      <c r="AB1">
+        <v>2.6849563697908998</v>
+      </c>
+      <c r="AC1">
+        <v>2.7643352575354698</v>
+      </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1618,8 +1665,23 @@
       <c r="X2">
         <v>2.7278167134569902</v>
       </c>
+      <c r="Y2">
+        <v>2.70070576</v>
+      </c>
+      <c r="Z2">
+        <v>2.7673859195739299</v>
+      </c>
+      <c r="AA2">
+        <v>2.76329399750712</v>
+      </c>
+      <c r="AB2">
+        <v>2.7152062748223398</v>
+      </c>
+      <c r="AC2">
+        <v>2.7583989820907799</v>
+      </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1692,8 +1754,23 @@
       <c r="X3">
         <v>2.8486951382194299</v>
       </c>
+      <c r="Y3">
+        <v>3.0578305499999998</v>
+      </c>
+      <c r="Z3">
+        <v>2.8467792995674599</v>
+      </c>
+      <c r="AA3">
+        <v>2.8648349284318</v>
+      </c>
+      <c r="AB3">
+        <v>3.0277145609843501</v>
+      </c>
+      <c r="AC3">
+        <v>2.86196054136244</v>
+      </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1766,8 +1843,23 @@
       <c r="X4">
         <v>2.90403651788501</v>
       </c>
+      <c r="Y4">
+        <v>2.9047251699999999</v>
+      </c>
+      <c r="Z4">
+        <v>2.85007067621153</v>
+      </c>
+      <c r="AA4">
+        <v>2.8546712789640099</v>
+      </c>
+      <c r="AB4">
+        <v>3.0664198345827902</v>
+      </c>
+      <c r="AC4">
+        <v>2.8548045033295399</v>
+      </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1840,8 +1932,23 @@
       <c r="X5">
         <v>2.9823301164032601</v>
       </c>
+      <c r="Y5">
+        <v>2.7442534099999998</v>
+      </c>
+      <c r="Z5">
+        <v>2.84407728934353</v>
+      </c>
+      <c r="AA5">
+        <v>2.8455264585246498</v>
+      </c>
+      <c r="AB5">
+        <v>2.7749966893668998</v>
+      </c>
+      <c r="AC5">
+        <v>2.8504430670857999</v>
+      </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1914,8 +2021,23 @@
       <c r="X6">
         <v>2.8032375326279202</v>
       </c>
+      <c r="Y6">
+        <v>2.8405374499999998</v>
+      </c>
+      <c r="Z6">
+        <v>2.8515426287441898</v>
+      </c>
+      <c r="AA6">
+        <v>2.8447519677942599</v>
+      </c>
+      <c r="AB6">
+        <v>2.6246760128314599</v>
+      </c>
+      <c r="AC6">
+        <v>2.84495695591011</v>
+      </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1988,8 +2110,23 @@
       <c r="X7">
         <v>2.8756024540218199</v>
       </c>
+      <c r="Y7">
+        <v>2.70080689</v>
+      </c>
+      <c r="Z7">
+        <v>2.8567701624985502</v>
+      </c>
+      <c r="AA7">
+        <v>2.8533294332133798</v>
+      </c>
+      <c r="AB7">
+        <v>3.0021219994678399</v>
+      </c>
+      <c r="AC7">
+        <v>2.8523726615554401</v>
+      </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2062,8 +2199,23 @@
       <c r="X8">
         <v>2.6911712283105098</v>
       </c>
+      <c r="Y8">
+        <v>2.8172966000000002</v>
+      </c>
+      <c r="Z8">
+        <v>2.8380973860262202</v>
+      </c>
+      <c r="AA8">
+        <v>2.8243979508996402</v>
+      </c>
+      <c r="AB8">
+        <v>2.9648503642665398</v>
+      </c>
+      <c r="AC8">
+        <v>2.8231442412866099</v>
+      </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2136,8 +2288,23 @@
       <c r="X9">
         <v>2.6137963940872901</v>
       </c>
+      <c r="Y9">
+        <v>2.7138051399999998</v>
+      </c>
+      <c r="Z9">
+        <v>2.83397599520932</v>
+      </c>
+      <c r="AA9">
+        <v>2.8436460676170499</v>
+      </c>
+      <c r="AB9">
+        <v>2.6166766938100099</v>
+      </c>
+      <c r="AC9">
+        <v>2.8414097246901102</v>
+      </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2210,8 +2377,23 @@
       <c r="X10">
         <v>2.7561178895291998</v>
       </c>
+      <c r="Y10">
+        <v>2.8654617</v>
+      </c>
+      <c r="Z10">
+        <v>2.8399541028719799</v>
+      </c>
+      <c r="AA10">
+        <v>2.8387578729256999</v>
+      </c>
+      <c r="AB10">
+        <v>2.8699130562105899</v>
+      </c>
+      <c r="AC10">
+        <v>2.8374794481255199</v>
+      </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2284,8 +2466,23 @@
       <c r="X11">
         <v>2.7218061916217202</v>
       </c>
+      <c r="Y11">
+        <v>2.5959013199999998</v>
+      </c>
+      <c r="Z11">
+        <v>2.8465423563129302</v>
+      </c>
+      <c r="AA11">
+        <v>2.84264715554494</v>
+      </c>
+      <c r="AB11">
+        <v>2.5225010291359098</v>
+      </c>
+      <c r="AC11">
+        <v>2.8430714490676698</v>
+      </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2358,8 +2555,23 @@
       <c r="X12">
         <v>2.8605353951674299</v>
       </c>
+      <c r="Y12">
+        <v>2.88703208</v>
+      </c>
+      <c r="Z12">
+        <v>2.8406923402201798</v>
+      </c>
+      <c r="AA12">
+        <v>2.85482358608717</v>
+      </c>
+      <c r="AB12">
+        <v>3.32104286414567</v>
+      </c>
+      <c r="AC12">
+        <v>2.85374286968274</v>
+      </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2432,8 +2644,23 @@
       <c r="X13">
         <v>2.9030142253725999</v>
       </c>
+      <c r="Y13">
+        <v>2.9607096799999999</v>
+      </c>
+      <c r="Z13">
+        <v>2.8532268190716699</v>
+      </c>
+      <c r="AA13">
+        <v>2.85336826495125</v>
+      </c>
+      <c r="AB13">
+        <v>2.7794707889591899</v>
+      </c>
+      <c r="AC13">
+        <v>2.8520541199515499</v>
+      </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2506,8 +2733,23 @@
       <c r="X14">
         <v>2.7349765102924501</v>
       </c>
+      <c r="Y14">
+        <v>2.59500464</v>
+      </c>
+      <c r="Z14">
+        <v>2.8416000411412998</v>
+      </c>
+      <c r="AA14">
+        <v>2.8447293883918698</v>
+      </c>
+      <c r="AB14">
+        <v>2.6509618768281</v>
+      </c>
+      <c r="AC14">
+        <v>2.8441062923448999</v>
+      </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2580,8 +2822,23 @@
       <c r="X15">
         <v>3.1087391993157798</v>
       </c>
+      <c r="Y15">
+        <v>2.92001789</v>
+      </c>
+      <c r="Z15">
+        <v>2.8803264658071601</v>
+      </c>
+      <c r="AA15">
+        <v>2.8745819827120802</v>
+      </c>
+      <c r="AB15">
+        <v>3.1870846903667398</v>
+      </c>
+      <c r="AC15">
+        <v>2.8718716124957799</v>
+      </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2654,8 +2911,23 @@
       <c r="X16">
         <v>2.8326711012211399</v>
       </c>
+      <c r="Y16">
+        <v>2.95325763</v>
+      </c>
+      <c r="Z16">
+        <v>2.8404317383728901</v>
+      </c>
+      <c r="AA16">
+        <v>2.8478884149130801</v>
+      </c>
+      <c r="AB16">
+        <v>3.0836975612381798</v>
+      </c>
+      <c r="AC16">
+        <v>2.8487264444029901</v>
+      </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2728,8 +3000,23 @@
       <c r="X17">
         <v>2.82953109912722</v>
       </c>
+      <c r="Y17">
+        <v>2.9159414099999998</v>
+      </c>
+      <c r="Z17">
+        <v>2.8410445565831801</v>
+      </c>
+      <c r="AA17">
+        <v>2.86405945631074</v>
+      </c>
+      <c r="AB17">
+        <v>2.8444595233882501</v>
+      </c>
+      <c r="AC17">
+        <v>2.8698710593647201</v>
+      </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -2802,8 +3089,23 @@
       <c r="X18">
         <v>2.8751021075368901</v>
       </c>
+      <c r="Y18">
+        <v>3.0423259699999998</v>
+      </c>
+      <c r="Z18">
+        <v>2.84861634518222</v>
+      </c>
+      <c r="AA18">
+        <v>2.8521312396366598</v>
+      </c>
+      <c r="AB18">
+        <v>2.8943179355794801</v>
+      </c>
+      <c r="AC18">
+        <v>2.8520787649114698</v>
+      </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2876,8 +3178,23 @@
       <c r="X19">
         <v>2.847790954738</v>
       </c>
+      <c r="Y19">
+        <v>2.6401651400000001</v>
+      </c>
+      <c r="Z19">
+        <v>2.83823029612214</v>
+      </c>
+      <c r="AA19">
+        <v>2.8433196953045199</v>
+      </c>
+      <c r="AB19">
+        <v>2.52825468049876</v>
+      </c>
+      <c r="AC19">
+        <v>2.8419623745485101</v>
+      </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2950,8 +3267,23 @@
       <c r="X20">
         <v>2.90689447450006</v>
       </c>
+      <c r="Y20">
+        <v>2.9512346300000001</v>
+      </c>
+      <c r="Z20">
+        <v>2.8501233488134798</v>
+      </c>
+      <c r="AA20">
+        <v>2.8708415088413801</v>
+      </c>
+      <c r="AB20">
+        <v>2.8438747501155399</v>
+      </c>
+      <c r="AC20">
+        <v>2.8708457076884701</v>
+      </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -3024,8 +3356,23 @@
       <c r="X21">
         <v>2.86271746813614</v>
       </c>
+      <c r="Y21">
+        <v>2.8716573699999999</v>
+      </c>
+      <c r="Z21">
+        <v>2.8406185142569802</v>
+      </c>
+      <c r="AA21">
+        <v>2.84377264719503</v>
+      </c>
+      <c r="AB21">
+        <v>2.8862064737747599</v>
+      </c>
+      <c r="AC21">
+        <v>2.8430351096125901</v>
+      </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -3098,8 +3445,23 @@
       <c r="X22">
         <v>2.8493641347432499</v>
       </c>
+      <c r="Y22">
+        <v>2.6072181400000001</v>
+      </c>
+      <c r="Z22">
+        <v>2.8392356599211301</v>
+      </c>
+      <c r="AA22">
+        <v>2.8391289285040302</v>
+      </c>
+      <c r="AB22">
+        <v>2.6922009557287598</v>
+      </c>
+      <c r="AC22">
+        <v>2.8378224464241999</v>
+      </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -3172,8 +3534,23 @@
       <c r="X23">
         <v>2.8468197697214799</v>
       </c>
+      <c r="Y23">
+        <v>2.9768179699999999</v>
+      </c>
+      <c r="Z23">
+        <v>2.8453227765936502</v>
+      </c>
+      <c r="AA23">
+        <v>2.8608421806108599</v>
+      </c>
+      <c r="AB23">
+        <v>3.4112180182318301</v>
+      </c>
+      <c r="AC23">
+        <v>2.8567819976211801</v>
+      </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -3246,8 +3623,23 @@
       <c r="X24">
         <v>2.7976413792917199</v>
       </c>
+      <c r="Y24">
+        <v>2.7724247800000001</v>
+      </c>
+      <c r="Z24">
+        <v>2.84328697311072</v>
+      </c>
+      <c r="AA24">
+        <v>2.83273610098425</v>
+      </c>
+      <c r="AB24">
+        <v>2.8424901282312098</v>
+      </c>
+      <c r="AC24">
+        <v>2.83291645703371</v>
+      </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -3320,8 +3712,23 @@
       <c r="X25">
         <v>2.8483562121779</v>
       </c>
+      <c r="Y25">
+        <v>2.6313190199999998</v>
+      </c>
+      <c r="Z25">
+        <v>2.8489849763054602</v>
+      </c>
+      <c r="AA25">
+        <v>2.8450091867228902</v>
+      </c>
+      <c r="AB25">
+        <v>2.9194256250989499</v>
+      </c>
+      <c r="AC25">
+        <v>2.84457043337911</v>
+      </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -3394,8 +3801,23 @@
       <c r="X26">
         <v>2.8460183483813899</v>
       </c>
+      <c r="Y26">
+        <v>3.11505017</v>
+      </c>
+      <c r="Z26">
+        <v>2.8498755352686498</v>
+      </c>
+      <c r="AA26">
+        <v>2.8372556004455198</v>
+      </c>
+      <c r="AB26">
+        <v>2.8425400927044802</v>
+      </c>
+      <c r="AC26">
+        <v>2.8408785948602602</v>
+      </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -3468,8 +3890,23 @@
       <c r="X27">
         <v>2.9060919244060899</v>
       </c>
+      <c r="Y27">
+        <v>2.6659827900000002</v>
+      </c>
+      <c r="Z27">
+        <v>2.84294851951153</v>
+      </c>
+      <c r="AA27">
+        <v>2.8539783729228199</v>
+      </c>
+      <c r="AB27">
+        <v>3.16335341458778</v>
+      </c>
+      <c r="AC27">
+        <v>2.85409386081137</v>
+      </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -3542,8 +3979,23 @@
       <c r="X28">
         <v>2.84816824839212</v>
       </c>
+      <c r="Y28">
+        <v>2.9799351999999999</v>
+      </c>
+      <c r="Z28">
+        <v>2.8384483318948801</v>
+      </c>
+      <c r="AA28">
+        <v>2.8574217375639201</v>
+      </c>
+      <c r="AB28">
+        <v>2.8428095279915699</v>
+      </c>
+      <c r="AC28">
+        <v>2.8535058667745101</v>
+      </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -3616,8 +4068,23 @@
       <c r="X29">
         <v>2.86178594192033</v>
       </c>
+      <c r="Y29">
+        <v>3.19873977</v>
+      </c>
+      <c r="Z29">
+        <v>2.8604941020979902</v>
+      </c>
+      <c r="AA29">
+        <v>2.8493293309798999</v>
+      </c>
+      <c r="AB29">
+        <v>2.8424956642467798</v>
+      </c>
+      <c r="AC29">
+        <v>2.84881659658868</v>
+      </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -3690,8 +4157,23 @@
       <c r="X30">
         <v>2.8895313715103201</v>
       </c>
+      <c r="Y30">
+        <v>2.7147227599999999</v>
+      </c>
+      <c r="Z30">
+        <v>2.8406051011836499</v>
+      </c>
+      <c r="AA30">
+        <v>2.8528754272109502</v>
+      </c>
+      <c r="AB30">
+        <v>2.90384533320421</v>
+      </c>
+      <c r="AC30">
+        <v>2.8544767747354798</v>
+      </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -3764,8 +4246,23 @@
       <c r="X31">
         <v>2.8238221249623701</v>
       </c>
+      <c r="Y31">
+        <v>2.8873348399999998</v>
+      </c>
+      <c r="Z31">
+        <v>2.8420353960901998</v>
+      </c>
+      <c r="AA31">
+        <v>2.8429891494747102</v>
+      </c>
+      <c r="AB31">
+        <v>2.7720846425621901</v>
+      </c>
+      <c r="AC31">
+        <v>2.8398717951200299</v>
+      </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -3838,8 +4335,23 @@
       <c r="X32">
         <v>2.79086739860263</v>
       </c>
+      <c r="Y32">
+        <v>2.7980817600000001</v>
+      </c>
+      <c r="Z32">
+        <v>2.8511336692403</v>
+      </c>
+      <c r="AA32">
+        <v>2.83955304257334</v>
+      </c>
+      <c r="AB32">
+        <v>2.8688319978298802</v>
+      </c>
+      <c r="AC32">
+        <v>2.8391334281448901</v>
+      </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -3912,8 +4424,23 @@
       <c r="X33">
         <v>2.8195597646896799</v>
       </c>
+      <c r="Y33">
+        <v>2.7106575099999999</v>
+      </c>
+      <c r="Z33">
+        <v>2.8601359689243702</v>
+      </c>
+      <c r="AA33">
+        <v>2.85709522332529</v>
+      </c>
+      <c r="AB33">
+        <v>2.9630752467680002</v>
+      </c>
+      <c r="AC33">
+        <v>2.8570942114636901</v>
+      </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -3986,8 +4513,23 @@
       <c r="X34">
         <v>3.02141095002077</v>
       </c>
+      <c r="Y34">
+        <v>2.9041809600000001</v>
+      </c>
+      <c r="Z34">
+        <v>2.8485328764034201</v>
+      </c>
+      <c r="AA34">
+        <v>2.87144431419485</v>
+      </c>
+      <c r="AB34">
+        <v>3.03544901514551</v>
+      </c>
+      <c r="AC34">
+        <v>2.8727207640444599</v>
+      </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -4060,8 +4602,23 @@
       <c r="X35">
         <v>2.8701455404578202</v>
       </c>
+      <c r="Y35">
+        <v>2.7630866100000002</v>
+      </c>
+      <c r="Z35">
+        <v>2.8480840976835902</v>
+      </c>
+      <c r="AA35">
+        <v>2.85780540758345</v>
+      </c>
+      <c r="AB35">
+        <v>2.9805246713373301</v>
+      </c>
+      <c r="AC35">
+        <v>2.8572858280219098</v>
+      </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -4134,8 +4691,23 @@
       <c r="X36">
         <v>2.9965079620987001</v>
       </c>
+      <c r="Y36">
+        <v>2.8209447299999999</v>
+      </c>
+      <c r="Z36">
+        <v>2.8341123326856299</v>
+      </c>
+      <c r="AA36">
+        <v>2.8450190554962802</v>
+      </c>
+      <c r="AB36">
+        <v>2.7720839917873401</v>
+      </c>
+      <c r="AC36">
+        <v>2.84340991226316</v>
+      </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -4208,8 +4780,23 @@
       <c r="X37">
         <v>2.8759486789372701</v>
       </c>
+      <c r="Y37">
+        <v>2.8343981199999999</v>
+      </c>
+      <c r="Z37">
+        <v>2.8514003814790598</v>
+      </c>
+      <c r="AA37">
+        <v>2.8506460062739198</v>
+      </c>
+      <c r="AB37">
+        <v>2.8421068005450101</v>
+      </c>
+      <c r="AC37">
+        <v>2.8486528828039099</v>
+      </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -4282,8 +4869,23 @@
       <c r="X38">
         <v>2.9130771008424401</v>
       </c>
+      <c r="Y38">
+        <v>2.7565498100000001</v>
+      </c>
+      <c r="Z38">
+        <v>2.8435304399767301</v>
+      </c>
+      <c r="AA38">
+        <v>2.8399953225865402</v>
+      </c>
+      <c r="AB38">
+        <v>2.6741984208229499</v>
+      </c>
+      <c r="AC38">
+        <v>2.8396055579074102</v>
+      </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -4356,8 +4958,23 @@
       <c r="X39">
         <v>2.9019044543377199</v>
       </c>
+      <c r="Y39">
+        <v>2.9531929699999999</v>
+      </c>
+      <c r="Z39">
+        <v>2.83586377755962</v>
+      </c>
+      <c r="AA39">
+        <v>2.8467452935742501</v>
+      </c>
+      <c r="AB39">
+        <v>2.8420974963578001</v>
+      </c>
+      <c r="AC39">
+        <v>2.8445299139556699</v>
+      </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -4430,8 +5047,23 @@
       <c r="X40">
         <v>2.9212931534607698</v>
       </c>
+      <c r="Y40">
+        <v>2.9006854</v>
+      </c>
+      <c r="Z40">
+        <v>2.8446080377200098</v>
+      </c>
+      <c r="AA40">
+        <v>2.84836077963543</v>
+      </c>
+      <c r="AB40">
+        <v>2.8420149642944601</v>
+      </c>
+      <c r="AC40">
+        <v>2.8479666606973399</v>
+      </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -4504,8 +5136,23 @@
       <c r="X41">
         <v>2.9583144879774701</v>
       </c>
+      <c r="Y41">
+        <v>2.8839250600000002</v>
+      </c>
+      <c r="Z41">
+        <v>2.8385771872065</v>
+      </c>
+      <c r="AA41">
+        <v>2.8420817019900002</v>
+      </c>
+      <c r="AB41">
+        <v>2.6723465463885399</v>
+      </c>
+      <c r="AC41">
+        <v>2.8413023684921801</v>
+      </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -4578,8 +5225,23 @@
       <c r="X42">
         <v>2.90358976291499</v>
       </c>
+      <c r="Y42">
+        <v>2.8018469100000001</v>
+      </c>
+      <c r="Z42">
+        <v>2.8480297174915301</v>
+      </c>
+      <c r="AA42">
+        <v>2.8496045625111699</v>
+      </c>
+      <c r="AB42">
+        <v>2.84201475137955</v>
+      </c>
+      <c r="AC42">
+        <v>2.8494468041158099</v>
+      </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -4652,8 +5314,23 @@
       <c r="X43">
         <v>2.9562593612207202</v>
       </c>
+      <c r="Y43">
+        <v>2.6297399800000001</v>
+      </c>
+      <c r="Z43">
+        <v>2.8431432627803299</v>
+      </c>
+      <c r="AA43">
+        <v>2.8351510534014301</v>
+      </c>
+      <c r="AB43">
+        <v>2.5232894879782601</v>
+      </c>
+      <c r="AC43">
+        <v>2.8372989988734498</v>
+      </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -4726,8 +5403,23 @@
       <c r="X44">
         <v>2.8931806746822399</v>
       </c>
+      <c r="Y44">
+        <v>2.6558831600000001</v>
+      </c>
+      <c r="Z44">
+        <v>2.8357995858162899</v>
+      </c>
+      <c r="AA44">
+        <v>2.8482627220655301</v>
+      </c>
+      <c r="AB44">
+        <v>2.68624374192891</v>
+      </c>
+      <c r="AC44">
+        <v>2.84857247530097</v>
+      </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -4800,8 +5492,23 @@
       <c r="X45">
         <v>2.83577488220019</v>
       </c>
+      <c r="Y45">
+        <v>3.70038153</v>
+      </c>
+      <c r="Z45">
+        <v>2.8573566618991402</v>
+      </c>
+      <c r="AA45">
+        <v>2.8947762008583902</v>
+      </c>
+      <c r="AB45">
+        <v>3.4518546659799898</v>
+      </c>
+      <c r="AC45">
+        <v>2.8899815573443202</v>
+      </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -4874,8 +5581,23 @@
       <c r="X46">
         <v>2.8341987590136299</v>
       </c>
+      <c r="Y46">
+        <v>2.7799257800000001</v>
+      </c>
+      <c r="Z46">
+        <v>2.8399221724842398</v>
+      </c>
+      <c r="AA46">
+        <v>2.84161839617428</v>
+      </c>
+      <c r="AB46">
+        <v>2.7654620992524599</v>
+      </c>
+      <c r="AC46">
+        <v>2.8434922017981301</v>
+      </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -4948,8 +5670,23 @@
       <c r="X47">
         <v>2.7966370176947102</v>
       </c>
+      <c r="Y47">
+        <v>2.7544483899999999</v>
+      </c>
+      <c r="Z47">
+        <v>2.8632841066171899</v>
+      </c>
+      <c r="AA47">
+        <v>2.8745250301591101</v>
+      </c>
+      <c r="AB47">
+        <v>2.8416981866078799</v>
+      </c>
+      <c r="AC47">
+        <v>2.8711075195948701</v>
+      </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -5022,8 +5759,23 @@
       <c r="X48">
         <v>2.8489113424813599</v>
       </c>
+      <c r="Y48">
+        <v>2.5655373099999998</v>
+      </c>
+      <c r="Z48">
+        <v>2.8567620290739901</v>
+      </c>
+      <c r="AA48">
+        <v>2.8519601403942101</v>
+      </c>
+      <c r="AB48">
+        <v>3.1317926801273201</v>
+      </c>
+      <c r="AC48">
+        <v>2.8508714372134798</v>
+      </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -5096,8 +5848,23 @@
       <c r="X49">
         <v>2.7741760054653599</v>
       </c>
+      <c r="Y49">
+        <v>2.8435064699999999</v>
+      </c>
+      <c r="Z49">
+        <v>2.8417349343593901</v>
+      </c>
+      <c r="AA49">
+        <v>2.8370886082661499</v>
+      </c>
+      <c r="AB49">
+        <v>2.8428028663545</v>
+      </c>
+      <c r="AC49">
+        <v>2.8364056319211399</v>
+      </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -5170,8 +5937,23 @@
       <c r="X50">
         <v>2.8485449706969699</v>
       </c>
+      <c r="Y50">
+        <v>2.5182835799999999</v>
+      </c>
+      <c r="Z50">
+        <v>2.8453585704525399</v>
+      </c>
+      <c r="AA50">
+        <v>2.84595615918942</v>
+      </c>
+      <c r="AB50">
+        <v>2.8233678124811599</v>
+      </c>
+      <c r="AC50">
+        <v>2.8477231742797602</v>
+      </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -5244,8 +6026,23 @@
       <c r="X51">
         <v>2.8281919292472799</v>
       </c>
+      <c r="Y51">
+        <v>3.6755106899999999</v>
+      </c>
+      <c r="Z51">
+        <v>2.84581476862911</v>
+      </c>
+      <c r="AA51">
+        <v>2.8447821624689098</v>
+      </c>
+      <c r="AB51">
+        <v>2.7755538432004698</v>
+      </c>
+      <c r="AC51">
+        <v>2.8444366736645201</v>
+      </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -5318,8 +6115,23 @@
       <c r="X52">
         <v>2.88911159058005</v>
       </c>
+      <c r="Y52">
+        <v>2.65104834</v>
+      </c>
+      <c r="Z52">
+        <v>2.8522236159607099</v>
+      </c>
+      <c r="AA52">
+        <v>2.8514936745777701</v>
+      </c>
+      <c r="AB52">
+        <v>2.9568084654112301</v>
+      </c>
+      <c r="AC52">
+        <v>2.8500051088974101</v>
+      </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -5392,8 +6204,23 @@
       <c r="X53">
         <v>2.9106895200940199</v>
       </c>
+      <c r="Y53">
+        <v>3.0198034800000002</v>
+      </c>
+      <c r="Z53">
+        <v>2.8447568282017199</v>
+      </c>
+      <c r="AA53">
+        <v>2.8565152404574401</v>
+      </c>
+      <c r="AB53">
+        <v>2.7838865019615899</v>
+      </c>
+      <c r="AC53">
+        <v>2.8546087063511001</v>
+      </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -5466,8 +6293,23 @@
       <c r="X54">
         <v>2.9142694478932998</v>
       </c>
+      <c r="Y54">
+        <v>2.8512408800000002</v>
+      </c>
+      <c r="Z54">
+        <v>2.8398137590068102</v>
+      </c>
+      <c r="AA54">
+        <v>2.8552725021598402</v>
+      </c>
+      <c r="AB54">
+        <v>2.9526034889607899</v>
+      </c>
+      <c r="AC54">
+        <v>2.8545280491801299</v>
+      </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -5540,8 +6382,23 @@
       <c r="X55">
         <v>2.7756200400191702</v>
       </c>
+      <c r="Y55">
+        <v>3.6464274099999998</v>
+      </c>
+      <c r="Z55">
+        <v>2.8530830414003798</v>
+      </c>
+      <c r="AA55">
+        <v>2.8780720792794598</v>
+      </c>
+      <c r="AB55">
+        <v>3.2781233367062201</v>
+      </c>
+      <c r="AC55">
+        <v>2.87927773421913</v>
+      </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -5614,8 +6471,23 @@
       <c r="X56">
         <v>2.7596460057148602</v>
       </c>
+      <c r="Y56">
+        <v>2.9648605699999999</v>
+      </c>
+      <c r="Z56">
+        <v>2.8504964837209301</v>
+      </c>
+      <c r="AA56">
+        <v>2.8271667370536</v>
+      </c>
+      <c r="AB56">
+        <v>2.7910608124704499</v>
+      </c>
+      <c r="AC56">
+        <v>2.8306440948691098</v>
+      </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -5688,8 +6560,23 @@
       <c r="X57">
         <v>2.84272451977164</v>
       </c>
+      <c r="Y57">
+        <v>2.99400391</v>
+      </c>
+      <c r="Z57">
+        <v>2.8514762262148898</v>
+      </c>
+      <c r="AA57">
+        <v>2.85928936600454</v>
+      </c>
+      <c r="AB57">
+        <v>2.8414675506729701</v>
+      </c>
+      <c r="AC57">
+        <v>2.8602285544480401</v>
+      </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -5762,8 +6649,23 @@
       <c r="X58">
         <v>2.9031683181168302</v>
       </c>
+      <c r="Y58">
+        <v>2.9658882200000001</v>
+      </c>
+      <c r="Z58">
+        <v>2.8411453881278299</v>
+      </c>
+      <c r="AA58">
+        <v>2.8473393500894102</v>
+      </c>
+      <c r="AB58">
+        <v>2.96948673338541</v>
+      </c>
+      <c r="AC58">
+        <v>2.8416616317078498</v>
+      </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -5836,8 +6738,23 @@
       <c r="X59">
         <v>2.8905736315354802</v>
       </c>
+      <c r="Y59">
+        <v>2.82623559</v>
+      </c>
+      <c r="Z59">
+        <v>2.8513476774675102</v>
+      </c>
+      <c r="AA59">
+        <v>2.8600132930120901</v>
+      </c>
+      <c r="AB59">
+        <v>2.9470741924485799</v>
+      </c>
+      <c r="AC59">
+        <v>2.8632688967145499</v>
+      </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -5910,8 +6827,23 @@
       <c r="X60">
         <v>2.9920546010215499</v>
       </c>
+      <c r="Y60">
+        <v>2.79221991</v>
+      </c>
+      <c r="Z60">
+        <v>2.8473917643369999</v>
+      </c>
+      <c r="AA60">
+        <v>2.8531395754973401</v>
+      </c>
+      <c r="AB60">
+        <v>2.9785669871179099</v>
+      </c>
+      <c r="AC60">
+        <v>2.8529476797057298</v>
+      </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -5984,8 +6916,23 @@
       <c r="X61">
         <v>2.7680314350418702</v>
       </c>
+      <c r="Y61">
+        <v>3.0637406600000001</v>
+      </c>
+      <c r="Z61">
+        <v>2.82924198073803</v>
+      </c>
+      <c r="AA61">
+        <v>2.8275673219547799</v>
+      </c>
+      <c r="AB61">
+        <v>2.6342675289601898</v>
+      </c>
+      <c r="AC61">
+        <v>2.8268005916154002</v>
+      </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -6058,8 +7005,23 @@
       <c r="X62">
         <v>2.9075773614771099</v>
       </c>
+      <c r="Y62">
+        <v>2.3110746</v>
+      </c>
+      <c r="Z62">
+        <v>2.8222514264062899</v>
+      </c>
+      <c r="AA62">
+        <v>2.8099105317224802</v>
+      </c>
+      <c r="AB62">
+        <v>2.9374590614346801</v>
+      </c>
+      <c r="AC62">
+        <v>2.8072560884990501</v>
+      </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -6132,8 +7094,23 @@
       <c r="X63">
         <v>2.9349228055485099</v>
       </c>
+      <c r="Y63">
+        <v>2.88485857</v>
+      </c>
+      <c r="Z63">
+        <v>2.8567878372611601</v>
+      </c>
+      <c r="AA63">
+        <v>2.8523839223002998</v>
+      </c>
+      <c r="AB63">
+        <v>2.9267658784043502</v>
+      </c>
+      <c r="AC63">
+        <v>2.8498484620361499</v>
+      </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -6206,8 +7183,23 @@
       <c r="X64">
         <v>2.8882281980814501</v>
       </c>
+      <c r="Y64">
+        <v>2.76896509</v>
+      </c>
+      <c r="Z64">
+        <v>2.84562348571357</v>
+      </c>
+      <c r="AA64">
+        <v>2.8412019994751998</v>
+      </c>
+      <c r="AB64">
+        <v>3.0425849467082098</v>
+      </c>
+      <c r="AC64">
+        <v>2.8413974558588699</v>
+      </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -6280,8 +7272,23 @@
       <c r="X65">
         <v>2.9339573839057902</v>
       </c>
+      <c r="Y65">
+        <v>3.00377406</v>
+      </c>
+      <c r="Z65">
+        <v>2.8726046416677802</v>
+      </c>
+      <c r="AA65">
+        <v>2.8697800857618998</v>
+      </c>
+      <c r="AB65">
+        <v>3.18748384724447</v>
+      </c>
+      <c r="AC65">
+        <v>2.8671153188525702</v>
+      </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -6354,8 +7361,23 @@
       <c r="X66">
         <v>2.8995544606108399</v>
       </c>
+      <c r="Y66">
+        <v>2.6247048199999998</v>
+      </c>
+      <c r="Z66">
+        <v>2.8320587379351201</v>
+      </c>
+      <c r="AA66">
+        <v>2.8468847407796098</v>
+      </c>
+      <c r="AB66">
+        <v>2.9954144809940799</v>
+      </c>
+      <c r="AC66">
+        <v>2.84673024364551</v>
+      </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -6428,8 +7450,23 @@
       <c r="X67">
         <v>2.8904148969886201</v>
       </c>
+      <c r="Y67">
+        <v>2.5949364400000001</v>
+      </c>
+      <c r="Z67">
+        <v>2.88471194721114</v>
+      </c>
+      <c r="AA67">
+        <v>2.8335725815228701</v>
+      </c>
+      <c r="AB67">
+        <v>3.0095810780044001</v>
+      </c>
+      <c r="AC67">
+        <v>2.84811461650773</v>
+      </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -6502,8 +7539,23 @@
       <c r="X68">
         <v>2.8927452259133202</v>
       </c>
+      <c r="Y68">
+        <v>2.68249498</v>
+      </c>
+      <c r="Z68">
+        <v>2.87123245521073</v>
+      </c>
+      <c r="AA68">
+        <v>2.8673097519460802</v>
+      </c>
+      <c r="AB68">
+        <v>3.05001642825862</v>
+      </c>
+      <c r="AC68">
+        <v>2.86578717059025</v>
+      </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -6576,8 +7628,23 @@
       <c r="X69">
         <v>3.1486214464703002</v>
       </c>
+      <c r="Y69">
+        <v>2.9927231700000001</v>
+      </c>
+      <c r="Z69">
+        <v>2.8702293015150699</v>
+      </c>
+      <c r="AA69">
+        <v>2.8578256624209701</v>
+      </c>
+      <c r="AB69">
+        <v>3.1356271270584299</v>
+      </c>
+      <c r="AC69">
+        <v>2.8552595064220898</v>
+      </c>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -6650,8 +7717,23 @@
       <c r="X70">
         <v>2.6817255808071301</v>
       </c>
+      <c r="Y70">
+        <v>2.6667811499999998</v>
+      </c>
+      <c r="Z70">
+        <v>2.72410631440385</v>
+      </c>
+      <c r="AA70">
+        <v>2.7874115691241701</v>
+      </c>
+      <c r="AB70">
+        <v>2.6649762860505999</v>
+      </c>
+      <c r="AC70">
+        <v>2.78524511926254</v>
+      </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -6724,8 +7806,23 @@
       <c r="X71">
         <v>2.9452776614637401</v>
       </c>
+      <c r="Y71">
+        <v>2.76709776</v>
+      </c>
+      <c r="Z71">
+        <v>2.8413677371729</v>
+      </c>
+      <c r="AA71">
+        <v>2.8560609218046702</v>
+      </c>
+      <c r="AB71">
+        <v>2.93675287589351</v>
+      </c>
+      <c r="AC71">
+        <v>2.8553295440914499</v>
+      </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -6798,8 +7895,23 @@
       <c r="X72">
         <v>2.8462370108155199</v>
       </c>
+      <c r="Y72">
+        <v>2.8129045499999998</v>
+      </c>
+      <c r="Z72">
+        <v>2.8407471734981402</v>
+      </c>
+      <c r="AA72">
+        <v>2.8457683933145601</v>
+      </c>
+      <c r="AB72">
+        <v>2.8413386301211601</v>
+      </c>
+      <c r="AC72">
+        <v>2.84582413699134</v>
+      </c>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -6872,8 +7984,23 @@
       <c r="X73">
         <v>2.8092275986420998</v>
       </c>
+      <c r="Y73">
+        <v>2.7193152899999999</v>
+      </c>
+      <c r="Z73">
+        <v>2.8422555879942601</v>
+      </c>
+      <c r="AA73">
+        <v>2.84105525473286</v>
+      </c>
+      <c r="AB73">
+        <v>2.8413313295661902</v>
+      </c>
+      <c r="AC73">
+        <v>2.8395614873027601</v>
+      </c>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -6946,8 +8073,23 @@
       <c r="X74">
         <v>2.8715267544244201</v>
       </c>
+      <c r="Y74">
+        <v>2.8263333099999999</v>
+      </c>
+      <c r="Z74">
+        <v>2.8415770719615501</v>
+      </c>
+      <c r="AA74">
+        <v>2.8516021625072399</v>
+      </c>
+      <c r="AB74">
+        <v>2.8413396711975101</v>
+      </c>
+      <c r="AC74">
+        <v>2.8499388507334702</v>
+      </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -7020,8 +8162,23 @@
       <c r="X75">
         <v>2.77391038254585</v>
       </c>
+      <c r="Y75">
+        <v>2.9736657900000001</v>
+      </c>
+      <c r="Z75">
+        <v>2.83245517020615</v>
+      </c>
+      <c r="AA75">
+        <v>2.83893783721</v>
+      </c>
+      <c r="AB75">
+        <v>2.5106051126743401</v>
+      </c>
+      <c r="AC75">
+        <v>2.8378438487188</v>
+      </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -7094,8 +8251,23 @@
       <c r="X76">
         <v>2.83228582478529</v>
       </c>
+      <c r="Y76">
+        <v>2.95947782</v>
+      </c>
+      <c r="Z76">
+        <v>2.8510782741557499</v>
+      </c>
+      <c r="AA76">
+        <v>2.85293063038801</v>
+      </c>
+      <c r="AB76">
+        <v>2.9917001853999801</v>
+      </c>
+      <c r="AC76">
+        <v>2.8476595223224899</v>
+      </c>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -7168,8 +8340,23 @@
       <c r="X77">
         <v>2.8846044940622702</v>
       </c>
+      <c r="Y77">
+        <v>2.8397777299999998</v>
+      </c>
+      <c r="Z77">
+        <v>2.8519178497410498</v>
+      </c>
+      <c r="AA77">
+        <v>2.8597666541784199</v>
+      </c>
+      <c r="AB77">
+        <v>2.8743576592936999</v>
+      </c>
+      <c r="AC77">
+        <v>2.8586457736084698</v>
+      </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -7242,8 +8429,23 @@
       <c r="X78">
         <v>2.7486226408926302</v>
       </c>
+      <c r="Y78">
+        <v>2.7511865800000002</v>
+      </c>
+      <c r="Z78">
+        <v>2.8344215078419301</v>
+      </c>
+      <c r="AA78">
+        <v>2.8397853441369101</v>
+      </c>
+      <c r="AB78">
+        <v>2.4694379589089501</v>
+      </c>
+      <c r="AC78">
+        <v>2.83768537382621</v>
+      </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -7316,8 +8518,23 @@
       <c r="X79">
         <v>2.70922728500681</v>
       </c>
+      <c r="Y79">
+        <v>2.7298863500000001</v>
+      </c>
+      <c r="Z79">
+        <v>2.8366821572914298</v>
+      </c>
+      <c r="AA79">
+        <v>2.8423835758600999</v>
+      </c>
+      <c r="AB79">
+        <v>2.8413045363624798</v>
+      </c>
+      <c r="AC79">
+        <v>2.8443148805848599</v>
+      </c>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -7390,8 +8607,23 @@
       <c r="X80">
         <v>2.9975788694193799</v>
       </c>
+      <c r="Y80">
+        <v>3.0493792000000002</v>
+      </c>
+      <c r="Z80">
+        <v>2.8576371103200202</v>
+      </c>
+      <c r="AA80">
+        <v>2.8723151425175399</v>
+      </c>
+      <c r="AB80">
+        <v>3.11933218101403</v>
+      </c>
+      <c r="AC80">
+        <v>2.8738919202612401</v>
+      </c>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -7464,8 +8696,23 @@
       <c r="X81">
         <v>2.93185907094988</v>
       </c>
+      <c r="Y81">
+        <v>2.8769924499999999</v>
+      </c>
+      <c r="Z81">
+        <v>2.85100546463585</v>
+      </c>
+      <c r="AA81">
+        <v>2.8657354269172002</v>
+      </c>
+      <c r="AB81">
+        <v>3.19760822629509</v>
+      </c>
+      <c r="AC81">
+        <v>2.8671858663850198</v>
+      </c>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -7538,8 +8785,23 @@
       <c r="X82">
         <v>3.0724978181842801</v>
       </c>
+      <c r="Y82">
+        <v>2.9774558</v>
+      </c>
+      <c r="Z82">
+        <v>2.84529438048241</v>
+      </c>
+      <c r="AA82">
+        <v>2.8549746546327102</v>
+      </c>
+      <c r="AB82">
+        <v>2.9355715895938701</v>
+      </c>
+      <c r="AC82">
+        <v>2.8504190891988102</v>
+      </c>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -7612,8 +8874,23 @@
       <c r="X83">
         <v>2.8840714183212399</v>
       </c>
+      <c r="Y83">
+        <v>2.9178609999999998</v>
+      </c>
+      <c r="Z83">
+        <v>2.8550335112451801</v>
+      </c>
+      <c r="AA83">
+        <v>2.85779967028127</v>
+      </c>
+      <c r="AB83">
+        <v>3.1535505749987398</v>
+      </c>
+      <c r="AC83">
+        <v>2.8562639496500499</v>
+      </c>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -7686,8 +8963,23 @@
       <c r="X84">
         <v>2.8744667877994399</v>
       </c>
+      <c r="Y84">
+        <v>2.6475278800000002</v>
+      </c>
+      <c r="Z84">
+        <v>2.8163779596683498</v>
+      </c>
+      <c r="AA84">
+        <v>2.8053083371385199</v>
+      </c>
+      <c r="AB84">
+        <v>2.7445432940800001</v>
+      </c>
+      <c r="AC84">
+        <v>2.80530713255204</v>
+      </c>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -7760,8 +9052,23 @@
       <c r="X85">
         <v>2.7169059916866498</v>
       </c>
+      <c r="Y85">
+        <v>2.8802130799999999</v>
+      </c>
+      <c r="Z85">
+        <v>2.8173099749364101</v>
+      </c>
+      <c r="AA85">
+        <v>2.8127292629288001</v>
+      </c>
+      <c r="AB85">
+        <v>2.5973027982300998</v>
+      </c>
+      <c r="AC85">
+        <v>2.8052765619706901</v>
+      </c>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -7834,8 +9141,23 @@
       <c r="X86">
         <v>2.86486828389019</v>
       </c>
+      <c r="Y86">
+        <v>2.9090937100000001</v>
+      </c>
+      <c r="Z86">
+        <v>2.8562184103950701</v>
+      </c>
+      <c r="AA86">
+        <v>2.8645205365298598</v>
+      </c>
+      <c r="AB86">
+        <v>3.1509990106180799</v>
+      </c>
+      <c r="AC86">
+        <v>2.8648440541169902</v>
+      </c>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -7908,8 +9230,23 @@
       <c r="X87">
         <v>2.7836378010511398</v>
       </c>
+      <c r="Y87">
+        <v>2.92332736</v>
+      </c>
+      <c r="Z87">
+        <v>2.8298045159134202</v>
+      </c>
+      <c r="AA87">
+        <v>2.8072241806415299</v>
+      </c>
+      <c r="AB87">
+        <v>2.6164397299176998</v>
+      </c>
+      <c r="AC87">
+        <v>2.8080083520127599</v>
+      </c>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -7982,8 +9319,23 @@
       <c r="X88">
         <v>2.8483543070647799</v>
       </c>
+      <c r="Y88">
+        <v>2.85724388</v>
+      </c>
+      <c r="Z88">
+        <v>2.8860839305597099</v>
+      </c>
+      <c r="AA88">
+        <v>2.8855735444479902</v>
+      </c>
+      <c r="AB88">
+        <v>3.23516794487686</v>
+      </c>
+      <c r="AC88">
+        <v>2.8838747941845302</v>
+      </c>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -8056,8 +9408,23 @@
       <c r="X89">
         <v>2.8865615802450502</v>
       </c>
+      <c r="Y89">
+        <v>2.9427314999999998</v>
+      </c>
+      <c r="Z89">
+        <v>2.85503271479429</v>
+      </c>
+      <c r="AA89">
+        <v>2.8673718263291201</v>
+      </c>
+      <c r="AB89">
+        <v>3.1331092948404402</v>
+      </c>
+      <c r="AC89">
+        <v>2.86640356413033</v>
+      </c>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -8130,8 +9497,23 @@
       <c r="X90">
         <v>2.91377636423845</v>
       </c>
+      <c r="Y90">
+        <v>3.0249440999999999</v>
+      </c>
+      <c r="Z90">
+        <v>2.8459986305368501</v>
+      </c>
+      <c r="AA90">
+        <v>2.8467738431743301</v>
+      </c>
+      <c r="AB90">
+        <v>3.0163859236820998</v>
+      </c>
+      <c r="AC90">
+        <v>2.8471998680833202</v>
+      </c>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -8204,8 +9586,23 @@
       <c r="X91">
         <v>2.7171370531711601</v>
       </c>
+      <c r="Y91">
+        <v>2.7806042</v>
+      </c>
+      <c r="Z91">
+        <v>2.8424310151159702</v>
+      </c>
+      <c r="AA91">
+        <v>2.8460271459860902</v>
+      </c>
+      <c r="AB91">
+        <v>2.9006996166171599</v>
+      </c>
+      <c r="AC91">
+        <v>2.8445391071906299</v>
+      </c>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -8278,8 +9675,23 @@
       <c r="X92">
         <v>2.8071209288327799</v>
       </c>
+      <c r="Y92">
+        <v>3.07394181</v>
+      </c>
+      <c r="Z92">
+        <v>2.8522004430885599</v>
+      </c>
+      <c r="AA92">
+        <v>2.8432392892947198</v>
+      </c>
+      <c r="AB92">
+        <v>3.1792231963359301</v>
+      </c>
+      <c r="AC92">
+        <v>2.8383477433842201</v>
+      </c>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -8352,8 +9764,23 @@
       <c r="X93">
         <v>2.7243435741122002</v>
       </c>
+      <c r="Y93">
+        <v>2.9169703400000002</v>
+      </c>
+      <c r="Z93">
+        <v>2.8561795797673102</v>
+      </c>
+      <c r="AA93">
+        <v>2.8490524369129999</v>
+      </c>
+      <c r="AB93">
+        <v>2.8411977021413399</v>
+      </c>
+      <c r="AC93">
+        <v>2.8449305450654001</v>
+      </c>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -8426,8 +9853,23 @@
       <c r="X94">
         <v>2.8742550978594901</v>
       </c>
+      <c r="Y94">
+        <v>2.9335099100000002</v>
+      </c>
+      <c r="Z94">
+        <v>2.8450060951009299</v>
+      </c>
+      <c r="AA94">
+        <v>2.84509185210884</v>
+      </c>
+      <c r="AB94">
+        <v>2.8812174646543598</v>
+      </c>
+      <c r="AC94">
+        <v>2.8416396923779401</v>
+      </c>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -8500,8 +9942,23 @@
       <c r="X95">
         <v>2.8447660950002698</v>
       </c>
+      <c r="Y95">
+        <v>2.7117306700000001</v>
+      </c>
+      <c r="Z95">
+        <v>2.8395630987455802</v>
+      </c>
+      <c r="AA95">
+        <v>2.8444893170893302</v>
+      </c>
+      <c r="AB95">
+        <v>2.6499399369749201</v>
+      </c>
+      <c r="AC95">
+        <v>2.8425107122661699</v>
+      </c>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -8574,8 +10031,23 @@
       <c r="X96">
         <v>2.77581195745723</v>
       </c>
+      <c r="Y96">
+        <v>2.7634140299999999</v>
+      </c>
+      <c r="Z96">
+        <v>2.8422529601834299</v>
+      </c>
+      <c r="AA96">
+        <v>2.83932891789338</v>
+      </c>
+      <c r="AB96">
+        <v>2.7320464925674499</v>
+      </c>
+      <c r="AC96">
+        <v>2.8392245023817599</v>
+      </c>
     </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -8648,8 +10120,23 @@
       <c r="X97">
         <v>2.7864168160192402</v>
       </c>
+      <c r="Y97">
+        <v>2.8155528099999998</v>
+      </c>
+      <c r="Z97">
+        <v>2.8408896234809999</v>
+      </c>
+      <c r="AA97">
+        <v>2.8455619812868198</v>
+      </c>
+      <c r="AB97">
+        <v>2.6381497991162699</v>
+      </c>
+      <c r="AC97">
+        <v>2.84194389469525</v>
+      </c>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -8722,8 +10209,23 @@
       <c r="X98">
         <v>2.7267895316109598</v>
       </c>
+      <c r="Y98">
+        <v>2.7660350600000001</v>
+      </c>
+      <c r="Z98">
+        <v>2.8423494369642799</v>
+      </c>
+      <c r="AA98">
+        <v>2.8395289813903499</v>
+      </c>
+      <c r="AB98">
+        <v>2.6756767950548102</v>
+      </c>
+      <c r="AC98">
+        <v>2.8379154266142801</v>
+      </c>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -8796,8 +10298,23 @@
       <c r="X99">
         <v>3.0152767456710001</v>
       </c>
+      <c r="Y99">
+        <v>2.9397443399999998</v>
+      </c>
+      <c r="Z99">
+        <v>2.9730043481720401</v>
+      </c>
+      <c r="AA99">
+        <v>2.9148108078921502</v>
+      </c>
+      <c r="AB99">
+        <v>3.1969344727379299</v>
+      </c>
+      <c r="AC99">
+        <v>2.9156216048413599</v>
+      </c>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -8870,8 +10387,23 @@
       <c r="X100">
         <v>2.8574924790855398</v>
       </c>
+      <c r="Y100">
+        <v>2.96205534</v>
+      </c>
+      <c r="Z100">
+        <v>2.8503935264015499</v>
+      </c>
+      <c r="AA100">
+        <v>2.8531193537209401</v>
+      </c>
+      <c r="AB100">
+        <v>2.9242470954431798</v>
+      </c>
+      <c r="AC100">
+        <v>2.8533675707475101</v>
+      </c>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
         <v>112</v>
       </c>
@@ -8952,7 +10484,7 @@
         <v>2.8444414508498284</v>
       </c>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
         <v>113</v>
       </c>
@@ -9004,11 +10536,26 @@
       <c r="Q102">
         <v>0.51400000000000001</v>
       </c>
+      <c r="R102">
+        <v>4.9419999999999999E-2</v>
+      </c>
+      <c r="S102">
+        <v>4.9419999999999999E-2</v>
+      </c>
       <c r="V102">
         <v>4.9299999999999997E-2</v>
       </c>
+      <c r="W102">
+        <v>5.6809999999999999E-2</v>
+      </c>
+      <c r="X102">
+        <v>4.7500000000000001E-2</v>
+      </c>
+      <c r="Y102">
+        <v>9.5579999999999998E-2</v>
+      </c>
     </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
         <v>114</v>
       </c>
@@ -9089,7 +10636,7 @@
         <v>0.2328848244986097</v>
       </c>
     </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
         <v>115</v>
       </c>
@@ -9144,7 +10691,7 @@
         <v>43098</v>
       </c>
     </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
         <v>116</v>
       </c>
@@ -9211,8 +10758,20 @@
       <c r="X105" t="s">
         <v>133</v>
       </c>
+      <c r="Z105" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA105" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB105" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC105" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:29" x14ac:dyDescent="0.15">
       <c r="G106" t="s">
         <v>119</v>
       </c>
@@ -9249,8 +10808,20 @@
       <c r="S106" t="s">
         <v>139</v>
       </c>
+      <c r="T106" t="s">
+        <v>140</v>
+      </c>
+      <c r="U106" t="s">
+        <v>141</v>
+      </c>
       <c r="V106" t="s">
         <v>137</v>
+      </c>
+      <c r="W106" t="s">
+        <v>146</v>
+      </c>
+      <c r="X106" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/teacher/ali/data/ans/result.xlsx
+++ b/teacher/ali/data/ans/result.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
   <si>
     <t>ID716</t>
   </si>
@@ -500,6 +500,14 @@
   </si>
   <si>
     <t>b</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>w</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1147,74 +1155,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1234,7 +1174,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1491,8 +1431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J76" workbookViewId="0">
-      <selection activeCell="T102" sqref="T102"/>
+    <sheetView tabSelected="1" topLeftCell="J79" workbookViewId="0">
+      <selection activeCell="Z109" sqref="Z109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10823,6 +10763,12 @@
       <c r="X106" t="s">
         <v>147</v>
       </c>
+      <c r="Z106" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA106" t="s">
+        <v>149</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/teacher/ali/data/ans/result.xlsx
+++ b/teacher/ali/data/ans/result.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
   <si>
     <t>ID716</t>
   </si>
@@ -509,6 +509,9 @@
   <si>
     <t>w</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.05049 </t>
   </si>
 </sst>
 </file>
@@ -1155,6 +1158,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1174,7 +1245,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1432,7 +1503,7 @@
   <dimension ref="A1:AC106"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J79" workbookViewId="0">
-      <selection activeCell="Z109" sqref="Z109"/>
+      <selection activeCell="X116" sqref="X116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10494,6 +10565,12 @@
       <c r="Y102">
         <v>9.5579999999999998E-2</v>
       </c>
+      <c r="Z102">
+        <v>4.9160000000000002E-2</v>
+      </c>
+      <c r="AA102" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="103" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
